--- a/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_10deg_thr105_LV0d5/report_xfit.xlsx
+++ b/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_10deg_thr105_LV0d5/report_xfit.xlsx
@@ -547,43 +547,43 @@
         <v>17001.74357135459</v>
       </c>
       <c r="C4">
-        <v>0.7737586563444896</v>
+        <v>0.7737586563444903</v>
       </c>
       <c r="D4">
         <v>72.12984364785595</v>
       </c>
       <c r="E4">
-        <v>1.677166969385834</v>
+        <v>1.677166969385835</v>
       </c>
       <c r="F4">
         <v>79478.99034227416</v>
       </c>
       <c r="G4">
-        <v>1577.200350650229</v>
+        <v>1577.20035065023</v>
       </c>
       <c r="H4">
-        <v>16936.00231775296</v>
+        <v>16936.0023177446</v>
       </c>
       <c r="I4">
-        <v>17036.99201726535</v>
+        <v>17036.99201727174</v>
       </c>
       <c r="J4">
         <v>19681.80771648644</v>
       </c>
       <c r="K4">
-        <v>0.4829430550394329</v>
+        <v>0.4829430550384914</v>
       </c>
       <c r="L4">
-        <v>85.25698070984311</v>
+        <v>85.25698070984923</v>
       </c>
       <c r="M4">
-        <v>1.213320870274764</v>
+        <v>1.213320870274802</v>
       </c>
       <c r="N4">
-        <v>183600.4385232368</v>
+        <v>183600.4385232463</v>
       </c>
       <c r="O4">
-        <v>2055.508537668971</v>
+        <v>2055.50853766658</v>
       </c>
       <c r="P4">
         <v>19639.80061991218</v>
@@ -595,19 +595,19 @@
         <v>20152.07698795831</v>
       </c>
       <c r="S4">
-        <v>0.9652402575721428</v>
+        <v>0.9652402575721429</v>
       </c>
       <c r="T4">
         <v>85.11937605325686</v>
       </c>
       <c r="U4">
-        <v>2.252242660329906</v>
+        <v>2.252242660329905</v>
       </c>
       <c r="V4">
         <v>32036.65196159359</v>
       </c>
       <c r="W4">
-        <v>689.445499213472</v>
+        <v>689.4454992134719</v>
       </c>
       <c r="X4">
         <v>20071.17622300076</v>
@@ -621,22 +621,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>16714.51122670463</v>
+        <v>16714.51122670714</v>
       </c>
       <c r="C5">
-        <v>0.5276665017582236</v>
+        <v>0.5276664993194026</v>
       </c>
       <c r="D5">
-        <v>64.21633300379496</v>
+        <v>64.21633301140599</v>
       </c>
       <c r="E5">
-        <v>1.161155207219684</v>
+        <v>1.161155192761678</v>
       </c>
       <c r="F5">
-        <v>89652.97020607183</v>
+        <v>89652.97021288544</v>
       </c>
       <c r="G5">
-        <v>1370.383656266305</v>
+        <v>1370.383634605164</v>
       </c>
       <c r="H5">
         <v>16657.10870632387</v>
@@ -660,31 +660,31 @@
         <v>186175.8805063163</v>
       </c>
       <c r="O5">
-        <v>3415.19941529819</v>
+        <v>3415.199415298191</v>
       </c>
       <c r="P5">
-        <v>18944.08752571724</v>
+        <v>18944.0875257203</v>
       </c>
       <c r="Q5">
-        <v>19049.4851548295</v>
+        <v>19049.48515482253</v>
       </c>
       <c r="R5">
-        <v>19392.00544436861</v>
+        <v>19392.00544437382</v>
       </c>
       <c r="S5">
-        <v>0.9917109623315372</v>
+        <v>0.9917109638432793</v>
       </c>
       <c r="T5">
-        <v>72.7749100821685</v>
+        <v>72.77491010746773</v>
       </c>
       <c r="U5">
-        <v>2.444071601609144</v>
+        <v>2.444071615251744</v>
       </c>
       <c r="V5">
-        <v>31399.68501498319</v>
+        <v>31399.68501959964</v>
       </c>
       <c r="W5">
-        <v>833.782371083779</v>
+        <v>833.7823828827013</v>
       </c>
       <c r="X5">
         <v>19322.04033887514</v>
@@ -701,13 +701,13 @@
         <v>17262.23748365075</v>
       </c>
       <c r="C6">
-        <v>0.9032629560247805</v>
+        <v>0.9032629560247804</v>
       </c>
       <c r="D6">
         <v>61.24882534269432</v>
       </c>
       <c r="E6">
-        <v>2.112948820324417</v>
+        <v>2.112948820324418</v>
       </c>
       <c r="F6">
         <v>94219.28300474311</v>
@@ -722,28 +722,28 @@
         <v>17290.47356253545</v>
       </c>
       <c r="J6">
-        <v>19922.74856983957</v>
+        <v>19922.74856983419</v>
       </c>
       <c r="K6">
-        <v>0.4205094037204417</v>
+        <v>0.4205094030260257</v>
       </c>
       <c r="L6">
-        <v>79.94633615184358</v>
+        <v>79.94633616827043</v>
       </c>
       <c r="M6">
-        <v>0.9393421385501987</v>
+        <v>0.9393421367615621</v>
       </c>
       <c r="N6">
-        <v>178987.0463305726</v>
+        <v>178987.0463568031</v>
       </c>
       <c r="O6">
-        <v>1764.035828169381</v>
+        <v>1764.035843243417</v>
       </c>
       <c r="P6">
-        <v>19883.06520673461</v>
+        <v>19883.0652067345</v>
       </c>
       <c r="Q6">
-        <v>19994.69909209155</v>
+        <v>19994.69909209147</v>
       </c>
       <c r="R6">
         <v>20393.42099424928</v>
@@ -755,19 +755,19 @@
         <v>79.96703589323229</v>
       </c>
       <c r="U6">
-        <v>2.722908650759708</v>
+        <v>2.722908650759709</v>
       </c>
       <c r="V6">
         <v>32209.28530629561</v>
       </c>
       <c r="W6">
-        <v>870.4122152252478</v>
+        <v>870.4122152252476</v>
       </c>
       <c r="X6">
-        <v>20321.23149880949</v>
+        <v>20321.23149882408</v>
       </c>
       <c r="Y6">
-        <v>20430.2309092861</v>
+        <v>20430.23090927464</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -775,52 +775,52 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>16101.06034181229</v>
+        <v>16101.06034180839</v>
       </c>
       <c r="C7">
-        <v>0.2927054307468211</v>
+        <v>0.2927054339566805</v>
       </c>
       <c r="D7">
-        <v>66.38457907829137</v>
+        <v>66.38457906432296</v>
       </c>
       <c r="E7">
-        <v>0.7436467997287983</v>
+        <v>0.743646800709966</v>
       </c>
       <c r="F7">
-        <v>107109.1326224196</v>
+        <v>107109.132604466</v>
       </c>
       <c r="G7">
-        <v>944.6863186671179</v>
+        <v>944.6863420903048</v>
       </c>
       <c r="H7">
-        <v>16041.77190580769</v>
+        <v>16041.7719057946</v>
       </c>
       <c r="I7">
-        <v>16130.18647680462</v>
+        <v>16130.18647681352</v>
       </c>
       <c r="J7">
-        <v>18633.37502999418</v>
+        <v>18633.3750300011</v>
       </c>
       <c r="K7">
-        <v>0.3443053187783899</v>
+        <v>0.3443053225823884</v>
       </c>
       <c r="L7">
-        <v>81.54367224873764</v>
+        <v>81.54367222737216</v>
       </c>
       <c r="M7">
-        <v>0.7949640991812363</v>
+        <v>0.7949640950465844</v>
       </c>
       <c r="N7">
-        <v>186918.7629913361</v>
+        <v>186918.762953429</v>
       </c>
       <c r="O7">
-        <v>1505.205699867882</v>
+        <v>1505.2057181313</v>
       </c>
       <c r="P7">
-        <v>18593.10216037915</v>
+        <v>18593.10216038572</v>
       </c>
       <c r="Q7">
-        <v>18706.2742813704</v>
+        <v>18706.27428135635</v>
       </c>
       <c r="R7">
         <v>19087.3682975998</v>
@@ -838,13 +838,13 @@
         <v>34185.79171430583</v>
       </c>
       <c r="W7">
-        <v>926.8460427734537</v>
+        <v>926.8460427734539</v>
       </c>
       <c r="X7">
-        <v>19010.30232735372</v>
+        <v>19010.30232735716</v>
       </c>
       <c r="Y7">
-        <v>19125.95933916547</v>
+        <v>19125.95933916105</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -870,22 +870,22 @@
         <v>1431.816457660761</v>
       </c>
       <c r="H8">
-        <v>16647.33610238261</v>
+        <v>16647.33610237783</v>
       </c>
       <c r="I8">
-        <v>16741.94870125499</v>
+        <v>16741.94870125958</v>
       </c>
       <c r="J8">
         <v>19258.6534900516</v>
       </c>
       <c r="K8">
-        <v>0.5373626726965901</v>
+        <v>0.5373626726965902</v>
       </c>
       <c r="L8">
         <v>84.61097374883519</v>
       </c>
       <c r="M8">
-        <v>1.259572341303451</v>
+        <v>1.25957234130345</v>
       </c>
       <c r="N8">
         <v>187270.5825966258</v>
@@ -900,28 +900,28 @@
         <v>19335.38674285731</v>
       </c>
       <c r="R8">
-        <v>19713.38383614924</v>
+        <v>19713.38383614972</v>
       </c>
       <c r="S8">
-        <v>1.762121038509703</v>
+        <v>1.762121035334156</v>
       </c>
       <c r="T8">
-        <v>81.9006000564317</v>
+        <v>81.90060005802904</v>
       </c>
       <c r="U8">
-        <v>3.875044860318234</v>
+        <v>3.875044829719852</v>
       </c>
       <c r="V8">
-        <v>31061.68458866114</v>
+        <v>31061.68458899792</v>
       </c>
       <c r="W8">
-        <v>1226.991191757312</v>
+        <v>1226.991189623992</v>
       </c>
       <c r="X8">
-        <v>19635.93896957798</v>
+        <v>19635.93896959374</v>
       </c>
       <c r="Y8">
-        <v>19759.29701792155</v>
+        <v>19759.2970179085</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -929,52 +929,52 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>16936.09451807483</v>
+        <v>16936.09451810552</v>
       </c>
       <c r="C9">
-        <v>1.46376150654295</v>
+        <v>1.463761509694985</v>
       </c>
       <c r="D9">
-        <v>86.03283855198536</v>
+        <v>86.03283863812158</v>
       </c>
       <c r="E9">
-        <v>3.194122563736105</v>
+        <v>3.194122520388781</v>
       </c>
       <c r="F9">
-        <v>105135.7701390448</v>
+        <v>105135.7702210808</v>
       </c>
       <c r="G9">
-        <v>3326.078318732615</v>
+        <v>3326.078333968666</v>
       </c>
       <c r="H9">
-        <v>16857.62970399539</v>
+        <v>16857.62970396231</v>
       </c>
       <c r="I9">
-        <v>16975.34758369659</v>
+        <v>16975.34758372436</v>
       </c>
       <c r="J9">
         <v>19625.23438350045</v>
       </c>
       <c r="K9">
-        <v>0.8441208671033259</v>
+        <v>0.844120867099447</v>
       </c>
       <c r="L9">
-        <v>86.84739724274188</v>
+        <v>86.8473972427448</v>
       </c>
       <c r="M9">
-        <v>1.850954782257362</v>
+        <v>1.850954782254386</v>
       </c>
       <c r="N9">
-        <v>181409.0959895656</v>
+        <v>181409.0959895705</v>
       </c>
       <c r="O9">
-        <v>3271.603719939008</v>
+        <v>3271.603719927954</v>
       </c>
       <c r="P9">
-        <v>19581.74573326456</v>
+        <v>19581.74573325284</v>
       </c>
       <c r="Q9">
-        <v>19704.26097816999</v>
+        <v>19704.26097819099</v>
       </c>
       <c r="R9">
         <v>20098.57023133499</v>
@@ -995,10 +995,10 @@
         <v>1035.225146685169</v>
       </c>
       <c r="X9">
-        <v>20009.97357332899</v>
+        <v>20009.97357336176</v>
       </c>
       <c r="Y9">
-        <v>20140.97405008325</v>
+        <v>20140.97405006322</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1006,28 +1006,28 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>16295.32816651936</v>
+        <v>16295.32816649954</v>
       </c>
       <c r="C10">
-        <v>1.543355570358865</v>
+        <v>1.543355589583046</v>
       </c>
       <c r="D10">
-        <v>79.71140576434222</v>
+        <v>79.71140571375932</v>
       </c>
       <c r="E10">
-        <v>3.217066274825961</v>
+        <v>3.217066274647843</v>
       </c>
       <c r="F10">
-        <v>53446.07818049596</v>
+        <v>53446.0781536592</v>
       </c>
       <c r="G10">
-        <v>1962.242729730526</v>
+        <v>1962.242746485968</v>
       </c>
       <c r="H10">
-        <v>16224.06940058732</v>
+        <v>16224.0694005942</v>
       </c>
       <c r="I10">
-        <v>16328.77998906778</v>
+        <v>16328.77998906268</v>
       </c>
       <c r="J10">
         <v>19232.97359078829</v>
@@ -1039,7 +1039,7 @@
         <v>91.79271965782216</v>
       </c>
       <c r="M10">
-        <v>1.622743548727629</v>
+        <v>1.62274354872763</v>
       </c>
       <c r="N10">
         <v>145899.0595941696</v>
@@ -1048,10 +1048,10 @@
         <v>2080.86151277021</v>
       </c>
       <c r="P10">
-        <v>19188.81942996999</v>
+        <v>19188.81942997544</v>
       </c>
       <c r="Q10">
-        <v>19314.84362791914</v>
+        <v>19314.84362790684</v>
       </c>
       <c r="R10">
         <v>19742.00061512594</v>
@@ -1069,13 +1069,13 @@
         <v>25425.91403371987</v>
       </c>
       <c r="W10">
-        <v>771.843506469775</v>
+        <v>771.8435064697749</v>
       </c>
       <c r="X10">
-        <v>19651.25288604578</v>
+        <v>19651.25288603164</v>
       </c>
       <c r="Y10">
-        <v>19791.26038226879</v>
+        <v>19791.26038227767</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1092,7 +1092,7 @@
         <v>59.94006973238572</v>
       </c>
       <c r="E11">
-        <v>2.18582744256042</v>
+        <v>2.185827442560421</v>
       </c>
       <c r="F11">
         <v>56540.76340055215</v>
@@ -1110,7 +1110,7 @@
         <v>19521.70802620873</v>
       </c>
       <c r="K11">
-        <v>0.7197944445471169</v>
+        <v>0.7197944445471168</v>
       </c>
       <c r="L11">
         <v>74.13955414711489</v>
@@ -1140,7 +1140,7 @@
         <v>76.13844323891934</v>
       </c>
       <c r="U11">
-        <v>2.143974828500595</v>
+        <v>2.143974828500596</v>
       </c>
       <c r="V11">
         <v>23777.29830372602</v>
@@ -1149,10 +1149,10 @@
         <v>530.0273909343973</v>
       </c>
       <c r="X11">
-        <v>19880.89071750657</v>
+        <v>19880.89071754526</v>
       </c>
       <c r="Y11">
-        <v>19994.93252819332</v>
+        <v>19994.93252815899</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1160,22 +1160,22 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>16728.54159310919</v>
+        <v>16728.54159314313</v>
       </c>
       <c r="C12">
-        <v>1.011218507316702</v>
+        <v>1.011218502732351</v>
       </c>
       <c r="D12">
-        <v>68.9318275997765</v>
+        <v>68.93182767750368</v>
       </c>
       <c r="E12">
-        <v>2.038697574097856</v>
+        <v>2.038697593546805</v>
       </c>
       <c r="F12">
-        <v>106405.8441173215</v>
+        <v>106405.8442228849</v>
       </c>
       <c r="G12">
-        <v>2904.194304344327</v>
+        <v>2904.194304559557</v>
       </c>
       <c r="H12">
         <v>16666.88706591189</v>
@@ -1193,7 +1193,7 @@
         <v>83.17556205889865</v>
       </c>
       <c r="M12">
-        <v>0.97963885967356</v>
+        <v>0.9796388596735606</v>
       </c>
       <c r="N12">
         <v>179408.7734714935</v>
@@ -1211,7 +1211,7 @@
         <v>20052.25310637165</v>
       </c>
       <c r="S12">
-        <v>0.9766643586054375</v>
+        <v>0.9766643586054379</v>
       </c>
       <c r="T12">
         <v>82.99827479475361</v>
@@ -1223,13 +1223,13 @@
         <v>32322.89908694948</v>
       </c>
       <c r="W12">
-        <v>715.8125541484861</v>
+        <v>715.8125541484862</v>
       </c>
       <c r="X12">
-        <v>19975.80941669271</v>
+        <v>19975.80941668075</v>
       </c>
       <c r="Y12">
-        <v>20092.73927514548</v>
+        <v>20092.7392751549</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1252,7 +1252,7 @@
         <v>110440.705185245</v>
       </c>
       <c r="G13">
-        <v>4048.455498236966</v>
+        <v>4048.455498236965</v>
       </c>
       <c r="H13">
         <v>16561.17395281058</v>
@@ -1261,22 +1261,22 @@
         <v>16659.63436162243</v>
       </c>
       <c r="J13">
-        <v>19439.57151558703</v>
+        <v>19439.5715155875</v>
       </c>
       <c r="K13">
-        <v>0.5412341455832947</v>
+        <v>0.5412341435506065</v>
       </c>
       <c r="L13">
-        <v>91.57654439590931</v>
+        <v>91.57654439248017</v>
       </c>
       <c r="M13">
-        <v>1.199746802795237</v>
+        <v>1.199746787407642</v>
       </c>
       <c r="N13">
-        <v>191286.3477986213</v>
+        <v>191286.3478015004</v>
       </c>
       <c r="O13">
-        <v>2096.625698118927</v>
+        <v>2096.625688734764</v>
       </c>
       <c r="P13">
         <v>19395.57436727735</v>
@@ -1285,28 +1285,28 @@
         <v>19522.40772271725</v>
       </c>
       <c r="R13">
-        <v>19933.72420446571</v>
+        <v>19933.72420447615</v>
       </c>
       <c r="S13">
-        <v>1.062265121070333</v>
+        <v>1.062265127647906</v>
       </c>
       <c r="T13">
-        <v>93.5575521652966</v>
+        <v>93.55755219460694</v>
       </c>
       <c r="U13">
-        <v>2.238031682892323</v>
+        <v>2.238031666832313</v>
       </c>
       <c r="V13">
-        <v>33209.01517004689</v>
+        <v>33209.01517818272</v>
       </c>
       <c r="W13">
-        <v>690.8143826806324</v>
+        <v>690.8143875625365</v>
       </c>
       <c r="X13">
         <v>19849.80094255587</v>
       </c>
       <c r="Y13">
-        <v>19975.90106763383</v>
+        <v>19975.90106763382</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1314,46 +1314,46 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>17396.52650582409</v>
+        <v>17396.5265058316</v>
       </c>
       <c r="C14">
-        <v>1.417164237768507</v>
+        <v>1.417164236112059</v>
       </c>
       <c r="D14">
-        <v>72.59969780337718</v>
+        <v>72.59969782107505</v>
       </c>
       <c r="E14">
-        <v>3.193127131118963</v>
+        <v>3.193127124829742</v>
       </c>
       <c r="F14">
-        <v>65040.21234619238</v>
+        <v>65040.21236230156</v>
       </c>
       <c r="G14">
-        <v>2497.434692417611</v>
+        <v>2497.434695555196</v>
       </c>
       <c r="H14">
         <v>17331.69763836975</v>
       </c>
       <c r="I14">
-        <v>17428.40512456204</v>
+        <v>17428.40512456205</v>
       </c>
       <c r="J14">
         <v>20335.66567806388</v>
       </c>
       <c r="K14">
-        <v>0.598351634394757</v>
+        <v>0.5983516343936078</v>
       </c>
       <c r="L14">
-        <v>87.04753002459753</v>
+        <v>87.0475300245934</v>
       </c>
       <c r="M14">
-        <v>1.325096451334261</v>
+        <v>1.32509645133505</v>
       </c>
       <c r="N14">
-        <v>146090.0317791827</v>
+        <v>146090.0317791772</v>
       </c>
       <c r="O14">
-        <v>1870.948300053282</v>
+        <v>1870.948300049348</v>
       </c>
       <c r="P14">
         <v>20293.06581054369</v>
@@ -1362,28 +1362,28 @@
         <v>20413.84099245013</v>
       </c>
       <c r="R14">
-        <v>20847.09919056829</v>
+        <v>20847.09919051421</v>
       </c>
       <c r="S14">
-        <v>1.952644562830386</v>
+        <v>1.952644557147492</v>
       </c>
       <c r="T14">
-        <v>97.3295809693724</v>
+        <v>97.32958081176024</v>
       </c>
       <c r="U14">
-        <v>4.337678593055143</v>
+        <v>4.337678630589146</v>
       </c>
       <c r="V14">
-        <v>27118.08551846344</v>
+        <v>27118.08548678017</v>
       </c>
       <c r="W14">
-        <v>1052.143944741381</v>
+        <v>1052.143918257307</v>
       </c>
       <c r="X14">
-        <v>20761.09233369859</v>
+        <v>20761.09233368536</v>
       </c>
       <c r="Y14">
-        <v>20888.2857050803</v>
+        <v>20888.28570508847</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1415,46 +1415,46 @@
         <v>17225.53555936282</v>
       </c>
       <c r="J15">
-        <v>19802.72629624665</v>
+        <v>19802.72629624923</v>
       </c>
       <c r="K15">
-        <v>0.6019682811182789</v>
+        <v>0.6019682817674773</v>
       </c>
       <c r="L15">
-        <v>82.01062446078394</v>
+        <v>82.01062445237029</v>
       </c>
       <c r="M15">
-        <v>1.370327735954821</v>
+        <v>1.370327746670828</v>
       </c>
       <c r="N15">
-        <v>185604.8235466729</v>
+        <v>185604.8235347173</v>
       </c>
       <c r="O15">
-        <v>2585.626451874356</v>
+        <v>2585.626452423514</v>
       </c>
       <c r="P15">
-        <v>19762.13610861095</v>
+        <v>19762.13610859608</v>
       </c>
       <c r="Q15">
-        <v>19876.7299055185</v>
+        <v>19876.72990555021</v>
       </c>
       <c r="R15">
-        <v>20264.3630583225</v>
+        <v>20264.36305833693</v>
       </c>
       <c r="S15">
-        <v>1.064203972392405</v>
+        <v>1.064203966916919</v>
       </c>
       <c r="T15">
-        <v>83.22291157628229</v>
+        <v>83.2229116193336</v>
       </c>
       <c r="U15">
-        <v>2.318906306197096</v>
+        <v>2.318906270927336</v>
       </c>
       <c r="V15">
-        <v>34096.94219988307</v>
+        <v>34096.94221242439</v>
       </c>
       <c r="W15">
-        <v>799.9308887636852</v>
+        <v>799.9308973710112</v>
       </c>
       <c r="X15">
         <v>20188.28289271245</v>
@@ -1471,49 +1471,49 @@
         <v>16651.78241477426</v>
       </c>
       <c r="C16">
-        <v>1.525922335083217</v>
+        <v>1.525922335083215</v>
       </c>
       <c r="D16">
         <v>62.77482314914125</v>
       </c>
       <c r="E16">
-        <v>3.09867422449968</v>
+        <v>3.098674224499677</v>
       </c>
       <c r="F16">
         <v>60217.98006638056</v>
       </c>
       <c r="G16">
-        <v>2773.389630197451</v>
+        <v>2773.389630197448</v>
       </c>
       <c r="H16">
-        <v>16595.25698843332</v>
+        <v>16595.25698843672</v>
       </c>
       <c r="I16">
-        <v>16679.91832442055</v>
+        <v>16679.91832441859</v>
       </c>
       <c r="J16">
-        <v>19484.8610126105</v>
+        <v>19484.86101260763</v>
       </c>
       <c r="K16">
-        <v>0.4957920616236785</v>
+        <v>0.4957920634619416</v>
       </c>
       <c r="L16">
-        <v>80.71878607205636</v>
+        <v>80.71878608158755</v>
       </c>
       <c r="M16">
-        <v>1.18221285269496</v>
+        <v>1.182212868488711</v>
       </c>
       <c r="N16">
-        <v>147693.4634837768</v>
+        <v>147693.4634971417</v>
       </c>
       <c r="O16">
-        <v>1749.833715080199</v>
+        <v>1749.83367587154</v>
       </c>
       <c r="P16">
-        <v>19444.52573990527</v>
+        <v>19444.52573990512</v>
       </c>
       <c r="Q16">
-        <v>19557.55324047428</v>
+        <v>19557.55324047331</v>
       </c>
       <c r="R16">
         <v>19977.39887992233</v>
@@ -1534,10 +1534,10 @@
         <v>772.824192015711</v>
       </c>
       <c r="X16">
-        <v>19900.84209199781</v>
+        <v>19900.84209200877</v>
       </c>
       <c r="Y16">
-        <v>20014.36326791073</v>
+        <v>20014.36326789958</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1554,7 +1554,7 @@
         <v>66.14885825686353</v>
       </c>
       <c r="E17">
-        <v>0.6097603303360334</v>
+        <v>0.6097603303360333</v>
       </c>
       <c r="F17">
         <v>103789.3274761006</v>
@@ -1563,34 +1563,34 @@
         <v>742.5672571151518</v>
       </c>
       <c r="H17">
-        <v>16771.14628581101</v>
+        <v>16771.1462858097</v>
       </c>
       <c r="I17">
-        <v>16860.0267671121</v>
+        <v>16860.02676711306</v>
       </c>
       <c r="J17">
-        <v>19473.60724195668</v>
+        <v>19473.60724195818</v>
       </c>
       <c r="K17">
-        <v>0.4603754826827797</v>
+        <v>0.4603754802118146</v>
       </c>
       <c r="L17">
-        <v>79.53944558520021</v>
+        <v>79.53944558316901</v>
       </c>
       <c r="M17">
-        <v>1.046846587248292</v>
+        <v>1.046846561512907</v>
       </c>
       <c r="N17">
-        <v>186817.8075152507</v>
+        <v>186817.8074992328</v>
       </c>
       <c r="O17">
-        <v>2037.855659003254</v>
+        <v>2037.855636743537</v>
       </c>
       <c r="P17">
-        <v>19433.40144594241</v>
+        <v>19433.4014459509</v>
       </c>
       <c r="Q17">
-        <v>19544.71567771978</v>
+        <v>19544.71567770457</v>
       </c>
       <c r="R17">
         <v>19938.1880293268</v>
@@ -1611,10 +1611,10 @@
         <v>1293.750706131948</v>
       </c>
       <c r="X17">
-        <v>19863.33804520885</v>
+        <v>19863.33804519284</v>
       </c>
       <c r="Y17">
-        <v>19974.40888935089</v>
+        <v>19974.40888936274</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1631,61 +1631,61 @@
         <v>63.36058111383881</v>
       </c>
       <c r="E18">
-        <v>2.921080710534503</v>
+        <v>2.921080710534501</v>
       </c>
       <c r="F18">
         <v>63344.83194773822</v>
       </c>
       <c r="G18">
-        <v>2554.506953593091</v>
+        <v>2554.506953593092</v>
       </c>
       <c r="H18">
-        <v>17092.39515459321</v>
+        <v>17092.39515459377</v>
       </c>
       <c r="I18">
-        <v>17178.38036726611</v>
+        <v>17178.38036726568</v>
       </c>
       <c r="J18">
-        <v>20063.29861832113</v>
+        <v>20063.29861832114</v>
       </c>
       <c r="K18">
-        <v>0.7004129299199106</v>
+        <v>0.7004129299160884</v>
       </c>
       <c r="L18">
-        <v>84.7749888875736</v>
+        <v>84.77498888755356</v>
       </c>
       <c r="M18">
-        <v>1.660222305635947</v>
+        <v>1.660222305633517</v>
       </c>
       <c r="N18">
-        <v>150494.0272446</v>
+        <v>150494.027244571</v>
       </c>
       <c r="O18">
-        <v>2422.501662526121</v>
+        <v>2422.501662516373</v>
       </c>
       <c r="P18">
-        <v>20023.65825183356</v>
+        <v>20023.65825183307</v>
       </c>
       <c r="Q18">
-        <v>20136.70588805428</v>
+        <v>20136.70588805537</v>
       </c>
       <c r="R18">
-        <v>20566.03896452002</v>
+        <v>20566.03896450869</v>
       </c>
       <c r="S18">
-        <v>1.863628009801814</v>
+        <v>1.863628015199775</v>
       </c>
       <c r="T18">
-        <v>80.8159798669585</v>
+        <v>80.81597983998026</v>
       </c>
       <c r="U18">
-        <v>4.545799420857542</v>
+        <v>4.545799523183569</v>
       </c>
       <c r="V18">
-        <v>25153.59529337858</v>
+        <v>25153.59528417627</v>
       </c>
       <c r="W18">
-        <v>1134.512917196806</v>
+        <v>1134.512962865201</v>
       </c>
       <c r="X18">
         <v>20490.58100619982</v>
@@ -1699,34 +1699,34 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>16529.70285799537</v>
+        <v>16529.7028579996</v>
       </c>
       <c r="C19">
-        <v>0.7193353149099733</v>
+        <v>0.7193353015963636</v>
       </c>
       <c r="D19">
-        <v>62.46554359973707</v>
+        <v>62.46554361340034</v>
       </c>
       <c r="E19">
-        <v>1.56721977749258</v>
+        <v>1.567219747944973</v>
       </c>
       <c r="F19">
-        <v>96651.67712363336</v>
+        <v>96651.67713470978</v>
       </c>
       <c r="G19">
-        <v>2143.956476615965</v>
+        <v>2143.956444050622</v>
       </c>
       <c r="H19">
-        <v>16472.97294910511</v>
+        <v>16472.97294911044</v>
       </c>
       <c r="I19">
-        <v>16556.6034086391</v>
+        <v>16556.60340863499</v>
       </c>
       <c r="J19">
         <v>19143.9885122224</v>
       </c>
       <c r="K19">
-        <v>0.5349900838637565</v>
+        <v>0.5349900838637563</v>
       </c>
       <c r="L19">
         <v>74.37978379934982</v>
@@ -1738,13 +1738,13 @@
         <v>176696.7635970137</v>
       </c>
       <c r="O19">
-        <v>2343.576886040979</v>
+        <v>2343.576886040978</v>
       </c>
       <c r="P19">
-        <v>19105.07863947739</v>
+        <v>19105.0786394883</v>
       </c>
       <c r="Q19">
-        <v>19211.89925064178</v>
+        <v>19211.8992506183</v>
       </c>
       <c r="R19">
         <v>19601.4989805</v>
@@ -1762,13 +1762,13 @@
         <v>33512.22084232796</v>
       </c>
       <c r="W19">
-        <v>1334.32506961583</v>
+        <v>1334.325069615831</v>
       </c>
       <c r="X19">
-        <v>19529.80315653967</v>
+        <v>19529.80315651507</v>
       </c>
       <c r="Y19">
-        <v>19637.53933076449</v>
+        <v>19637.53933078229</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1785,25 +1785,25 @@
         <v>68.10808271825336</v>
       </c>
       <c r="E20">
-        <v>2.00524717645992</v>
+        <v>2.005247176459921</v>
       </c>
       <c r="F20">
         <v>101646.9708676938</v>
       </c>
       <c r="G20">
-        <v>2841.500370155978</v>
+        <v>2841.500370155979</v>
       </c>
       <c r="H20">
-        <v>16298.87881304891</v>
+        <v>16298.87881303972</v>
       </c>
       <c r="I20">
-        <v>16387.92381445128</v>
+        <v>16387.9238144583</v>
       </c>
       <c r="J20">
         <v>18920.03495044529</v>
       </c>
       <c r="K20">
-        <v>0.4488317824029702</v>
+        <v>0.4488317824029703</v>
       </c>
       <c r="L20">
         <v>78.96504827145284</v>
@@ -1818,34 +1818,34 @@
         <v>1931.230974539602</v>
       </c>
       <c r="P20">
-        <v>18878.51634523862</v>
+        <v>18878.51634523146</v>
       </c>
       <c r="Q20">
-        <v>18991.95413688845</v>
+        <v>18991.95413690282</v>
       </c>
       <c r="R20">
-        <v>19378.37218728999</v>
+        <v>19378.3721873161</v>
       </c>
       <c r="S20">
-        <v>1.299063480740889</v>
+        <v>1.299063482660563</v>
       </c>
       <c r="T20">
-        <v>95.4514173027726</v>
+        <v>95.45141736938128</v>
       </c>
       <c r="U20">
-        <v>2.793324888061425</v>
+        <v>2.793324911331737</v>
       </c>
       <c r="V20">
-        <v>35326.03271086461</v>
+        <v>35326.03273203879</v>
       </c>
       <c r="W20">
-        <v>915.3630948484357</v>
+        <v>915.3630886861744</v>
       </c>
       <c r="X20">
-        <v>19293.62818856647</v>
+        <v>19293.62818856347</v>
       </c>
       <c r="Y20">
-        <v>19417.82009334133</v>
+        <v>19417.82009334454</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1853,22 +1853,22 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>16782.22645004989</v>
+        <v>16782.22645005265</v>
       </c>
       <c r="C21">
-        <v>0.7066910189657166</v>
+        <v>0.7066910222531176</v>
       </c>
       <c r="D21">
-        <v>71.86791143212874</v>
+        <v>71.86791143852751</v>
       </c>
       <c r="E21">
-        <v>1.511985623716702</v>
+        <v>1.511985644387005</v>
       </c>
       <c r="F21">
-        <v>93436.7287724904</v>
+        <v>93436.72878180344</v>
       </c>
       <c r="G21">
-        <v>1693.224771271398</v>
+        <v>1693.224765616922</v>
       </c>
       <c r="H21">
         <v>16717.96136591989</v>
@@ -1877,22 +1877,22 @@
         <v>16814.10735276064</v>
       </c>
       <c r="J21">
-        <v>19596.53735087051</v>
+        <v>19596.53735086421</v>
       </c>
       <c r="K21">
-        <v>0.7580435377867061</v>
+        <v>0.7580435319787726</v>
       </c>
       <c r="L21">
-        <v>87.93205328109359</v>
+        <v>87.93205330328345</v>
       </c>
       <c r="M21">
-        <v>1.709495609024913</v>
+        <v>1.709495622774843</v>
       </c>
       <c r="N21">
-        <v>183844.9239448555</v>
+        <v>183844.9239681697</v>
       </c>
       <c r="O21">
-        <v>2975.416214086848</v>
+        <v>2975.416199684816</v>
       </c>
       <c r="P21">
         <v>19554.40838776334</v>
@@ -1904,25 +1904,25 @@
         <v>20090.37361755126</v>
       </c>
       <c r="S21">
-        <v>1.003572089988031</v>
+        <v>1.003572089987931</v>
       </c>
       <c r="T21">
-        <v>90.45597931697624</v>
+        <v>90.45597931697037</v>
       </c>
       <c r="U21">
-        <v>2.243174056110026</v>
+        <v>2.243174056106249</v>
       </c>
       <c r="V21">
-        <v>33617.37079436786</v>
+        <v>33617.37079436618</v>
       </c>
       <c r="W21">
-        <v>694.4283915430756</v>
+        <v>694.4283915438851</v>
       </c>
       <c r="X21">
-        <v>20008.9368924605</v>
+        <v>20008.93689249391</v>
       </c>
       <c r="Y21">
-        <v>20132.41214957084</v>
+        <v>20132.41214954834</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1933,13 +1933,13 @@
         <v>16269.56896977604</v>
       </c>
       <c r="C22">
-        <v>0.695354644064636</v>
+        <v>0.6953546440646361</v>
       </c>
       <c r="D22">
         <v>68.59047846649669</v>
       </c>
       <c r="E22">
-        <v>1.56008304458343</v>
+        <v>1.560083044583431</v>
       </c>
       <c r="F22">
         <v>86370.85371196363</v>
@@ -1948,16 +1948,16 @@
         <v>1630.355011445259</v>
       </c>
       <c r="H22">
-        <v>16207.97103282916</v>
+        <v>16207.97103282626</v>
       </c>
       <c r="I22">
-        <v>16301.51844304341</v>
+        <v>16301.51844304552</v>
       </c>
       <c r="J22">
         <v>18803.70231873665</v>
       </c>
       <c r="K22">
-        <v>0.7201984088467313</v>
+        <v>0.720198408846731</v>
       </c>
       <c r="L22">
         <v>81.83734345040563</v>
@@ -1969,7 +1969,7 @@
         <v>178598.9608389137</v>
       </c>
       <c r="O22">
-        <v>3024.659234746963</v>
+        <v>3024.659234746962</v>
       </c>
       <c r="P22">
         <v>18761.47458514733</v>
@@ -1978,28 +1978,28 @@
         <v>18877.46289992998</v>
       </c>
       <c r="R22">
-        <v>19260.84826702033</v>
+        <v>19260.84826699771</v>
       </c>
       <c r="S22">
-        <v>3.936688684031464</v>
+        <v>3.93668870148153</v>
       </c>
       <c r="T22">
-        <v>93.45885920597711</v>
+        <v>93.45885914705302</v>
       </c>
       <c r="U22">
-        <v>8.19435172857842</v>
+        <v>8.194351903012368</v>
       </c>
       <c r="V22">
-        <v>33899.50725844458</v>
+        <v>33899.50724755554</v>
       </c>
       <c r="W22">
-        <v>2687.948491341741</v>
+        <v>2687.948533936841</v>
       </c>
       <c r="X22">
-        <v>19176.53713170204</v>
+        <v>19176.5371316685</v>
       </c>
       <c r="Y22">
-        <v>19299.31103494644</v>
+        <v>19299.31103496964</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2007,22 +2007,22 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>17293.04461157326</v>
+        <v>17293.04461156886</v>
       </c>
       <c r="C23">
-        <v>0.814103069505582</v>
+        <v>0.8141030694542098</v>
       </c>
       <c r="D23">
-        <v>66.77226390116103</v>
+        <v>66.77226388372409</v>
       </c>
       <c r="E23">
-        <v>1.931871994615139</v>
+        <v>1.931872001692533</v>
       </c>
       <c r="F23">
-        <v>76999.37674197264</v>
+        <v>76999.37673348903</v>
       </c>
       <c r="G23">
-        <v>1820.335345521903</v>
+        <v>1820.335309996496</v>
       </c>
       <c r="H23">
         <v>17233.6772624711</v>
@@ -2031,28 +2031,28 @@
         <v>17322.43893753048</v>
       </c>
       <c r="J23">
-        <v>19932.25290666367</v>
+        <v>19932.25290667149</v>
       </c>
       <c r="K23">
-        <v>0.6106614959681483</v>
+        <v>0.6106614939612629</v>
       </c>
       <c r="L23">
-        <v>83.95673762939553</v>
+        <v>83.95673760704562</v>
       </c>
       <c r="M23">
-        <v>1.383426555096984</v>
+        <v>1.383426528416127</v>
       </c>
       <c r="N23">
-        <v>178510.6582594606</v>
+        <v>178510.6582206318</v>
       </c>
       <c r="O23">
-        <v>2475.583470164945</v>
+        <v>2475.583478824984</v>
       </c>
       <c r="P23">
-        <v>19891.2646236063</v>
+        <v>19891.26462360772</v>
       </c>
       <c r="Q23">
-        <v>20007.41737939212</v>
+        <v>20007.41737938907</v>
       </c>
       <c r="R23">
         <v>20402.36766084444</v>
@@ -2087,19 +2087,19 @@
         <v>17463.77515313433</v>
       </c>
       <c r="C24">
-        <v>2.630603662165384</v>
+        <v>2.630603662165383</v>
       </c>
       <c r="D24">
         <v>84.92624967919093</v>
       </c>
       <c r="E24">
-        <v>5.303509186927461</v>
+        <v>5.303509186927458</v>
       </c>
       <c r="F24">
         <v>63736.88915808841</v>
       </c>
       <c r="G24">
-        <v>3660.634345356574</v>
+        <v>3660.634345356572</v>
       </c>
       <c r="H24">
         <v>17389.126394587</v>
@@ -2126,10 +2126,10 @@
         <v>1413.396441106911</v>
       </c>
       <c r="P24">
-        <v>20300.32500214507</v>
+        <v>20300.32500215414</v>
       </c>
       <c r="Q24">
-        <v>20424.18606997342</v>
+        <v>20424.18606994816</v>
       </c>
       <c r="R24">
         <v>20846.03751127262</v>
@@ -2141,7 +2141,7 @@
         <v>92.68047596876897</v>
       </c>
       <c r="U24">
-        <v>5.372595413614147</v>
+        <v>5.372595413614145</v>
       </c>
       <c r="V24">
         <v>29118.12856008914</v>
@@ -2150,10 +2150,10 @@
         <v>1429.76277933456</v>
       </c>
       <c r="X24">
-        <v>20764.11985822837</v>
+        <v>20764.11985818618</v>
       </c>
       <c r="Y24">
-        <v>20887.57130758617</v>
+        <v>20887.57130762104</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2161,22 +2161,22 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>16919.19063586125</v>
+        <v>16919.19063583107</v>
       </c>
       <c r="C25">
-        <v>2.435158736858178</v>
+        <v>2.43515874183185</v>
       </c>
       <c r="D25">
-        <v>90.1764924915139</v>
+        <v>90.17649241496314</v>
       </c>
       <c r="E25">
-        <v>5.047048263426835</v>
+        <v>5.047048315102183</v>
       </c>
       <c r="F25">
-        <v>65402.03240360573</v>
+        <v>65402.03236065845</v>
       </c>
       <c r="G25">
-        <v>3260.983267198817</v>
+        <v>3260.983266154233</v>
       </c>
       <c r="H25">
         <v>16838.01504468489</v>
@@ -2185,52 +2185,52 @@
         <v>16957.72213828984</v>
       </c>
       <c r="J25">
-        <v>19867.39630431693</v>
+        <v>19867.39630431165</v>
       </c>
       <c r="K25">
-        <v>0.8023556630106071</v>
+        <v>0.8023556647390947</v>
       </c>
       <c r="L25">
-        <v>94.25599329847675</v>
+        <v>94.25599331108313</v>
       </c>
       <c r="M25">
-        <v>1.714214872944871</v>
+        <v>1.714214873236457</v>
       </c>
       <c r="N25">
-        <v>148177.5590164466</v>
+        <v>148177.5590376343</v>
       </c>
       <c r="O25">
-        <v>2312.748194781047</v>
+        <v>2312.748260919867</v>
       </c>
       <c r="P25">
-        <v>19820.59771269877</v>
+        <v>19820.59771268842</v>
       </c>
       <c r="Q25">
-        <v>19953.02055661179</v>
+        <v>19953.02055663873</v>
       </c>
       <c r="R25">
-        <v>20379.41753093762</v>
+        <v>20379.41753092016</v>
       </c>
       <c r="S25">
-        <v>1.304201295469887</v>
+        <v>1.304201310080026</v>
       </c>
       <c r="T25">
-        <v>106.3108527776939</v>
+        <v>106.3108527255051</v>
       </c>
       <c r="U25">
-        <v>2.919483606343377</v>
+        <v>2.91948364070402</v>
       </c>
       <c r="V25">
-        <v>30159.36413476493</v>
+        <v>30159.36412406599</v>
       </c>
       <c r="W25">
-        <v>699.8327827118417</v>
+        <v>699.8328032244088</v>
       </c>
       <c r="X25">
-        <v>20285.48777719128</v>
+        <v>20285.48777713965</v>
       </c>
       <c r="Y25">
-        <v>20421.9257114742</v>
+        <v>20421.92571151451</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2238,34 +2238,34 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>16585.2739034565</v>
+        <v>16585.27390344425</v>
       </c>
       <c r="C26">
-        <v>1.260446398874036</v>
+        <v>1.260446389811912</v>
       </c>
       <c r="D26">
-        <v>88.63738499529057</v>
+        <v>88.63738495959308</v>
       </c>
       <c r="E26">
-        <v>2.823026434708058</v>
+        <v>2.823026431406593</v>
       </c>
       <c r="F26">
-        <v>70429.48089915354</v>
+        <v>70429.48087600122</v>
       </c>
       <c r="G26">
-        <v>1888.02451352609</v>
+        <v>1888.024500682732</v>
       </c>
       <c r="H26">
-        <v>16504.58915284226</v>
+        <v>16504.58915280981</v>
       </c>
       <c r="I26">
-        <v>16623.47589159309</v>
+        <v>16623.47589161566</v>
       </c>
       <c r="J26">
         <v>19401.54252765694</v>
       </c>
       <c r="K26">
-        <v>0.4846878030873452</v>
+        <v>0.4846878030873453</v>
       </c>
       <c r="L26">
         <v>90.38825233163746</v>
@@ -2280,16 +2280,16 @@
         <v>1510.007750033317</v>
       </c>
       <c r="P26">
-        <v>19355.09332225494</v>
+        <v>19355.09332227983</v>
       </c>
       <c r="Q26">
-        <v>19483.96276269755</v>
+        <v>19483.96276265158</v>
       </c>
       <c r="R26">
         <v>19895.32908697748</v>
       </c>
       <c r="S26">
-        <v>2.131161984315586</v>
+        <v>2.131161984315585</v>
       </c>
       <c r="T26">
         <v>109.9959181487919</v>
@@ -2301,7 +2301,7 @@
         <v>31415.51682769611</v>
       </c>
       <c r="W26">
-        <v>1141.949634115326</v>
+        <v>1141.949634115325</v>
       </c>
       <c r="X26">
         <v>19799.86485431536</v>
@@ -2318,7 +2318,7 @@
         <v>17423.28246683205</v>
       </c>
       <c r="C27">
-        <v>1.472440862021456</v>
+        <v>1.472440862021455</v>
       </c>
       <c r="D27">
         <v>88.45214872056908</v>
@@ -2330,61 +2330,61 @@
         <v>71688.56281827985</v>
       </c>
       <c r="G27">
-        <v>2308.533835357927</v>
+        <v>2308.533835357926</v>
       </c>
       <c r="H27">
-        <v>17342.44293534677</v>
+        <v>17342.44293538422</v>
       </c>
       <c r="I27">
-        <v>17465.52857255588</v>
+        <v>17465.528572527</v>
       </c>
       <c r="J27">
-        <v>20238.95375292577</v>
+        <v>20238.9537529353</v>
       </c>
       <c r="K27">
-        <v>1.147343633963677</v>
+        <v>1.147343634884448</v>
       </c>
       <c r="L27">
-        <v>94.97613114433418</v>
+        <v>94.97613111291862</v>
       </c>
       <c r="M27">
-        <v>2.502579518694294</v>
+        <v>2.502579521975955</v>
       </c>
       <c r="N27">
-        <v>152596.0728558267</v>
+        <v>152596.0728285388</v>
       </c>
       <c r="O27">
-        <v>3405.527861775295</v>
+        <v>3405.527864786116</v>
       </c>
       <c r="P27">
-        <v>20191.88413115954</v>
+        <v>20191.88413116434</v>
       </c>
       <c r="Q27">
-        <v>20325.40467584264</v>
+        <v>20325.40467582997</v>
       </c>
       <c r="R27">
-        <v>20733.01694551367</v>
+        <v>20733.01694551692</v>
       </c>
       <c r="S27">
-        <v>2.247672559231835</v>
+        <v>2.247672550744064</v>
       </c>
       <c r="T27">
-        <v>106.6192879277228</v>
+        <v>106.6192879334105</v>
       </c>
       <c r="U27">
-        <v>5.244801889442817</v>
+        <v>5.244801771852476</v>
       </c>
       <c r="V27">
-        <v>30497.2953263001</v>
+        <v>30497.29532881625</v>
       </c>
       <c r="W27">
-        <v>1217.900604054799</v>
+        <v>1217.900615494465</v>
       </c>
       <c r="X27">
-        <v>20637.50066263065</v>
+        <v>20637.50066258813</v>
       </c>
       <c r="Y27">
-        <v>20783.56912002551</v>
+        <v>20783.56912006202</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2392,76 +2392,76 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17247.14428430239</v>
+        <v>17247.1442843001</v>
       </c>
       <c r="C28">
-        <v>1.138258834167008</v>
+        <v>1.138258832061054</v>
       </c>
       <c r="D28">
-        <v>71.52785264237669</v>
+        <v>71.5278526324217</v>
       </c>
       <c r="E28">
-        <v>2.88603201293832</v>
+        <v>2.886032010102382</v>
       </c>
       <c r="F28">
-        <v>56687.29194763395</v>
+        <v>56687.29194339054</v>
       </c>
       <c r="G28">
-        <v>1790.712399169504</v>
+        <v>1790.71239505354</v>
       </c>
       <c r="H28">
-        <v>17180.68256524574</v>
+        <v>17180.68256524852</v>
       </c>
       <c r="I28">
-        <v>17281.00755753023</v>
+        <v>17281.00755752722</v>
       </c>
       <c r="J28">
-        <v>20013.84298915452</v>
+        <v>20013.84298916179</v>
       </c>
       <c r="K28">
-        <v>0.7050772254739053</v>
+        <v>0.705077226259433</v>
       </c>
       <c r="L28">
-        <v>91.39925445834798</v>
+        <v>91.3992544289074</v>
       </c>
       <c r="M28">
-        <v>1.683758615516962</v>
+        <v>1.683758636490629</v>
       </c>
       <c r="N28">
-        <v>144357.8969953062</v>
+        <v>144357.8969691779</v>
       </c>
       <c r="O28">
-        <v>2135.177199313257</v>
+        <v>2135.177196607681</v>
       </c>
       <c r="P28">
-        <v>19969.35584393943</v>
+        <v>19969.35584394897</v>
       </c>
       <c r="Q28">
-        <v>20094.72899292085</v>
+        <v>20094.72899290302</v>
       </c>
       <c r="R28">
         <v>20494.81082722585</v>
       </c>
       <c r="S28">
-        <v>1.290369285422917</v>
+        <v>1.290369285422918</v>
       </c>
       <c r="T28">
         <v>86.69667984803506</v>
       </c>
       <c r="U28">
-        <v>2.809112138300679</v>
+        <v>2.80911213830068</v>
       </c>
       <c r="V28">
         <v>25528.29184098765</v>
       </c>
       <c r="W28">
-        <v>700.4905990098658</v>
+        <v>700.4905990098659</v>
       </c>
       <c r="X28">
-        <v>20413.61776653868</v>
+        <v>20413.61776658252</v>
       </c>
       <c r="Y28">
-        <v>20539.05327540521</v>
+        <v>20539.05327536921</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2526,7 +2526,7 @@
         <v>83.44207365723244</v>
       </c>
       <c r="U29">
-        <v>5.123972194576276</v>
+        <v>5.123972194576275</v>
       </c>
       <c r="V29">
         <v>27789.40133732024</v>
@@ -2535,10 +2535,10 @@
         <v>1428.483409836692</v>
       </c>
       <c r="X29">
-        <v>19917.30266149466</v>
+        <v>19917.30266148499</v>
       </c>
       <c r="Y29">
-        <v>20036.58108734833</v>
+        <v>20036.5810873588</v>
       </c>
     </row>
   </sheetData>
@@ -2705,52 +2705,52 @@
         <v>16835.08009388116</v>
       </c>
       <c r="J4">
-        <v>19226.45401907655</v>
+        <v>19226.4540190867</v>
       </c>
       <c r="K4">
-        <v>0.5682318675145487</v>
+        <v>0.5682318699670516</v>
       </c>
       <c r="L4">
-        <v>76.86472391796349</v>
+        <v>76.86472387840158</v>
       </c>
       <c r="M4">
-        <v>1.358594088446309</v>
+        <v>1.358594108014016</v>
       </c>
       <c r="N4">
-        <v>171913.1137829411</v>
+        <v>171913.1137291146</v>
       </c>
       <c r="O4">
-        <v>2438.160214685585</v>
+        <v>2438.160219215189</v>
       </c>
       <c r="P4">
-        <v>19188.85310309232</v>
+        <v>19188.85310308819</v>
       </c>
       <c r="Q4">
-        <v>19295.85828274192</v>
+        <v>19295.85828275485</v>
       </c>
       <c r="R4">
-        <v>19664.60080986177</v>
+        <v>19664.60080984788</v>
       </c>
       <c r="S4">
-        <v>2.081761921512614</v>
+        <v>2.081761875463207</v>
       </c>
       <c r="T4">
-        <v>85.23990820147171</v>
+        <v>85.23990818087897</v>
       </c>
       <c r="U4">
-        <v>4.068975667601397</v>
+        <v>4.068975626091562</v>
       </c>
       <c r="V4">
-        <v>32781.62205628151</v>
+        <v>32781.62204221951</v>
       </c>
       <c r="W4">
-        <v>1477.745709697061</v>
+        <v>1477.745705410022</v>
       </c>
       <c r="X4">
-        <v>19589.13314369353</v>
+        <v>19589.13314369622</v>
       </c>
       <c r="Y4">
-        <v>19699.64385345425</v>
+        <v>19699.64385345234</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2758,58 +2758,58 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>16864.97437414205</v>
+        <v>16864.9743741471</v>
       </c>
       <c r="C5">
-        <v>1.026613909846306</v>
+        <v>1.026613904596323</v>
       </c>
       <c r="D5">
-        <v>68.03058202804846</v>
+        <v>68.03058204404461</v>
       </c>
       <c r="E5">
-        <v>2.316614406914898</v>
+        <v>2.316614349491979</v>
       </c>
       <c r="F5">
-        <v>98407.12955491517</v>
+        <v>98407.12956927379</v>
       </c>
       <c r="G5">
-        <v>2841.409935789863</v>
+        <v>2841.409809492175</v>
       </c>
       <c r="H5">
-        <v>16804.50699205036</v>
+        <v>16804.50699205416</v>
       </c>
       <c r="I5">
-        <v>16896.45910646447</v>
+        <v>16896.4591064606</v>
       </c>
       <c r="J5">
-        <v>19694.27699147502</v>
+        <v>19694.27699147931</v>
       </c>
       <c r="K5">
-        <v>0.7208727653659702</v>
+        <v>0.7208727680219682</v>
       </c>
       <c r="L5">
-        <v>85.60537153154749</v>
+        <v>85.60537151756809</v>
       </c>
       <c r="M5">
-        <v>1.532100512328026</v>
+        <v>1.532100514675764</v>
       </c>
       <c r="N5">
-        <v>170413.0622600433</v>
+        <v>170413.062247027</v>
       </c>
       <c r="O5">
-        <v>2620.067290191877</v>
+        <v>2620.067304705235</v>
       </c>
       <c r="P5">
-        <v>19652.21236189935</v>
+        <v>19652.21236189892</v>
       </c>
       <c r="Q5">
-        <v>19771.41123927753</v>
+        <v>19771.41123928206</v>
       </c>
       <c r="R5">
         <v>20188.27976464438</v>
       </c>
       <c r="S5">
-        <v>1.323905114293137</v>
+        <v>1.323905114293138</v>
       </c>
       <c r="T5">
         <v>85.43454058438643</v>
@@ -2821,13 +2821,13 @@
         <v>31170.192341153</v>
       </c>
       <c r="W5">
-        <v>926.1378677029808</v>
+        <v>926.1378677029809</v>
       </c>
       <c r="X5">
-        <v>20110.09872166556</v>
+        <v>20110.0987216651</v>
       </c>
       <c r="Y5">
-        <v>20227.46585420479</v>
+        <v>20227.46585420418</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2853,52 +2853,52 @@
         <v>2318.541257575402</v>
       </c>
       <c r="H6">
-        <v>16673.09350897365</v>
+        <v>16673.09350896222</v>
       </c>
       <c r="I6">
-        <v>16793.4739004322</v>
+        <v>16793.47390044057</v>
       </c>
       <c r="J6">
-        <v>19939.87906064325</v>
+        <v>19939.87906064955</v>
       </c>
       <c r="K6">
-        <v>0.7746965159113086</v>
+        <v>0.7746965206925143</v>
       </c>
       <c r="L6">
-        <v>97.98427446519858</v>
+        <v>97.98427444770917</v>
       </c>
       <c r="M6">
-        <v>1.794589517195077</v>
+        <v>1.794589508276323</v>
       </c>
       <c r="N6">
-        <v>175737.3991814613</v>
+        <v>175737.3991510432</v>
       </c>
       <c r="O6">
-        <v>2655.323701343974</v>
+        <v>2655.323705805786</v>
       </c>
       <c r="P6">
-        <v>19892.79734006842</v>
+        <v>19892.79734007195</v>
       </c>
       <c r="Q6">
-        <v>20026.07258651395</v>
+        <v>20026.07258650623</v>
       </c>
       <c r="R6">
         <v>20486.02447466955</v>
       </c>
       <c r="S6">
-        <v>0.9416819374869149</v>
+        <v>0.9416819374869146</v>
       </c>
       <c r="T6">
         <v>101.8164571270367</v>
       </c>
       <c r="U6">
-        <v>2.164301312273544</v>
+        <v>2.164301312273542</v>
       </c>
       <c r="V6">
         <v>32994.33118627226</v>
       </c>
       <c r="W6">
-        <v>577.6478937767097</v>
+        <v>577.6478937767096</v>
       </c>
       <c r="X6">
         <v>20394.29869595498</v>
@@ -2921,13 +2921,13 @@
         <v>69.79542235511977</v>
       </c>
       <c r="E7">
-        <v>2.857204209611114</v>
+        <v>2.857204209611115</v>
       </c>
       <c r="F7">
         <v>81547.1428634523</v>
       </c>
       <c r="G7">
-        <v>2754.863200297095</v>
+        <v>2754.863200297094</v>
       </c>
       <c r="H7">
         <v>16262.0484528241</v>
@@ -2939,49 +2939,49 @@
         <v>19166.56124069049</v>
       </c>
       <c r="K7">
-        <v>0.4442728842088769</v>
+        <v>0.4442728842088767</v>
       </c>
       <c r="L7">
         <v>84.3332622334301</v>
       </c>
       <c r="M7">
-        <v>0.9761680544723771</v>
+        <v>0.9761680544723766</v>
       </c>
       <c r="N7">
         <v>163893.8260456636</v>
       </c>
       <c r="O7">
-        <v>1594.40358821066</v>
+        <v>1594.403588210659</v>
       </c>
       <c r="P7">
-        <v>19122.67883903727</v>
+        <v>19122.6788390309</v>
       </c>
       <c r="Q7">
-        <v>19243.67682134498</v>
+        <v>19243.67682135586</v>
       </c>
       <c r="R7">
-        <v>19670.15462778271</v>
+        <v>19670.15462778898</v>
       </c>
       <c r="S7">
-        <v>2.05827033718818</v>
+        <v>2.058270334397138</v>
       </c>
       <c r="T7">
-        <v>92.69746111771524</v>
+        <v>92.69746113350614</v>
       </c>
       <c r="U7">
-        <v>4.11255083154508</v>
+        <v>4.1125508455929</v>
       </c>
       <c r="V7">
-        <v>30396.8690113813</v>
+        <v>30396.8690152438</v>
       </c>
       <c r="W7">
-        <v>1240.851617852369</v>
+        <v>1240.851617279107</v>
       </c>
       <c r="X7">
-        <v>19589.70699527449</v>
+        <v>19589.70699528058</v>
       </c>
       <c r="Y7">
-        <v>19707.57483773512</v>
+        <v>19707.57483773025</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2989,76 +2989,76 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>16413.1206123464</v>
+        <v>16413.1206123805</v>
       </c>
       <c r="C8">
-        <v>2.114998880397254</v>
+        <v>2.114998880775645</v>
       </c>
       <c r="D8">
-        <v>187.697988655036</v>
+        <v>187.6979887639629</v>
       </c>
       <c r="E8">
-        <v>4.751619494784182</v>
+        <v>4.751619477653887</v>
       </c>
       <c r="F8">
-        <v>113236.1793880896</v>
+        <v>113236.179433812</v>
       </c>
       <c r="G8">
-        <v>2398.109914645726</v>
+        <v>2398.10990855684</v>
       </c>
       <c r="H8">
-        <v>16246.02913146031</v>
+        <v>16246.02913145954</v>
       </c>
       <c r="I8">
-        <v>16497.14344287796</v>
+        <v>16497.14344287841</v>
       </c>
       <c r="J8">
         <v>19003.54164980206</v>
       </c>
       <c r="K8">
-        <v>1.421984652614865</v>
+        <v>1.421984652614864</v>
       </c>
       <c r="L8">
         <v>212.2195553636933</v>
       </c>
       <c r="M8">
-        <v>3.270681148385504</v>
+        <v>3.270681148385503</v>
       </c>
       <c r="N8">
         <v>180842.2903553739</v>
       </c>
       <c r="O8">
-        <v>2297.439995824168</v>
+        <v>2297.439995824167</v>
       </c>
       <c r="P8">
-        <v>18885.8321764621</v>
+        <v>18885.83217646402</v>
       </c>
       <c r="Q8">
-        <v>19196.81144533429</v>
+        <v>19196.81144533132</v>
       </c>
       <c r="R8">
-        <v>19489.7505601767</v>
+        <v>19489.75056015735</v>
       </c>
       <c r="S8">
-        <v>8.162834582800601</v>
+        <v>8.162834579579883</v>
       </c>
       <c r="T8">
-        <v>298.597419060266</v>
+        <v>298.597418992485</v>
       </c>
       <c r="U8">
-        <v>18.33377415272248</v>
+        <v>18.33377405307063</v>
       </c>
       <c r="V8">
-        <v>42750.20358186532</v>
+        <v>42750.20357494234</v>
       </c>
       <c r="W8">
-        <v>2402.94199567629</v>
+        <v>2402.941928520165</v>
       </c>
       <c r="X8">
-        <v>19268.17718100814</v>
+        <v>19268.1771810265</v>
       </c>
       <c r="Y8">
-        <v>19578.62728634179</v>
+        <v>19578.62728634046</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -3069,13 +3069,13 @@
         <v>16187.95163615201</v>
       </c>
       <c r="C9">
-        <v>0.6758599021518292</v>
+        <v>0.675859902151829</v>
       </c>
       <c r="D9">
         <v>62.41247172628798</v>
       </c>
       <c r="E9">
-        <v>1.5778774664183</v>
+        <v>1.577877466418299</v>
       </c>
       <c r="F9">
         <v>91608.0550795059</v>
@@ -3084,34 +3084,34 @@
         <v>1957.24306616791</v>
       </c>
       <c r="H9">
-        <v>16132.23665331499</v>
+        <v>16132.23665332091</v>
       </c>
       <c r="I9">
-        <v>16216.37254331985</v>
+        <v>16216.3725433147</v>
       </c>
       <c r="J9">
         <v>18706.01073009113</v>
       </c>
       <c r="K9">
-        <v>0.5732637410054183</v>
+        <v>0.5732637410054184</v>
       </c>
       <c r="L9">
         <v>78.93586864789097</v>
       </c>
       <c r="M9">
-        <v>1.40181939450682</v>
+        <v>1.401819394506821</v>
       </c>
       <c r="N9">
         <v>139638.0362959071</v>
       </c>
       <c r="O9">
-        <v>1976.711757412189</v>
+        <v>1976.71175741219</v>
       </c>
       <c r="P9">
-        <v>18667.34915265431</v>
+        <v>18667.34915265958</v>
       </c>
       <c r="Q9">
-        <v>18777.72780134062</v>
+        <v>18777.72780132463</v>
       </c>
       <c r="R9">
         <v>19154.24742409371</v>
@@ -3123,7 +3123,7 @@
         <v>82.63918196409645</v>
       </c>
       <c r="U9">
-        <v>4.864850528112656</v>
+        <v>4.864850528112651</v>
       </c>
       <c r="V9">
         <v>25905.21689752667</v>
@@ -3132,10 +3132,10 @@
         <v>1268.359123034919</v>
       </c>
       <c r="X9">
-        <v>19079.23662209729</v>
+        <v>19079.23662209422</v>
       </c>
       <c r="Y9">
-        <v>19192.82312720501</v>
+        <v>19192.82312721005</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -3161,22 +3161,22 @@
         <v>2274.631974194513</v>
       </c>
       <c r="H10">
-        <v>16237.59806848488</v>
+        <v>16237.5980684788</v>
       </c>
       <c r="I10">
-        <v>16326.27509910411</v>
+        <v>16326.27509910975</v>
       </c>
       <c r="J10">
         <v>18773.26477607891</v>
       </c>
       <c r="K10">
-        <v>0.5031349353277318</v>
+        <v>0.5031349353277319</v>
       </c>
       <c r="L10">
         <v>81.43733541170968</v>
       </c>
       <c r="M10">
-        <v>1.160906896429258</v>
+        <v>1.160906896429259</v>
       </c>
       <c r="N10">
         <v>137411.1314126691</v>
@@ -3185,22 +3185,22 @@
         <v>1621.295151665412</v>
       </c>
       <c r="P10">
-        <v>18732.5863696467</v>
+        <v>18732.58636964144</v>
       </c>
       <c r="Q10">
-        <v>18846.37641839181</v>
+        <v>18846.37641840308</v>
       </c>
       <c r="R10">
         <v>19218.8719677299</v>
       </c>
       <c r="S10">
-        <v>2.150866012489995</v>
+        <v>2.150866012489994</v>
       </c>
       <c r="T10">
         <v>88.8879240235641</v>
       </c>
       <c r="U10">
-        <v>4.39218109058853</v>
+        <v>4.392181090588529</v>
       </c>
       <c r="V10">
         <v>26115.4108637191</v>
@@ -3229,19 +3229,19 @@
         <v>74.70613827469346</v>
       </c>
       <c r="E11">
-        <v>2.638525276782901</v>
+        <v>2.638525276782902</v>
       </c>
       <c r="F11">
         <v>78951.36853289642</v>
       </c>
       <c r="G11">
-        <v>2355.671194720248</v>
+        <v>2355.671194720249</v>
       </c>
       <c r="H11">
-        <v>17563.03704317343</v>
+        <v>17563.03704318878</v>
       </c>
       <c r="I11">
-        <v>17665.04489819405</v>
+        <v>17665.04489818398</v>
       </c>
       <c r="J11">
         <v>20769.03371258604</v>
@@ -3253,7 +3253,7 @@
         <v>91.98119501256544</v>
       </c>
       <c r="M11">
-        <v>1.799165673494234</v>
+        <v>1.799165673494233</v>
       </c>
       <c r="N11">
         <v>140157.7364923437</v>
@@ -3262,10 +3262,10 @@
         <v>2298.243638072163</v>
       </c>
       <c r="P11">
-        <v>20722.36558788901</v>
+        <v>20722.36558787577</v>
       </c>
       <c r="Q11">
-        <v>20853.11472371708</v>
+        <v>20853.11472374672</v>
       </c>
       <c r="R11">
         <v>21305.06476858322</v>
@@ -3277,19 +3277,19 @@
         <v>93.54143648396662</v>
       </c>
       <c r="U11">
-        <v>3.385246743945544</v>
+        <v>3.385246743945543</v>
       </c>
       <c r="V11">
         <v>25385.75323161668</v>
       </c>
       <c r="W11">
-        <v>772.5178018978838</v>
+        <v>772.5178018978837</v>
       </c>
       <c r="X11">
-        <v>21221.24919656713</v>
+        <v>21221.24919657939</v>
       </c>
       <c r="Y11">
-        <v>21348.68638355205</v>
+        <v>21348.68638354318</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -3312,7 +3312,7 @@
         <v>96187.26979749779</v>
       </c>
       <c r="G12">
-        <v>2298.116452873912</v>
+        <v>2298.116452873913</v>
       </c>
       <c r="H12">
         <v>16563.82859128779</v>
@@ -3354,7 +3354,7 @@
         <v>76.40102619961924</v>
       </c>
       <c r="U12">
-        <v>1.862051440356758</v>
+        <v>1.862051440356757</v>
       </c>
       <c r="V12">
         <v>25408.65979608695</v>
@@ -3363,10 +3363,10 @@
         <v>500.3028294125151</v>
       </c>
       <c r="X12">
-        <v>19383.77531688535</v>
+        <v>19383.77531689105</v>
       </c>
       <c r="Y12">
-        <v>19491.92453627677</v>
+        <v>19491.92453627233</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3377,7 +3377,7 @@
         <v>16810.46733111492</v>
       </c>
       <c r="C13">
-        <v>0.4565317290171896</v>
+        <v>0.4565317290171894</v>
       </c>
       <c r="D13">
         <v>74.18487833468652</v>
@@ -3392,58 +3392,58 @@
         <v>1075.866760964049</v>
       </c>
       <c r="H13">
-        <v>16744.22502071786</v>
+        <v>16744.22502072739</v>
       </c>
       <c r="I13">
-        <v>16844.44777426749</v>
+        <v>16844.44777426108</v>
       </c>
       <c r="J13">
         <v>19670.78623974627</v>
       </c>
       <c r="K13">
-        <v>0.8511317576782695</v>
+        <v>0.8511317576782694</v>
       </c>
       <c r="L13">
         <v>85.78784528229713</v>
       </c>
       <c r="M13">
-        <v>2.072242050318074</v>
+        <v>2.072242050318073</v>
       </c>
       <c r="N13">
         <v>177853.5406998588</v>
       </c>
       <c r="O13">
-        <v>3419.841245103073</v>
+        <v>3419.841245103072</v>
       </c>
       <c r="P13">
-        <v>19629.06704428671</v>
+        <v>19629.0670442867</v>
       </c>
       <c r="Q13">
         <v>19747.08703853879</v>
       </c>
       <c r="R13">
-        <v>20170.46052722337</v>
+        <v>20170.46052728224</v>
       </c>
       <c r="S13">
-        <v>2.02236823379108</v>
+        <v>2.022368215827352</v>
       </c>
       <c r="T13">
-        <v>100.3426122498341</v>
+        <v>100.3426124311601</v>
       </c>
       <c r="U13">
-        <v>4.836498099947213</v>
+        <v>4.836498136931594</v>
       </c>
       <c r="V13">
-        <v>33722.96711981783</v>
+        <v>33722.96716730366</v>
       </c>
       <c r="W13">
-        <v>1324.599238832768</v>
+        <v>1324.59921180366</v>
       </c>
       <c r="X13">
-        <v>20081.34519183948</v>
+        <v>20081.34519183928</v>
       </c>
       <c r="Y13">
-        <v>20211.82343061897</v>
+        <v>20211.82343062012</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3454,7 +3454,7 @@
         <v>16999.5169322097</v>
       </c>
       <c r="C14">
-        <v>0.5791087451155679</v>
+        <v>0.5791087451155678</v>
       </c>
       <c r="D14">
         <v>70.42541431261299</v>
@@ -3469,22 +3469,22 @@
         <v>1441.983507517119</v>
       </c>
       <c r="H14">
-        <v>16935.0047918614</v>
+        <v>16935.00479186566</v>
       </c>
       <c r="I14">
-        <v>17036.25470672458</v>
+        <v>17036.25470672133</v>
       </c>
       <c r="J14">
         <v>19844.57622766897</v>
       </c>
       <c r="K14">
-        <v>0.9298012731758003</v>
+        <v>0.9298012731758006</v>
       </c>
       <c r="L14">
         <v>93.95835348644597</v>
       </c>
       <c r="M14">
-        <v>2.117797527542992</v>
+        <v>2.117797527542993</v>
       </c>
       <c r="N14">
         <v>185757.4272689738</v>
@@ -3493,10 +3493,10 @@
         <v>3544.914728388307</v>
       </c>
       <c r="P14">
-        <v>19802.8519176622</v>
+        <v>19802.85191766405</v>
       </c>
       <c r="Q14">
-        <v>19927.27799868994</v>
+        <v>19927.27799868278</v>
       </c>
       <c r="R14">
         <v>20345.40937634409</v>
@@ -3561,25 +3561,25 @@
         <v>87.41655706161229</v>
       </c>
       <c r="M15">
-        <v>1.518593623472152</v>
+        <v>1.518593623472153</v>
       </c>
       <c r="N15">
         <v>179520.4581749632</v>
       </c>
       <c r="O15">
-        <v>2665.371042952408</v>
+        <v>2665.371042952407</v>
       </c>
       <c r="P15">
-        <v>19181.69034693769</v>
+        <v>19181.69034693919</v>
       </c>
       <c r="Q15">
-        <v>19303.21484935255</v>
+        <v>19303.21484935026</v>
       </c>
       <c r="R15">
         <v>19730.95062631536</v>
       </c>
       <c r="S15">
-        <v>1.249762740725282</v>
+        <v>1.249762740725281</v>
       </c>
       <c r="T15">
         <v>90.90426688992534</v>
@@ -3591,13 +3591,13 @@
         <v>32844.65111048147</v>
       </c>
       <c r="W15">
-        <v>828.213541788353</v>
+        <v>828.2135417883528</v>
       </c>
       <c r="X15">
-        <v>19648.20823468578</v>
+        <v>19648.20823470885</v>
       </c>
       <c r="Y15">
-        <v>19773.68862682223</v>
+        <v>19773.68862680177</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3605,22 +3605,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16750.97870821669</v>
+        <v>16750.97870822014</v>
       </c>
       <c r="C16">
-        <v>0.5225862720854619</v>
+        <v>0.5225862752156797</v>
       </c>
       <c r="D16">
-        <v>61.94191242831783</v>
+        <v>61.9419124425297</v>
       </c>
       <c r="E16">
-        <v>1.28551566905335</v>
+        <v>1.285515680290936</v>
       </c>
       <c r="F16">
-        <v>115165.5417846105</v>
+        <v>115165.5417994697</v>
       </c>
       <c r="G16">
-        <v>1891.234068714976</v>
+        <v>1891.23410685996</v>
       </c>
       <c r="H16">
         <v>16694.76340570746</v>
@@ -3629,22 +3629,22 @@
         <v>16780.256293156</v>
       </c>
       <c r="J16">
-        <v>19303.50135554506</v>
+        <v>19303.50135553969</v>
       </c>
       <c r="K16">
-        <v>0.5265243415134968</v>
+        <v>0.5265243405630083</v>
       </c>
       <c r="L16">
-        <v>80.89926850975243</v>
+        <v>80.89926852773567</v>
       </c>
       <c r="M16">
-        <v>1.217703150643251</v>
+        <v>1.217703149878787</v>
       </c>
       <c r="N16">
-        <v>187133.2259182004</v>
+        <v>187133.2259450811</v>
       </c>
       <c r="O16">
-        <v>2317.856568595412</v>
+        <v>2317.856579793385</v>
       </c>
       <c r="P16">
         <v>19265.40477728264</v>
@@ -3653,28 +3653,28 @@
         <v>19375.60446233895</v>
       </c>
       <c r="R16">
-        <v>19758.14610067085</v>
+        <v>19758.14610066519</v>
       </c>
       <c r="S16">
-        <v>0.7959682824478979</v>
+        <v>0.7959682845807998</v>
       </c>
       <c r="T16">
-        <v>78.66029319510069</v>
+        <v>78.66029317608225</v>
       </c>
       <c r="U16">
-        <v>1.736960988168466</v>
+        <v>1.736960981863946</v>
       </c>
       <c r="V16">
-        <v>31406.31917623478</v>
+        <v>31406.31917252568</v>
       </c>
       <c r="W16">
-        <v>587.6547724247151</v>
+        <v>587.6547748562663</v>
       </c>
       <c r="X16">
-        <v>19687.02310128864</v>
+        <v>19687.02310127483</v>
       </c>
       <c r="Y16">
-        <v>19795.58056723366</v>
+        <v>19795.58056724485</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3697,7 +3697,7 @@
         <v>116207.4493042467</v>
       </c>
       <c r="G17">
-        <v>2531.128464139819</v>
+        <v>2531.12846413982</v>
       </c>
       <c r="H17">
         <v>16342.56972149227</v>
@@ -3730,22 +3730,22 @@
         <v>19191.14970798004</v>
       </c>
       <c r="R17">
-        <v>19589.76060011913</v>
+        <v>19589.76060010402</v>
       </c>
       <c r="S17">
-        <v>0.9026251627041724</v>
+        <v>0.9026251613383129</v>
       </c>
       <c r="T17">
-        <v>90.2655264917002</v>
+        <v>90.26552644728511</v>
       </c>
       <c r="U17">
-        <v>2.016955645269829</v>
+        <v>2.016955644172121</v>
       </c>
       <c r="V17">
-        <v>32726.00219872615</v>
+        <v>32726.00218425568</v>
       </c>
       <c r="W17">
-        <v>608.9156504891954</v>
+        <v>608.9156551047809</v>
       </c>
       <c r="X17">
         <v>19507.15587126626</v>
@@ -3759,28 +3759,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>16819.94905762035</v>
+        <v>16819.94905763222</v>
       </c>
       <c r="C18">
-        <v>0.7396277786493424</v>
+        <v>0.7396277769332841</v>
       </c>
       <c r="D18">
-        <v>70.26013892126467</v>
+        <v>70.26013895912124</v>
       </c>
       <c r="E18">
-        <v>1.683993600065449</v>
+        <v>1.683993590246019</v>
       </c>
       <c r="F18">
-        <v>97238.46730324572</v>
+        <v>97238.46734029693</v>
       </c>
       <c r="G18">
-        <v>1924.46385356425</v>
+        <v>1924.463855888652</v>
       </c>
       <c r="H18">
-        <v>16756.60176465759</v>
+        <v>16756.6017646634</v>
       </c>
       <c r="I18">
-        <v>16851.98335455811</v>
+        <v>16851.98335455381</v>
       </c>
       <c r="J18">
         <v>19546.67660866356</v>
@@ -3816,13 +3816,13 @@
         <v>83.53030863724273</v>
       </c>
       <c r="U18">
-        <v>2.464323167052955</v>
+        <v>2.464323167052956</v>
       </c>
       <c r="V18">
         <v>26596.29606740711</v>
       </c>
       <c r="W18">
-        <v>642.0230612696087</v>
+        <v>642.0230612696084</v>
       </c>
       <c r="X18">
         <v>19950.50642494546</v>
@@ -3836,22 +3836,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>17236.98349734115</v>
+        <v>17236.98349734164</v>
       </c>
       <c r="C19">
-        <v>0.7603735720611954</v>
+        <v>0.7603735666566818</v>
       </c>
       <c r="D19">
-        <v>65.85701308604825</v>
+        <v>65.85701308759143</v>
       </c>
       <c r="E19">
-        <v>1.561324701963983</v>
+        <v>1.561324695808039</v>
       </c>
       <c r="F19">
-        <v>111993.2313273229</v>
+        <v>111993.2313283953</v>
       </c>
       <c r="G19">
-        <v>2373.054656481561</v>
+        <v>2373.05461877312</v>
       </c>
       <c r="H19">
         <v>17179.62002782878</v>
@@ -3916,37 +3916,37 @@
         <v>16966.72537014276</v>
       </c>
       <c r="C20">
-        <v>1.120352037829994</v>
+        <v>1.120352037829995</v>
       </c>
       <c r="D20">
         <v>53.31875345049894</v>
       </c>
       <c r="E20">
-        <v>2.011146519429098</v>
+        <v>2.011146519429099</v>
       </c>
       <c r="F20">
         <v>88408.62089398361</v>
       </c>
       <c r="G20">
-        <v>3413.696488741953</v>
+        <v>3413.696488741955</v>
       </c>
       <c r="H20">
-        <v>16918.63996974264</v>
+        <v>16918.63996974008</v>
       </c>
       <c r="I20">
-        <v>16989.8058391894</v>
+        <v>16989.805839191</v>
       </c>
       <c r="J20">
         <v>19276.8242539865</v>
       </c>
       <c r="K20">
-        <v>0.5871723553688675</v>
+        <v>0.5871723553688672</v>
       </c>
       <c r="L20">
         <v>66.22730229609967</v>
       </c>
       <c r="M20">
-        <v>1.364719696676234</v>
+        <v>1.364719696676233</v>
       </c>
       <c r="N20">
         <v>138113.7027886105</v>
@@ -3955,10 +3955,10 @@
         <v>2345.177703929849</v>
       </c>
       <c r="P20">
-        <v>19240.95334763973</v>
+        <v>19240.95334764027</v>
       </c>
       <c r="Q20">
-        <v>19338.16120532698</v>
+        <v>19338.16120532065</v>
       </c>
       <c r="R20">
         <v>19690.10550099915</v>
@@ -3970,19 +3970,19 @@
         <v>67.89231547441243</v>
       </c>
       <c r="U20">
-        <v>3.818211896610827</v>
+        <v>3.818211896610826</v>
       </c>
       <c r="V20">
         <v>23958.88039035986</v>
       </c>
       <c r="W20">
-        <v>1103.938218017574</v>
+        <v>1103.938218017575</v>
       </c>
       <c r="X20">
-        <v>19628.63142739126</v>
+        <v>19628.63142738594</v>
       </c>
       <c r="Y20">
-        <v>19722.91565828403</v>
+        <v>19722.91565828765</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3993,25 +3993,25 @@
         <v>16508.21594804923</v>
       </c>
       <c r="C21">
-        <v>0.6917829042893043</v>
+        <v>0.6917829042893041</v>
       </c>
       <c r="D21">
         <v>68.92706371157159</v>
       </c>
       <c r="E21">
-        <v>1.630314913536142</v>
+        <v>1.630314913536141</v>
       </c>
       <c r="F21">
         <v>115118.9138622656</v>
       </c>
       <c r="G21">
-        <v>2197.159396541326</v>
+        <v>2197.159396541325</v>
       </c>
       <c r="H21">
-        <v>16446.63317217921</v>
+        <v>16446.63317217563</v>
       </c>
       <c r="I21">
-        <v>16540.36254348322</v>
+        <v>16540.36254348595</v>
       </c>
       <c r="J21">
         <v>19193.59684179123</v>
@@ -4023,7 +4023,7 @@
         <v>85.71824503668365</v>
       </c>
       <c r="M21">
-        <v>1.138215604413166</v>
+        <v>1.138215604413167</v>
       </c>
       <c r="N21">
         <v>151137.8644380154</v>
@@ -4047,7 +4047,7 @@
         <v>85.76773635587534</v>
       </c>
       <c r="U21">
-        <v>3.798016672029109</v>
+        <v>3.79801667202911</v>
       </c>
       <c r="V21">
         <v>26755.09217360608</v>
@@ -4056,10 +4056,10 @@
         <v>1066.288425093027</v>
       </c>
       <c r="X21">
-        <v>19588.94506597571</v>
+        <v>19588.94506596296</v>
       </c>
       <c r="Y21">
-        <v>19709.7344244965</v>
+        <v>19709.73442450717</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -4070,13 +4070,13 @@
         <v>17505.91105286834</v>
       </c>
       <c r="C22">
-        <v>0.4355611607552949</v>
+        <v>0.435561160755295</v>
       </c>
       <c r="D22">
         <v>63.50561377776433</v>
       </c>
       <c r="E22">
-        <v>0.9086726414943133</v>
+        <v>0.9086726414943137</v>
       </c>
       <c r="F22">
         <v>106444.6054950473</v>
@@ -4085,10 +4085,10 @@
         <v>1330.63832444227</v>
       </c>
       <c r="H22">
-        <v>17449.8471415807</v>
+        <v>17449.84714157408</v>
       </c>
       <c r="I22">
-        <v>17534.18371190797</v>
+        <v>17534.18371191357</v>
       </c>
       <c r="J22">
         <v>20176.84102470882</v>
@@ -4124,7 +4124,7 @@
         <v>82.9472416292556</v>
       </c>
       <c r="U22">
-        <v>5.15118831338086</v>
+        <v>5.151188313380861</v>
       </c>
       <c r="V22">
         <v>26814.08800911493</v>
@@ -4133,10 +4133,10 @@
         <v>1365.96899894365</v>
       </c>
       <c r="X22">
-        <v>20568.82443492814</v>
+        <v>20568.82443494734</v>
       </c>
       <c r="Y22">
-        <v>20680.6478915979</v>
+        <v>20680.64789158315</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -4153,7 +4153,7 @@
         <v>66.13233093736497</v>
       </c>
       <c r="E23">
-        <v>0.8240434958609437</v>
+        <v>0.8240434958609436</v>
       </c>
       <c r="F23">
         <v>110751.4248985842</v>
@@ -4171,43 +4171,43 @@
         <v>19323.4539037257</v>
       </c>
       <c r="K23">
-        <v>0.6004005253171487</v>
+        <v>0.6004005253171496</v>
       </c>
       <c r="L23">
         <v>81.31554586289786</v>
       </c>
       <c r="M23">
-        <v>1.388304690782356</v>
+        <v>1.388304690782358</v>
       </c>
       <c r="N23">
         <v>186561.1354548729</v>
       </c>
       <c r="O23">
-        <v>2629.682644716627</v>
+        <v>2629.682644716631</v>
       </c>
       <c r="P23">
-        <v>19282.94466272523</v>
+        <v>19282.9446627223</v>
       </c>
       <c r="Q23">
-        <v>19395.65665866916</v>
+        <v>19395.65665867541</v>
       </c>
       <c r="R23">
         <v>19761.54532591208</v>
       </c>
       <c r="S23">
-        <v>1.265548083868494</v>
+        <v>1.265548083882096</v>
       </c>
       <c r="T23">
-        <v>89.37531531076321</v>
+        <v>89.37531531076864</v>
       </c>
       <c r="U23">
-        <v>3.104556398926154</v>
+        <v>3.104556382378128</v>
       </c>
       <c r="V23">
-        <v>34605.72992886523</v>
+        <v>34605.72992886687</v>
       </c>
       <c r="W23">
-        <v>962.9107738979239</v>
+        <v>962.9107739040178</v>
       </c>
       <c r="X23">
         <v>19682.07026670548</v>
@@ -4245,52 +4245,52 @@
         <v>17421.88763541268</v>
       </c>
       <c r="J24">
-        <v>20290.01235748835</v>
+        <v>20290.01235748735</v>
       </c>
       <c r="K24">
-        <v>0.3944374529204497</v>
+        <v>0.3944374518484931</v>
       </c>
       <c r="L24">
-        <v>92.50003461547303</v>
+        <v>92.50003462007716</v>
       </c>
       <c r="M24">
-        <v>0.8783631335758159</v>
+        <v>0.8783631382673335</v>
       </c>
       <c r="N24">
-        <v>183137.3211664894</v>
+        <v>183137.3211673875</v>
       </c>
       <c r="O24">
-        <v>1454.463152715389</v>
+        <v>1454.463150692921</v>
       </c>
       <c r="P24">
-        <v>20241.61993461959</v>
+        <v>20241.61993462398</v>
       </c>
       <c r="Q24">
-        <v>20374.69588418194</v>
+        <v>20374.69588417089</v>
       </c>
       <c r="R24">
         <v>20791.9017021561</v>
       </c>
       <c r="S24">
-        <v>1.410989061726464</v>
+        <v>1.410989061726465</v>
       </c>
       <c r="T24">
         <v>102.2356114261136</v>
       </c>
       <c r="U24">
-        <v>3.188139396488915</v>
+        <v>3.188139396488916</v>
       </c>
       <c r="V24">
         <v>34135.24336496541</v>
       </c>
       <c r="W24">
-        <v>876.7694619402207</v>
+        <v>876.769461940221</v>
       </c>
       <c r="X24">
-        <v>20697.93184696626</v>
+        <v>20697.93184699079</v>
       </c>
       <c r="Y24">
-        <v>20842.21791701079</v>
+        <v>20842.21791699345</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -4298,22 +4298,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>17026.24808962736</v>
+        <v>17026.24808962535</v>
       </c>
       <c r="C25">
-        <v>1.085649318266582</v>
+        <v>1.085649304802268</v>
       </c>
       <c r="D25">
-        <v>66.22976690000105</v>
+        <v>66.2297668937552</v>
       </c>
       <c r="E25">
-        <v>2.327068799531162</v>
+        <v>2.32706876556036</v>
       </c>
       <c r="F25">
-        <v>90750.48838753521</v>
+        <v>90750.48838297653</v>
       </c>
       <c r="G25">
-        <v>2773.340544464997</v>
+        <v>2773.340523447378</v>
       </c>
       <c r="H25">
         <v>16967.58700160916</v>
@@ -4322,40 +4322,40 @@
         <v>17054.43468280633</v>
       </c>
       <c r="J25">
-        <v>19717.96888080645</v>
+        <v>19717.96888080571</v>
       </c>
       <c r="K25">
-        <v>0.3923740367732471</v>
+        <v>0.3923740365525099</v>
       </c>
       <c r="L25">
-        <v>79.85152277972827</v>
+        <v>79.8515227823588</v>
       </c>
       <c r="M25">
-        <v>0.871218038777574</v>
+        <v>0.8712180374795857</v>
       </c>
       <c r="N25">
-        <v>174400.4548144385</v>
+        <v>174400.454817409</v>
       </c>
       <c r="O25">
-        <v>1586.078046441448</v>
+        <v>1586.078046742329</v>
       </c>
       <c r="P25">
-        <v>19676.86758932621</v>
+        <v>19676.86758933081</v>
       </c>
       <c r="Q25">
-        <v>19790.77101772317</v>
+        <v>19790.77101771136</v>
       </c>
       <c r="R25">
         <v>20185.87887473998</v>
       </c>
       <c r="S25">
-        <v>1.623620375935231</v>
+        <v>1.62362037593523</v>
       </c>
       <c r="T25">
         <v>76.32847325666657</v>
       </c>
       <c r="U25">
-        <v>3.677708858795551</v>
+        <v>3.677708858795549</v>
       </c>
       <c r="V25">
         <v>30392.96238645794</v>
@@ -4378,7 +4378,7 @@
         <v>16887.04949925085</v>
       </c>
       <c r="C26">
-        <v>0.5576068288425905</v>
+        <v>0.5576068288425906</v>
       </c>
       <c r="D26">
         <v>71.44812794862754</v>
@@ -4390,37 +4390,37 @@
         <v>120004.176238622</v>
       </c>
       <c r="G26">
-        <v>1843.277882530023</v>
+        <v>1843.277882530024</v>
       </c>
       <c r="H26">
-        <v>16822.92056408686</v>
+        <v>16822.92056408652</v>
       </c>
       <c r="I26">
-        <v>16920.07607037553</v>
+        <v>16920.0760703754</v>
       </c>
       <c r="J26">
-        <v>19774.95058595476</v>
+        <v>19774.95058594884</v>
       </c>
       <c r="K26">
-        <v>0.7065261801340603</v>
+        <v>0.7065261749179794</v>
       </c>
       <c r="L26">
-        <v>90.10673124505297</v>
+        <v>90.10673126125589</v>
       </c>
       <c r="M26">
-        <v>1.57085612941985</v>
+        <v>1.570856139342421</v>
       </c>
       <c r="N26">
-        <v>184852.3692093302</v>
+        <v>184852.3692384204</v>
       </c>
       <c r="O26">
-        <v>2732.015558144002</v>
+        <v>2732.015556439086</v>
       </c>
       <c r="P26">
-        <v>19731.5886845375</v>
+        <v>19731.58868454557</v>
       </c>
       <c r="Q26">
-        <v>19855.63055533149</v>
+        <v>19855.63055531587</v>
       </c>
       <c r="R26">
         <v>20280.55928765286</v>
@@ -4432,7 +4432,7 @@
         <v>95.4196187978669</v>
       </c>
       <c r="U26">
-        <v>3.014668227926311</v>
+        <v>3.014668227926312</v>
       </c>
       <c r="V26">
         <v>33801.38990068612</v>
@@ -4441,10 +4441,10 @@
         <v>887.4134810942752</v>
       </c>
       <c r="X26">
-        <v>20195.3382942414</v>
+        <v>20195.33829430277</v>
       </c>
       <c r="Y26">
-        <v>20323.63337820847</v>
+        <v>20323.6333781655</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -4479,13 +4479,13 @@
         <v>18436.03536088676</v>
       </c>
       <c r="K27">
-        <v>0.7412548169099444</v>
+        <v>0.7412548169099443</v>
       </c>
       <c r="L27">
         <v>78.62361803049153</v>
       </c>
       <c r="M27">
-        <v>1.777148239089271</v>
+        <v>1.77714823908927</v>
       </c>
       <c r="N27">
         <v>181546.1943792274</v>
@@ -4494,34 +4494,34 @@
         <v>3300.923866659009</v>
       </c>
       <c r="P27">
-        <v>18397.36747682933</v>
+        <v>18397.36747684062</v>
       </c>
       <c r="Q27">
-        <v>18507.48712169476</v>
+        <v>18507.48712166376</v>
       </c>
       <c r="R27">
         <v>18883.80825486821</v>
       </c>
       <c r="S27">
-        <v>1.309791305127793</v>
+        <v>1.309791305127794</v>
       </c>
       <c r="T27">
         <v>80.54752179436946</v>
       </c>
       <c r="U27">
-        <v>2.874536081891686</v>
+        <v>2.874536081891685</v>
       </c>
       <c r="V27">
         <v>32555.05548264224</v>
       </c>
       <c r="W27">
-        <v>970.3713019861348</v>
+        <v>970.3713019861351</v>
       </c>
       <c r="X27">
-        <v>18809.67690369321</v>
+        <v>18809.67690368741</v>
       </c>
       <c r="Y27">
-        <v>18923.54897569134</v>
+        <v>18923.54897569572</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4538,7 +4538,7 @@
         <v>70.81381881723198</v>
       </c>
       <c r="E28">
-        <v>1.769230852044351</v>
+        <v>1.769230852044352</v>
       </c>
       <c r="F28">
         <v>121548.5420434459</v>
@@ -4577,28 +4577,28 @@
         <v>19239.62665474859</v>
       </c>
       <c r="R28">
-        <v>19673.24023021757</v>
+        <v>19673.24023021165</v>
       </c>
       <c r="S28">
-        <v>1.133330931059549</v>
+        <v>1.13333092934606</v>
       </c>
       <c r="T28">
-        <v>88.65861514542688</v>
+        <v>88.65861513172645</v>
       </c>
       <c r="U28">
-        <v>2.653092036755517</v>
+        <v>2.653092015813507</v>
       </c>
       <c r="V28">
-        <v>32435.12410340434</v>
+        <v>32435.12409736848</v>
       </c>
       <c r="W28">
-        <v>796.2062713169663</v>
+        <v>796.2062622937627</v>
       </c>
       <c r="X28">
-        <v>19590.16347071</v>
+        <v>19590.16347070669</v>
       </c>
       <c r="Y28">
-        <v>19716.23247499791</v>
+        <v>19716.23247500088</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4609,7 +4609,7 @@
         <v>16601.8196529602</v>
       </c>
       <c r="C29">
-        <v>0.7568969429793688</v>
+        <v>0.7568969429793689</v>
       </c>
       <c r="D29">
         <v>59.85583129809815</v>
@@ -4624,16 +4624,16 @@
         <v>2748.885564321409</v>
       </c>
       <c r="H29">
-        <v>16549.01455980887</v>
+        <v>16549.0145598124</v>
       </c>
       <c r="I29">
-        <v>16627.85330867973</v>
+        <v>16627.85330867754</v>
       </c>
       <c r="J29">
         <v>19379.96942429924</v>
       </c>
       <c r="K29">
-        <v>0.572344575538466</v>
+        <v>0.5723445755384661</v>
       </c>
       <c r="L29">
         <v>78.78587202270667</v>
@@ -4645,37 +4645,37 @@
         <v>185192.2406374639</v>
       </c>
       <c r="O29">
-        <v>2434.141863634354</v>
+        <v>2434.141863634355</v>
       </c>
       <c r="P29">
-        <v>19340.8628547741</v>
+        <v>19340.862854773</v>
       </c>
       <c r="Q29">
-        <v>19452.41704596794</v>
+        <v>19452.41704596713</v>
       </c>
       <c r="R29">
-        <v>19872.22883942119</v>
+        <v>19872.22883943214</v>
       </c>
       <c r="S29">
-        <v>2.377013564593661</v>
+        <v>2.377013573571943</v>
       </c>
       <c r="T29">
-        <v>83.37770560780439</v>
+        <v>83.3777056268095</v>
       </c>
       <c r="U29">
-        <v>4.942690539994151</v>
+        <v>4.942690537747179</v>
       </c>
       <c r="V29">
-        <v>32456.81094286518</v>
+        <v>32456.81095310054</v>
       </c>
       <c r="W29">
-        <v>1722.065009578869</v>
+        <v>1722.064999459646</v>
       </c>
       <c r="X29">
-        <v>19797.0152438719</v>
+        <v>19797.0152438735</v>
       </c>
       <c r="Y29">
-        <v>19908.64742997303</v>
+        <v>19908.64742997385</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4686,25 +4686,25 @@
         <v>17326.02248242713</v>
       </c>
       <c r="C30">
-        <v>0.9865494135650091</v>
+        <v>0.9865494135650096</v>
       </c>
       <c r="D30">
         <v>72.77716308902458</v>
       </c>
       <c r="E30">
-        <v>2.206100567089576</v>
+        <v>2.206100567089579</v>
       </c>
       <c r="F30">
         <v>103301.6042101496</v>
       </c>
       <c r="G30">
-        <v>2738.990708311238</v>
+        <v>2738.990708311239</v>
       </c>
       <c r="H30">
-        <v>17260.95068954816</v>
+        <v>17260.95068954828</v>
       </c>
       <c r="I30">
-        <v>17358.01071166986</v>
+        <v>17358.01071166971</v>
       </c>
       <c r="J30">
         <v>20050.67605222806</v>
@@ -4716,7 +4716,7 @@
         <v>84.90917456955216</v>
       </c>
       <c r="M30">
-        <v>1.726210825786526</v>
+        <v>1.726210825786528</v>
       </c>
       <c r="N30">
         <v>181130.933719706</v>
@@ -4734,25 +4734,25 @@
         <v>20537.11834136659</v>
       </c>
       <c r="S30">
-        <v>2.693147029370227</v>
+        <v>2.693147029370226</v>
       </c>
       <c r="T30">
         <v>88.39298291341866</v>
       </c>
       <c r="U30">
-        <v>5.645180364172568</v>
+        <v>5.645180364172562</v>
       </c>
       <c r="V30">
         <v>32922.39939987849</v>
       </c>
       <c r="W30">
-        <v>1838.087542772877</v>
+        <v>1838.087542772876</v>
       </c>
       <c r="X30">
-        <v>20455.93213196368</v>
+        <v>20455.9321319507</v>
       </c>
       <c r="Y30">
-        <v>20577.41215679888</v>
+        <v>20577.41215680989</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4769,7 +4769,7 @@
         <v>72.53311068617764</v>
       </c>
       <c r="E31">
-        <v>1.282023891106242</v>
+        <v>1.282023891106241</v>
       </c>
       <c r="F31">
         <v>111343.2510564944</v>
@@ -4808,22 +4808,22 @@
         <v>20332.65351408176</v>
       </c>
       <c r="R31">
-        <v>20759.94804517333</v>
+        <v>20759.94804515086</v>
       </c>
       <c r="S31">
-        <v>2.158832691014622</v>
+        <v>2.158832686964297</v>
       </c>
       <c r="T31">
-        <v>85.34347596607996</v>
+        <v>85.34347590038199</v>
       </c>
       <c r="U31">
-        <v>4.742665564701796</v>
+        <v>4.74266556412661</v>
       </c>
       <c r="V31">
-        <v>31782.94572750949</v>
+        <v>31782.94571055341</v>
       </c>
       <c r="W31">
-        <v>1529.296519008451</v>
+        <v>1529.296519205321</v>
       </c>
       <c r="X31">
         <v>20682.28240122232</v>
@@ -4837,22 +4837,22 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>16613.56928682824</v>
+        <v>16613.56928682714</v>
       </c>
       <c r="C32">
-        <v>0.3366529545442955</v>
+        <v>0.3366529538249324</v>
       </c>
       <c r="D32">
-        <v>67.79011992367086</v>
+        <v>67.79011992185984</v>
       </c>
       <c r="E32">
-        <v>0.795009725420753</v>
+        <v>0.7950097269698921</v>
       </c>
       <c r="F32">
-        <v>89594.43864466649</v>
+        <v>89594.43863933401</v>
       </c>
       <c r="G32">
-        <v>865.627866858747</v>
+        <v>865.6278707608568</v>
       </c>
       <c r="H32">
         <v>16553.67313933932</v>
@@ -4861,22 +4861,22 @@
         <v>16644.86964509652</v>
       </c>
       <c r="J32">
-        <v>19210.290892502</v>
+        <v>19210.29089250245</v>
       </c>
       <c r="K32">
-        <v>0.4423447196913405</v>
+        <v>0.4423447214884016</v>
       </c>
       <c r="L32">
-        <v>79.03970293156439</v>
+        <v>79.03970293010559</v>
       </c>
       <c r="M32">
-        <v>0.9254802377931434</v>
+        <v>0.9254802406472979</v>
       </c>
       <c r="N32">
-        <v>182255.3639775056</v>
+        <v>182255.363976073</v>
       </c>
       <c r="O32">
-        <v>1860.29252280247</v>
+        <v>1860.292553915502</v>
       </c>
       <c r="P32">
         <v>19171.24213466282</v>
@@ -4885,22 +4885,22 @@
         <v>19281.11388582653</v>
       </c>
       <c r="R32">
-        <v>19668.05725580034</v>
+        <v>19668.05725580037</v>
       </c>
       <c r="S32">
-        <v>1.553193449415797</v>
+        <v>1.553193449422059</v>
       </c>
       <c r="T32">
-        <v>82.57033290309522</v>
+        <v>82.57033290313386</v>
       </c>
       <c r="U32">
-        <v>3.521313980710757</v>
+        <v>3.521313960385974</v>
       </c>
       <c r="V32">
-        <v>33195.64608558149</v>
+        <v>33195.6460855943</v>
       </c>
       <c r="W32">
-        <v>1185.75598325774</v>
+        <v>1185.755983258523</v>
       </c>
       <c r="X32">
         <v>19594.57262496327</v>
@@ -5049,46 +5049,46 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16728.37525166868</v>
+        <v>16728.37525166645</v>
       </c>
       <c r="C4">
-        <v>0.9443506646667864</v>
+        <v>0.9443506649922945</v>
       </c>
       <c r="D4">
-        <v>62.25978337109407</v>
+        <v>62.25978336437573</v>
       </c>
       <c r="E4">
-        <v>2.171512442645087</v>
+        <v>2.171512431878434</v>
       </c>
       <c r="F4">
-        <v>84004.58937932285</v>
+        <v>84004.58937282609</v>
       </c>
       <c r="G4">
-        <v>2496.963906853715</v>
+        <v>2496.963896998466</v>
       </c>
       <c r="H4">
-        <v>16672.19227038144</v>
+        <v>16672.1922703862</v>
       </c>
       <c r="I4">
-        <v>16756.78620572167</v>
+        <v>16756.78620571842</v>
       </c>
       <c r="J4">
-        <v>19450.77654900414</v>
+        <v>19450.77654900054</v>
       </c>
       <c r="K4">
-        <v>0.8467275675201243</v>
+        <v>0.8467275646114851</v>
       </c>
       <c r="L4">
-        <v>79.68917337863851</v>
+        <v>79.68917338740975</v>
       </c>
       <c r="M4">
-        <v>1.788314468070825</v>
+        <v>1.78831447176778</v>
       </c>
       <c r="N4">
-        <v>150094.5653618124</v>
+        <v>150094.5653779064</v>
       </c>
       <c r="O4">
-        <v>2915.173554069253</v>
+        <v>2915.173545618656</v>
       </c>
       <c r="P4">
         <v>19410.34088477444</v>
@@ -5097,22 +5097,22 @@
         <v>19522.02659060824</v>
       </c>
       <c r="R4">
-        <v>19930.48501995997</v>
+        <v>19930.48501995837</v>
       </c>
       <c r="S4">
-        <v>1.959462547346351</v>
+        <v>1.959462546864119</v>
       </c>
       <c r="T4">
-        <v>82.72165887470968</v>
+        <v>82.72165887180422</v>
       </c>
       <c r="U4">
-        <v>4.222171924596848</v>
+        <v>4.222171953112927</v>
       </c>
       <c r="V4">
-        <v>27536.59648589922</v>
+        <v>27536.59648436919</v>
       </c>
       <c r="W4">
-        <v>1222.598650860105</v>
+        <v>1222.598653646071</v>
       </c>
       <c r="X4">
         <v>19853.27810288001</v>
@@ -5126,34 +5126,34 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>17414.2153178241</v>
+        <v>17414.21531782316</v>
       </c>
       <c r="C5">
-        <v>0.8093042902304273</v>
+        <v>0.8093042891032809</v>
       </c>
       <c r="D5">
-        <v>61.51199977971892</v>
+        <v>61.51199977669868</v>
       </c>
       <c r="E5">
-        <v>1.794877784612299</v>
+        <v>1.794877782045359</v>
       </c>
       <c r="F5">
-        <v>76811.50394515559</v>
+        <v>76811.50394292563</v>
       </c>
       <c r="G5">
-        <v>1874.052786356046</v>
+        <v>1874.052786378466</v>
       </c>
       <c r="H5">
-        <v>17358.8035090801</v>
+        <v>17358.80350908247</v>
       </c>
       <c r="I5">
-        <v>17441.62494743793</v>
+        <v>17441.62494743545</v>
       </c>
       <c r="J5">
         <v>20344.58902502572</v>
       </c>
       <c r="K5">
-        <v>0.717992792491049</v>
+        <v>0.7179927924910491</v>
       </c>
       <c r="L5">
         <v>79.50774511667329</v>
@@ -5165,7 +5165,7 @@
         <v>153694.8978101094</v>
       </c>
       <c r="O5">
-        <v>2649.274157498346</v>
+        <v>2649.274157498347</v>
       </c>
       <c r="P5">
         <v>20303.74348247757</v>
@@ -5174,28 +5174,28 @@
         <v>20416.21449823388</v>
       </c>
       <c r="R5">
-        <v>20851.80162258731</v>
+        <v>20851.8016226236</v>
       </c>
       <c r="S5">
-        <v>1.95243612518781</v>
+        <v>1.952436104276376</v>
       </c>
       <c r="T5">
-        <v>78.93531079994813</v>
+        <v>78.93531090884574</v>
       </c>
       <c r="U5">
-        <v>4.602024512695404</v>
+        <v>4.602024499925176</v>
       </c>
       <c r="V5">
-        <v>27310.347455333</v>
+        <v>27310.34748475553</v>
       </c>
       <c r="W5">
-        <v>1335.934847384216</v>
+        <v>1335.934820908195</v>
       </c>
       <c r="X5">
-        <v>20780.06371009335</v>
+        <v>20780.06371008764</v>
       </c>
       <c r="Y5">
-        <v>20888.0750756259</v>
+        <v>20888.07507563046</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -5212,67 +5212,67 @@
         <v>67.44311125630914</v>
       </c>
       <c r="E6">
-        <v>3.050949436134437</v>
+        <v>3.050949436134438</v>
       </c>
       <c r="F6">
         <v>87847.88860369098</v>
       </c>
       <c r="G6">
-        <v>3166.342467818011</v>
+        <v>3166.342467818012</v>
       </c>
       <c r="H6">
-        <v>16922.50856303013</v>
+        <v>16922.50856304713</v>
       </c>
       <c r="I6">
-        <v>17010.33977511133</v>
+        <v>17010.33977510003</v>
       </c>
       <c r="J6">
-        <v>19941.21933579857</v>
+        <v>19941.21933579307</v>
       </c>
       <c r="K6">
-        <v>0.4370685190208871</v>
+        <v>0.4370685186095987</v>
       </c>
       <c r="L6">
-        <v>86.16877834952354</v>
+        <v>86.16877837085232</v>
       </c>
       <c r="M6">
-        <v>1.08816755353388</v>
+        <v>1.088167552541577</v>
       </c>
       <c r="N6">
-        <v>168820.9725038922</v>
+        <v>168820.9725377995</v>
       </c>
       <c r="O6">
-        <v>1681.712729393739</v>
+        <v>1681.712725711704</v>
       </c>
       <c r="P6">
-        <v>19898.49835101126</v>
+        <v>19898.49835100881</v>
       </c>
       <c r="Q6">
-        <v>20017.74101033726</v>
+        <v>20017.74101034478</v>
       </c>
       <c r="R6">
-        <v>20459.63860429951</v>
+        <v>20459.63860429998</v>
       </c>
       <c r="S6">
-        <v>2.272535274507666</v>
+        <v>2.272535257252123</v>
       </c>
       <c r="T6">
-        <v>91.20773875934923</v>
+        <v>91.20773875779606</v>
       </c>
       <c r="U6">
-        <v>5.218927244628276</v>
+        <v>5.21892732216595</v>
       </c>
       <c r="V6">
-        <v>30610.00992765525</v>
+        <v>30610.00991778074</v>
       </c>
       <c r="W6">
-        <v>1448.028362715362</v>
+        <v>1448.028361011575</v>
       </c>
       <c r="X6">
-        <v>20377.14168769305</v>
+        <v>20377.1416876926</v>
       </c>
       <c r="Y6">
-        <v>20500.05059373398</v>
+        <v>20500.05059373269</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -5289,7 +5289,7 @@
         <v>74.19887430703069</v>
       </c>
       <c r="E7">
-        <v>1.732634751065015</v>
+        <v>1.732634751065016</v>
       </c>
       <c r="F7">
         <v>86702.83953407827</v>
@@ -5298,10 +5298,10 @@
         <v>1805.526285986911</v>
       </c>
       <c r="H7">
-        <v>16609.0351791902</v>
+        <v>16609.0351791913</v>
       </c>
       <c r="I7">
-        <v>16705.72682280077</v>
+        <v>16705.72682280028</v>
       </c>
       <c r="J7">
         <v>19678.50293344093</v>
@@ -5313,7 +5313,7 @@
         <v>87.12299474136042</v>
       </c>
       <c r="M7">
-        <v>1.637748309567727</v>
+        <v>1.637748309567728</v>
       </c>
       <c r="N7">
         <v>163141.5722431336</v>
@@ -5337,7 +5337,7 @@
         <v>86.50383633429858</v>
       </c>
       <c r="U7">
-        <v>3.560799050215689</v>
+        <v>3.56079905021569</v>
       </c>
       <c r="V7">
         <v>28942.71906973171</v>
@@ -5346,10 +5346,10 @@
         <v>1007.440657452282</v>
       </c>
       <c r="X7">
-        <v>20115.41766744871</v>
+        <v>20115.41766747165</v>
       </c>
       <c r="Y7">
-        <v>20237.89459642035</v>
+        <v>20237.89459640207</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -5360,31 +5360,31 @@
         <v>16663.23007130105</v>
       </c>
       <c r="C8">
-        <v>1.468772750689001</v>
+        <v>1.468772750689</v>
       </c>
       <c r="D8">
         <v>62.52895475522476</v>
       </c>
       <c r="E8">
-        <v>2.783442923697324</v>
+        <v>2.783442923697323</v>
       </c>
       <c r="F8">
         <v>89095.60478067677</v>
       </c>
       <c r="G8">
-        <v>3887.442089495228</v>
+        <v>3887.442089495226</v>
       </c>
       <c r="H8">
-        <v>16608.35851537978</v>
+        <v>16608.35851537311</v>
       </c>
       <c r="I8">
-        <v>16687.84766035127</v>
+        <v>16687.84766035565</v>
       </c>
       <c r="J8">
         <v>19311.37588897422</v>
       </c>
       <c r="K8">
-        <v>0.5712620796423862</v>
+        <v>0.5712620796423861</v>
       </c>
       <c r="L8">
         <v>75.00607414047384</v>
@@ -5399,16 +5399,16 @@
         <v>2353.315587098018</v>
       </c>
       <c r="P8">
-        <v>19273.8049723238</v>
+        <v>19273.80497232281</v>
       </c>
       <c r="Q8">
-        <v>19378.57461825877</v>
+        <v>19378.574618261</v>
       </c>
       <c r="R8">
         <v>19780.21744526341</v>
       </c>
       <c r="S8">
-        <v>0.9597970242164207</v>
+        <v>0.9597970242164205</v>
       </c>
       <c r="T8">
         <v>69.98466884213018</v>
@@ -5420,13 +5420,13 @@
         <v>26019.13435967236</v>
       </c>
       <c r="W8">
-        <v>672.1742400350014</v>
+        <v>672.1742400350012</v>
       </c>
       <c r="X8">
-        <v>19714.33779145103</v>
+        <v>19714.33779144982</v>
       </c>
       <c r="Y8">
-        <v>19816.25797135255</v>
+        <v>19816.25797135348</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -5434,28 +5434,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16734.12104069581</v>
+        <v>16734.12104071216</v>
       </c>
       <c r="C9">
-        <v>0.6797812127336591</v>
+        <v>0.6797812075281403</v>
       </c>
       <c r="D9">
-        <v>60.51096200054726</v>
+        <v>60.51096204823487</v>
       </c>
       <c r="E9">
-        <v>1.474331446366876</v>
+        <v>1.474331430523708</v>
       </c>
       <c r="F9">
-        <v>62276.88225928871</v>
+        <v>62276.88229553165</v>
       </c>
       <c r="G9">
-        <v>1279.895405186324</v>
+        <v>1279.895395005025</v>
       </c>
       <c r="H9">
-        <v>16679.84743717491</v>
+        <v>16679.84743717432</v>
       </c>
       <c r="I9">
-        <v>16761.4086139612</v>
+        <v>16761.40861396159</v>
       </c>
       <c r="J9">
         <v>19394.67237211394</v>
@@ -5467,7 +5467,7 @@
         <v>77.14680268389566</v>
       </c>
       <c r="M9">
-        <v>0.7194881440015148</v>
+        <v>0.7194881440015151</v>
       </c>
       <c r="N9">
         <v>126729.6046635852</v>
@@ -5476,34 +5476,34 @@
         <v>965.9920694456226</v>
       </c>
       <c r="P9">
-        <v>19355.98131984153</v>
+        <v>19355.98131983857</v>
       </c>
       <c r="Q9">
-        <v>19464.2260692772</v>
+        <v>19464.22606928527</v>
       </c>
       <c r="R9">
-        <v>19866.58004107727</v>
+        <v>19866.58004104357</v>
       </c>
       <c r="S9">
-        <v>1.902310799494694</v>
+        <v>1.902310794223072</v>
       </c>
       <c r="T9">
-        <v>77.55110349077012</v>
+        <v>77.55110341331758</v>
       </c>
       <c r="U9">
-        <v>3.631418217864856</v>
+        <v>3.631418274502227</v>
       </c>
       <c r="V9">
-        <v>24699.59738545691</v>
+        <v>24699.59736462166</v>
       </c>
       <c r="W9">
-        <v>1105.698945188026</v>
+        <v>1105.698965871544</v>
       </c>
       <c r="X9">
-        <v>19795.89952150633</v>
+        <v>19795.8995215069</v>
       </c>
       <c r="Y9">
-        <v>19899.94732362553</v>
+        <v>19899.9473236243</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -5514,13 +5514,13 @@
         <v>16861.44531645247</v>
       </c>
       <c r="C10">
-        <v>0.8045981258455942</v>
+        <v>0.8045981258455941</v>
       </c>
       <c r="D10">
         <v>73.03789694845736</v>
       </c>
       <c r="E10">
-        <v>1.783084772134142</v>
+        <v>1.783084772134141</v>
       </c>
       <c r="F10">
         <v>64457.94118509594</v>
@@ -5529,28 +5529,28 @@
         <v>1333.046542102561</v>
       </c>
       <c r="H10">
-        <v>16796.03104461135</v>
+        <v>16796.03104461494</v>
       </c>
       <c r="I10">
-        <v>16894.66353002622</v>
+        <v>16894.66353002389</v>
       </c>
       <c r="J10">
         <v>19992.46160151505</v>
       </c>
       <c r="K10">
-        <v>0.2985531080110598</v>
+        <v>0.2985531080109215</v>
       </c>
       <c r="L10">
-        <v>90.60803368099535</v>
+        <v>90.60803368099826</v>
       </c>
       <c r="M10">
-        <v>0.6976912431129321</v>
+        <v>0.6976912431139363</v>
       </c>
       <c r="N10">
-        <v>125809.4035254373</v>
+        <v>125809.4035254403</v>
       </c>
       <c r="O10">
-        <v>788.1544620458677</v>
+        <v>788.1544620448915</v>
       </c>
       <c r="P10">
         <v>19948.13757893555</v>
@@ -5559,28 +5559,28 @@
         <v>20073.78550437686</v>
       </c>
       <c r="R10">
-        <v>20539.24319441456</v>
+        <v>20539.24319441606</v>
       </c>
       <c r="S10">
-        <v>1.322421300816194</v>
+        <v>1.3224213032166</v>
       </c>
       <c r="T10">
-        <v>95.27632257553142</v>
+        <v>95.27632258049938</v>
       </c>
       <c r="U10">
-        <v>3.074381768380773</v>
+        <v>3.074381774940784</v>
       </c>
       <c r="V10">
-        <v>23671.83505947852</v>
+        <v>23671.83506033565</v>
       </c>
       <c r="W10">
-        <v>624.9396486705366</v>
+        <v>624.9396527767875</v>
       </c>
       <c r="X10">
-        <v>20453.81167071651</v>
+        <v>20453.81167073113</v>
       </c>
       <c r="Y10">
-        <v>20583.46940505537</v>
+        <v>20583.46940504472</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -5591,13 +5591,13 @@
         <v>16917.9419866388</v>
       </c>
       <c r="C11">
-        <v>0.8834888089337124</v>
+        <v>0.8834888089337125</v>
       </c>
       <c r="D11">
         <v>54.7156854252511</v>
       </c>
       <c r="E11">
-        <v>1.929267634854755</v>
+        <v>1.929267634854756</v>
       </c>
       <c r="F11">
         <v>61273.55755352826</v>
@@ -5606,10 +5606,10 @@
         <v>1831.401008905129</v>
       </c>
       <c r="H11">
-        <v>16868.88723608364</v>
+        <v>16868.88723608642</v>
       </c>
       <c r="I11">
-        <v>16941.46143905806</v>
+        <v>16941.46143905723</v>
       </c>
       <c r="J11">
         <v>19483.6766642106</v>
@@ -5621,7 +5621,7 @@
         <v>72.41288531139494</v>
       </c>
       <c r="M11">
-        <v>1.196767722183247</v>
+        <v>1.196767722183248</v>
       </c>
       <c r="N11">
         <v>126035.8403225333</v>
@@ -5630,10 +5630,10 @@
         <v>1623.215679593786</v>
       </c>
       <c r="P11">
-        <v>19447.40666841513</v>
+        <v>19447.40666841928</v>
       </c>
       <c r="Q11">
-        <v>19548.33318860385</v>
+        <v>19548.33318859777</v>
       </c>
       <c r="R11">
         <v>19943.08754123019</v>
@@ -5654,10 +5654,10 @@
         <v>1376.681719807882</v>
       </c>
       <c r="X11">
-        <v>19877.31673600678</v>
+        <v>19877.31673598108</v>
       </c>
       <c r="Y11">
-        <v>19973.51502357715</v>
+        <v>19973.51502359405</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -5668,43 +5668,43 @@
         <v>16058.08830488361</v>
       </c>
       <c r="C12">
-        <v>0.8554647616483649</v>
+        <v>0.855464761648365</v>
       </c>
       <c r="D12">
         <v>53.71300055474185</v>
       </c>
       <c r="E12">
-        <v>2.357086751409353</v>
+        <v>2.357086751409354</v>
       </c>
       <c r="F12">
         <v>63223.12169807139</v>
       </c>
       <c r="G12">
-        <v>2157.538723578571</v>
+        <v>2157.538723578572</v>
       </c>
       <c r="H12">
-        <v>16010.2053359583</v>
+        <v>16010.20533596083</v>
       </c>
       <c r="I12">
-        <v>16081.73334661435</v>
+        <v>16081.73334661199</v>
       </c>
       <c r="J12">
-        <v>18428.54055951109</v>
+        <v>18428.54055950371</v>
       </c>
       <c r="K12">
-        <v>0.634270551099014</v>
+        <v>0.6342705482407474</v>
       </c>
       <c r="L12">
-        <v>70.57740819289991</v>
+        <v>70.57740821327249</v>
       </c>
       <c r="M12">
-        <v>1.352840865773971</v>
+        <v>1.352840845570499</v>
       </c>
       <c r="N12">
-        <v>137127.3750148754</v>
+        <v>137127.3750468497</v>
       </c>
       <c r="O12">
-        <v>2254.999593431078</v>
+        <v>2254.999553564008</v>
       </c>
       <c r="P12">
         <v>18393.02012426441</v>
@@ -5713,28 +5713,28 @@
         <v>18492.75793868916</v>
       </c>
       <c r="R12">
-        <v>18858.39833705236</v>
+        <v>18858.39833700258</v>
       </c>
       <c r="S12">
-        <v>1.765610967268693</v>
+        <v>1.765610972019564</v>
       </c>
       <c r="T12">
-        <v>74.60807661766478</v>
+        <v>74.60807642466108</v>
       </c>
       <c r="U12">
-        <v>4.479270975474061</v>
+        <v>4.47927102655979</v>
       </c>
       <c r="V12">
-        <v>25228.60963912059</v>
+        <v>25228.60959386022</v>
       </c>
       <c r="W12">
-        <v>1200.193537886887</v>
+        <v>1200.193555606932</v>
       </c>
       <c r="X12">
-        <v>18790.60466095336</v>
+        <v>18790.60466094268</v>
       </c>
       <c r="Y12">
-        <v>18891.35566338959</v>
+        <v>18891.35566340011</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -5769,13 +5769,13 @@
         <v>20012.14480086632</v>
       </c>
       <c r="K13">
-        <v>0.548032718351404</v>
+        <v>0.5480327183514039</v>
       </c>
       <c r="L13">
         <v>80.16642672959965</v>
       </c>
       <c r="M13">
-        <v>1.209340038108754</v>
+        <v>1.209340038108753</v>
       </c>
       <c r="N13">
         <v>169916.4104672675</v>
@@ -5784,22 +5784,22 @@
         <v>2165.023082597943</v>
       </c>
       <c r="P13">
-        <v>19971.89487443869</v>
+        <v>19971.89487444862</v>
       </c>
       <c r="Q13">
-        <v>20083.30014370352</v>
+        <v>20083.30014368308</v>
       </c>
       <c r="R13">
         <v>20521.96473257369</v>
       </c>
       <c r="S13">
-        <v>1.61404923177554</v>
+        <v>1.614049231775541</v>
       </c>
       <c r="T13">
         <v>82.72299034608743</v>
       </c>
       <c r="U13">
-        <v>3.712884756816713</v>
+        <v>3.712884756816714</v>
       </c>
       <c r="V13">
         <v>29884.32201956818</v>
@@ -5808,10 +5808,10 @@
         <v>1099.256379680738</v>
       </c>
       <c r="X13">
-        <v>20446.56345198343</v>
+        <v>20446.56345199364</v>
       </c>
       <c r="Y13">
-        <v>20560.45440926302</v>
+        <v>20560.45440925537</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -5822,31 +5822,31 @@
         <v>16874.88083595999</v>
       </c>
       <c r="C14">
-        <v>1.092357467329557</v>
+        <v>1.092357467329556</v>
       </c>
       <c r="D14">
         <v>61.32855245195123</v>
       </c>
       <c r="E14">
-        <v>2.366888996425723</v>
+        <v>2.366888996425722</v>
       </c>
       <c r="F14">
         <v>62781.20077801216</v>
       </c>
       <c r="G14">
-        <v>2056.825515249564</v>
+        <v>2056.825515249563</v>
       </c>
       <c r="H14">
-        <v>16818.89386107101</v>
+        <v>16818.8938610883</v>
       </c>
       <c r="I14">
-        <v>16903.70331405141</v>
+        <v>16903.70331403849</v>
       </c>
       <c r="J14">
         <v>19652.3631971314</v>
       </c>
       <c r="K14">
-        <v>0.6592123420314652</v>
+        <v>0.6592123420314653</v>
       </c>
       <c r="L14">
         <v>78.71136944840028</v>
@@ -5861,34 +5861,34 @@
         <v>2090.993040933974</v>
       </c>
       <c r="P14">
-        <v>19612.79888593502</v>
+        <v>19612.79888592612</v>
       </c>
       <c r="Q14">
-        <v>19723.25142655385</v>
+        <v>19723.25142657434</v>
       </c>
       <c r="R14">
-        <v>20137.19353966459</v>
+        <v>20137.1935396743</v>
       </c>
       <c r="S14">
-        <v>1.473381734725214</v>
+        <v>1.473381728794801</v>
       </c>
       <c r="T14">
-        <v>85.74404557319237</v>
+        <v>85.74404560609135</v>
       </c>
       <c r="U14">
-        <v>3.462743236671161</v>
+        <v>3.462743257804746</v>
       </c>
       <c r="V14">
-        <v>24956.07574734818</v>
+        <v>24956.07575341501</v>
       </c>
       <c r="W14">
-        <v>837.2729552340298</v>
+        <v>837.2729469251556</v>
       </c>
       <c r="X14">
-        <v>20061.0430655414</v>
+        <v>20061.04306554462</v>
       </c>
       <c r="Y14">
-        <v>20173.2035316235</v>
+        <v>20173.20353162028</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5905,7 +5905,7 @@
         <v>70.35749658900144</v>
       </c>
       <c r="E15">
-        <v>2.387972504238841</v>
+        <v>2.387972504238842</v>
       </c>
       <c r="F15">
         <v>106112.8418394559</v>
@@ -5914,28 +5914,28 @@
         <v>2923.786758196885</v>
       </c>
       <c r="H15">
-        <v>16951.26552295406</v>
+        <v>16951.26552293788</v>
       </c>
       <c r="I15">
-        <v>17043.32902768229</v>
+        <v>17043.3290276941</v>
       </c>
       <c r="J15">
-        <v>20130.89287475322</v>
+        <v>20130.89287475352</v>
       </c>
       <c r="K15">
-        <v>0.5507287957764182</v>
+        <v>0.5507287957641808</v>
       </c>
       <c r="L15">
-        <v>87.98094626755692</v>
+        <v>87.98094626621037</v>
       </c>
       <c r="M15">
-        <v>1.394232554009714</v>
+        <v>1.394232555863976</v>
       </c>
       <c r="N15">
-        <v>175169.1329182057</v>
+        <v>175169.1329167436</v>
       </c>
       <c r="O15">
-        <v>2174.999355154548</v>
+        <v>2174.9993567693</v>
       </c>
       <c r="P15">
         <v>20087.86320386729</v>
@@ -5953,7 +5953,7 @@
         <v>83.51203766233712</v>
       </c>
       <c r="U15">
-        <v>2.844129171488446</v>
+        <v>2.844129171488447</v>
       </c>
       <c r="V15">
         <v>30052.07971582176</v>
@@ -5976,13 +5976,13 @@
         <v>16131.96288764668</v>
       </c>
       <c r="C16">
-        <v>0.6980872674167297</v>
+        <v>0.6980872674167298</v>
       </c>
       <c r="D16">
         <v>65.45233453075848</v>
       </c>
       <c r="E16">
-        <v>1.718299871758105</v>
+        <v>1.718299871758104</v>
       </c>
       <c r="F16">
         <v>101541.3992879584</v>
@@ -5991,28 +5991,28 @@
         <v>2127.941395831851</v>
       </c>
       <c r="H16">
-        <v>16073.99089630125</v>
+        <v>16073.99089629923</v>
       </c>
       <c r="I16">
-        <v>16160.46824039491</v>
+        <v>16160.4682403962</v>
       </c>
       <c r="J16">
-        <v>18819.90917262367</v>
+        <v>18819.90917262986</v>
       </c>
       <c r="K16">
-        <v>0.6707018903950599</v>
+        <v>0.6707018877922125</v>
       </c>
       <c r="L16">
-        <v>81.48530390831823</v>
+        <v>81.48530388675935</v>
       </c>
       <c r="M16">
-        <v>1.552539819714878</v>
+        <v>1.55253982135117</v>
       </c>
       <c r="N16">
-        <v>162807.6220390236</v>
+        <v>162807.6220060042</v>
       </c>
       <c r="O16">
-        <v>2527.45213143715</v>
+        <v>2527.452087375127</v>
       </c>
       <c r="P16">
         <v>18779.76182067756</v>
@@ -6021,28 +6021,28 @@
         <v>18893.00827119619</v>
       </c>
       <c r="R16">
-        <v>19298.66624768522</v>
+        <v>19298.66624769513</v>
       </c>
       <c r="S16">
-        <v>1.481802191413173</v>
+        <v>1.481802193755535</v>
       </c>
       <c r="T16">
-        <v>82.89680870661715</v>
+        <v>82.89680873689296</v>
       </c>
       <c r="U16">
-        <v>3.264994358605752</v>
+        <v>3.26499438712803</v>
       </c>
       <c r="V16">
-        <v>28831.17931716574</v>
+        <v>28831.17932403277</v>
       </c>
       <c r="W16">
-        <v>970.4078175594019</v>
+        <v>970.4078072971829</v>
       </c>
       <c r="X16">
-        <v>19222.85649108678</v>
+        <v>19222.856491116</v>
       </c>
       <c r="Y16">
-        <v>19335.91507401018</v>
+        <v>19335.91507398306</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -6059,7 +6059,7 @@
         <v>56.54218184811523</v>
       </c>
       <c r="E17">
-        <v>0.7011709654183886</v>
+        <v>0.7011709654183882</v>
       </c>
       <c r="F17">
         <v>103617.6325146127</v>
@@ -6068,22 +6068,22 @@
         <v>1039.073317000157</v>
       </c>
       <c r="H17">
-        <v>16724.98722815538</v>
+        <v>16724.98722815618</v>
       </c>
       <c r="I17">
-        <v>16800.64330208816</v>
+        <v>16800.64330208766</v>
       </c>
       <c r="J17">
         <v>19621.21049542412</v>
       </c>
       <c r="K17">
-        <v>0.3998709015436469</v>
+        <v>0.3998709015436468</v>
       </c>
       <c r="L17">
         <v>74.97633436394048</v>
       </c>
       <c r="M17">
-        <v>0.970691652698063</v>
+        <v>0.9706916526980625</v>
       </c>
       <c r="N17">
         <v>156441.2258468524</v>
@@ -6092,10 +6092,10 @@
         <v>1636.070287634927</v>
       </c>
       <c r="P17">
-        <v>19583.17918011912</v>
+        <v>19583.17918011568</v>
       </c>
       <c r="Q17">
-        <v>19688.62738075049</v>
+        <v>19688.62738075677</v>
       </c>
       <c r="R17">
         <v>20115.63994390353</v>
@@ -6113,7 +6113,7 @@
         <v>27855.91955487872</v>
       </c>
       <c r="W17">
-        <v>712.6429429501496</v>
+        <v>712.6429429501495</v>
       </c>
       <c r="X17">
         <v>20042.56709647956</v>
@@ -6130,7 +6130,7 @@
         <v>16325.4993261517</v>
       </c>
       <c r="C18">
-        <v>0.5367374750236732</v>
+        <v>0.5367374750236733</v>
       </c>
       <c r="D18">
         <v>53.06171301184854</v>
@@ -6145,28 +6145,28 @@
         <v>1997.749151486709</v>
       </c>
       <c r="H18">
-        <v>16278.8759655278</v>
+        <v>16278.87596552791</v>
       </c>
       <c r="I18">
-        <v>16347.30659263797</v>
+        <v>16347.30659263809</v>
       </c>
       <c r="J18">
-        <v>18804.57180625237</v>
+        <v>18804.5718062592</v>
       </c>
       <c r="K18">
-        <v>0.5373001339767483</v>
+        <v>0.5373001346661197</v>
       </c>
       <c r="L18">
-        <v>69.15668111610249</v>
+        <v>69.1566810882389</v>
       </c>
       <c r="M18">
-        <v>1.347894977030322</v>
+        <v>1.347894968031306</v>
       </c>
       <c r="N18">
-        <v>165308.1499174386</v>
+        <v>165308.1498641464</v>
       </c>
       <c r="O18">
-        <v>2533.102295889409</v>
+        <v>2533.102358322439</v>
       </c>
       <c r="P18">
         <v>18769.28891744444</v>
@@ -6178,7 +6178,7 @@
         <v>19252.02412471252</v>
       </c>
       <c r="S18">
-        <v>1.974177442442743</v>
+        <v>1.974177442442744</v>
       </c>
       <c r="T18">
         <v>73.4358532146353</v>
@@ -6213,7 +6213,7 @@
         <v>68.00238197287165</v>
       </c>
       <c r="E19">
-        <v>2.317342332794798</v>
+        <v>2.317342332794797</v>
       </c>
       <c r="F19">
         <v>72493.36263837188</v>
@@ -6222,10 +6222,10 @@
         <v>2188.19263488458</v>
       </c>
       <c r="H19">
-        <v>16506.11770403434</v>
+        <v>16506.11770403696</v>
       </c>
       <c r="I19">
-        <v>16596.69455615646</v>
+        <v>16596.69455615461</v>
       </c>
       <c r="J19">
         <v>19250.19954242692</v>
@@ -6246,10 +6246,10 @@
         <v>1345.4592951764</v>
       </c>
       <c r="P19">
-        <v>19207.81382903766</v>
+        <v>19207.81382903827</v>
       </c>
       <c r="Q19">
-        <v>19327.64486557931</v>
+        <v>19327.64486557717</v>
       </c>
       <c r="R19">
         <v>19724.24749908867</v>
@@ -6261,7 +6261,7 @@
         <v>88.62897299677505</v>
       </c>
       <c r="U19">
-        <v>3.595774912087014</v>
+        <v>3.595774912087016</v>
       </c>
       <c r="V19">
         <v>22939.19924239165</v>
@@ -6270,10 +6270,10 @@
         <v>776.0075103066422</v>
       </c>
       <c r="X19">
-        <v>19642.85889859582</v>
+        <v>19642.85889859509</v>
       </c>
       <c r="Y19">
-        <v>19766.85531685059</v>
+        <v>19766.85531685037</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -6281,40 +6281,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16193.51223347589</v>
+        <v>16193.51223344165</v>
       </c>
       <c r="C20">
-        <v>1.587760913774298</v>
+        <v>1.587760929993605</v>
       </c>
       <c r="D20">
-        <v>57.11080368948031</v>
+        <v>57.11080360095207</v>
       </c>
       <c r="E20">
-        <v>3.403192411964561</v>
+        <v>3.403192464197217</v>
       </c>
       <c r="F20">
-        <v>70363.46566186033</v>
+        <v>70363.46557340211</v>
       </c>
       <c r="G20">
-        <v>3845.600291769955</v>
+        <v>3845.600330304466</v>
       </c>
       <c r="H20">
-        <v>16142.41424506211</v>
+        <v>16142.41424505848</v>
       </c>
       <c r="I20">
-        <v>16218.86114873124</v>
+        <v>16218.86114873344</v>
       </c>
       <c r="J20">
         <v>19038.43983362855</v>
       </c>
       <c r="K20">
-        <v>0.5429643890548099</v>
+        <v>0.5429643890548101</v>
       </c>
       <c r="L20">
         <v>76.05094028025466</v>
       </c>
       <c r="M20">
-        <v>1.214161995692302</v>
+        <v>1.214161995692301</v>
       </c>
       <c r="N20">
         <v>135750.6946502674</v>
@@ -6323,34 +6323,34 @@
         <v>1842.162606993594</v>
       </c>
       <c r="P20">
-        <v>19000.17624518029</v>
+        <v>19000.17624517177</v>
       </c>
       <c r="Q20">
-        <v>19107.99443436295</v>
+        <v>19107.99443438458</v>
       </c>
       <c r="R20">
         <v>19536.33117145474</v>
       </c>
       <c r="S20">
-        <v>2.299679709834361</v>
+        <v>2.299679709834362</v>
       </c>
       <c r="T20">
         <v>78.48217931827637</v>
       </c>
       <c r="U20">
-        <v>4.6770664680863</v>
+        <v>4.677066468086299</v>
       </c>
       <c r="V20">
         <v>24407.71533593142</v>
       </c>
       <c r="W20">
-        <v>1345.873904826991</v>
+        <v>1345.873904826992</v>
       </c>
       <c r="X20">
-        <v>19467.52873576498</v>
+        <v>19467.52873575491</v>
       </c>
       <c r="Y20">
-        <v>19569.15859614742</v>
+        <v>19569.15859615456</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -6358,22 +6358,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16045.3466471896</v>
+        <v>16045.34664717635</v>
       </c>
       <c r="C21">
-        <v>0.5962678497899161</v>
+        <v>0.5962678506418403</v>
       </c>
       <c r="D21">
-        <v>60.64839601734106</v>
+        <v>60.64839597061241</v>
       </c>
       <c r="E21">
-        <v>1.530350815474719</v>
+        <v>1.530350815565274</v>
       </c>
       <c r="F21">
-        <v>71878.3130450531</v>
+        <v>71878.31300249626</v>
       </c>
       <c r="G21">
-        <v>1439.520816175368</v>
+        <v>1439.520816115716</v>
       </c>
       <c r="H21">
         <v>15990.09897791975</v>
@@ -6409,19 +6409,19 @@
         <v>19283.18983716518</v>
       </c>
       <c r="S21">
-        <v>1.950843529531151</v>
+        <v>1.95084352953115</v>
       </c>
       <c r="T21">
         <v>84.33923916530624</v>
       </c>
       <c r="U21">
-        <v>3.900964169088526</v>
+        <v>3.900964169088525</v>
       </c>
       <c r="V21">
         <v>25829.64068681825</v>
       </c>
       <c r="W21">
-        <v>1101.721384187929</v>
+        <v>1101.721384187928</v>
       </c>
       <c r="X21">
         <v>19206.46069031248</v>
@@ -6462,7 +6462,7 @@
         <v>19020.93825908341</v>
       </c>
       <c r="K22">
-        <v>0.5352195388214146</v>
+        <v>0.5352195388214145</v>
       </c>
       <c r="L22">
         <v>74.31126288111147</v>
@@ -6486,13 +6486,13 @@
         <v>19471.20021381802</v>
       </c>
       <c r="S22">
-        <v>2.026765279082724</v>
+        <v>2.026765279082725</v>
       </c>
       <c r="T22">
         <v>85.01581820728757</v>
       </c>
       <c r="U22">
-        <v>4.253279332872894</v>
+        <v>4.253279332872896</v>
       </c>
       <c r="V22">
         <v>23940.10939431423</v>
@@ -6501,10 +6501,10 @@
         <v>1065.074259436998</v>
       </c>
       <c r="X22">
-        <v>19396.86337728406</v>
+        <v>19396.86337728946</v>
       </c>
       <c r="Y22">
-        <v>19507.97471811229</v>
+        <v>19507.97471810843</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -6515,73 +6515,73 @@
         <v>16300.49586587678</v>
       </c>
       <c r="C23">
-        <v>0.6391417073084223</v>
+        <v>0.6391417073084221</v>
       </c>
       <c r="D23">
         <v>57.64659681248548</v>
       </c>
       <c r="E23">
-        <v>1.295009269916583</v>
+        <v>1.295009269916584</v>
       </c>
       <c r="F23">
         <v>72867.09757607913</v>
       </c>
       <c r="G23">
-        <v>1477.805290203059</v>
+        <v>1477.805290203058</v>
       </c>
       <c r="H23">
-        <v>16249.00574916171</v>
+        <v>16249.00574914225</v>
       </c>
       <c r="I23">
-        <v>16324.69352373236</v>
+        <v>16324.69352375149</v>
       </c>
       <c r="J23">
-        <v>18950.14236443371</v>
+        <v>18950.142364429</v>
       </c>
       <c r="K23">
-        <v>0.7593363788792984</v>
+        <v>0.7593363768258126</v>
       </c>
       <c r="L23">
-        <v>74.33157263732654</v>
+        <v>74.33157265465221</v>
       </c>
       <c r="M23">
-        <v>1.775241119636761</v>
+        <v>1.7752410933599</v>
       </c>
       <c r="N23">
-        <v>139256.1615330239</v>
+        <v>139256.1615493387</v>
       </c>
       <c r="O23">
-        <v>2733.701034388134</v>
+        <v>2733.701031514971</v>
       </c>
       <c r="P23">
-        <v>18914.86991366777</v>
+        <v>18914.8699136674</v>
       </c>
       <c r="Q23">
-        <v>19015.81272821679</v>
+        <v>19015.81272821888</v>
       </c>
       <c r="R23">
         <v>19417.22123604343</v>
       </c>
       <c r="S23">
-        <v>2.028093602650683</v>
+        <v>2.028093602650684</v>
       </c>
       <c r="T23">
         <v>76.85955003264255</v>
       </c>
       <c r="U23">
-        <v>4.478867575177872</v>
+        <v>4.478867575177874</v>
       </c>
       <c r="V23">
         <v>25495.73068766744</v>
       </c>
       <c r="W23">
-        <v>1341.03660301214</v>
+        <v>1341.036603012141</v>
       </c>
       <c r="X23">
-        <v>19350.02516313101</v>
+        <v>19350.02516312748</v>
       </c>
       <c r="Y23">
-        <v>19447.58202577408</v>
+        <v>19447.58202577729</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -6589,28 +6589,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16905.43136935712</v>
+        <v>16905.43136934414</v>
       </c>
       <c r="C24">
-        <v>0.6185987978777757</v>
+        <v>0.6185987984229316</v>
       </c>
       <c r="D24">
-        <v>68.23761590117228</v>
+        <v>68.23761586669197</v>
       </c>
       <c r="E24">
-        <v>1.384221654841671</v>
+        <v>1.384221643544943</v>
       </c>
       <c r="F24">
-        <v>116107.7106037691</v>
+        <v>116107.7105521701</v>
       </c>
       <c r="G24">
-        <v>2013.387078365408</v>
+        <v>2013.387060283561</v>
       </c>
       <c r="H24">
-        <v>16845.20045926467</v>
+        <v>16845.20045927041</v>
       </c>
       <c r="I24">
-        <v>16934.56427864759</v>
+        <v>16934.56427864288</v>
       </c>
       <c r="J24">
         <v>19924.29861285674</v>
@@ -6637,22 +6637,22 @@
         <v>19999.58876686528</v>
       </c>
       <c r="R24">
-        <v>20447.05301523936</v>
+        <v>20447.05301523937</v>
       </c>
       <c r="S24">
-        <v>1.819131337383949</v>
+        <v>1.819131337371805</v>
       </c>
       <c r="T24">
-        <v>92.36402981459815</v>
+        <v>92.36402981462004</v>
       </c>
       <c r="U24">
-        <v>4.011651779461867</v>
+        <v>4.011651779441492</v>
       </c>
       <c r="V24">
-        <v>30970.97056041095</v>
+        <v>30970.97056041728</v>
       </c>
       <c r="W24">
-        <v>1156.229211602974</v>
+        <v>1156.229211601307</v>
       </c>
       <c r="X24">
         <v>20364.68548032275</v>
@@ -6669,7 +6669,7 @@
         <v>17300.03066481828</v>
       </c>
       <c r="C25">
-        <v>0.3777152084354589</v>
+        <v>0.377715208435459</v>
       </c>
       <c r="D25">
         <v>70.53074100441572</v>
@@ -6681,7 +6681,7 @@
         <v>122402.2618758451</v>
       </c>
       <c r="G25">
-        <v>1231.933474542298</v>
+        <v>1231.933474542299</v>
       </c>
       <c r="H25">
         <v>17236.621583298</v>
@@ -6690,22 +6690,22 @@
         <v>17334.83061688953</v>
       </c>
       <c r="J25">
-        <v>20162.63783483016</v>
+        <v>20162.6378348284</v>
       </c>
       <c r="K25">
-        <v>0.7472580082650894</v>
+        <v>0.7472580085242092</v>
       </c>
       <c r="L25">
-        <v>93.20277571150694</v>
+        <v>93.20277571839941</v>
       </c>
       <c r="M25">
-        <v>1.779962888346554</v>
+        <v>1.779962886952058</v>
       </c>
       <c r="N25">
-        <v>179863.6659662994</v>
+        <v>179863.6659735622</v>
       </c>
       <c r="O25">
-        <v>2771.644013627202</v>
+        <v>2771.644012100493</v>
       </c>
       <c r="P25">
         <v>20119.06417194059</v>
@@ -6714,22 +6714,22 @@
         <v>20245.08458828492</v>
       </c>
       <c r="R25">
-        <v>20660.08255698601</v>
+        <v>20660.08255698228</v>
       </c>
       <c r="S25">
-        <v>0.8832490195629843</v>
+        <v>0.8832490204085943</v>
       </c>
       <c r="T25">
-        <v>89.47509362792228</v>
+        <v>89.47509361229578</v>
       </c>
       <c r="U25">
-        <v>1.908037522034531</v>
+        <v>1.908037512722766</v>
       </c>
       <c r="V25">
-        <v>31504.99859791432</v>
+        <v>31504.99859741316</v>
       </c>
       <c r="W25">
-        <v>568.2908793599202</v>
+        <v>568.2908709412817</v>
       </c>
       <c r="X25">
         <v>20577.49045677586</v>
@@ -6746,7 +6746,7 @@
         <v>16660.63617639138</v>
       </c>
       <c r="C26">
-        <v>0.7129826327960295</v>
+        <v>0.7129826327960296</v>
       </c>
       <c r="D26">
         <v>64.7623844191007</v>
@@ -6758,55 +6758,55 @@
         <v>127822.1523902304</v>
       </c>
       <c r="G26">
-        <v>2740.946776785545</v>
+        <v>2740.946776785547</v>
       </c>
       <c r="H26">
-        <v>16601.72019453035</v>
+        <v>16601.72019453276</v>
       </c>
       <c r="I26">
-        <v>16687.95158951957</v>
+        <v>16687.9515895176</v>
       </c>
       <c r="J26">
-        <v>19538.05112910663</v>
+        <v>19538.05112910951</v>
       </c>
       <c r="K26">
-        <v>0.4922119708458636</v>
+        <v>0.4922119705525357</v>
       </c>
       <c r="L26">
-        <v>84.01463235401698</v>
+        <v>84.01463234345923</v>
       </c>
       <c r="M26">
-        <v>1.1354410021713</v>
+        <v>1.135441000564507</v>
       </c>
       <c r="N26">
-        <v>176107.5095671302</v>
+        <v>176107.5095549758</v>
       </c>
       <c r="O26">
-        <v>1947.139101856034</v>
+        <v>1947.139102069525</v>
       </c>
       <c r="P26">
-        <v>19495.18565054578</v>
+        <v>19495.18565055206</v>
       </c>
       <c r="Q26">
-        <v>19614.92596016336</v>
+        <v>19614.92596015117</v>
       </c>
       <c r="R26">
         <v>20045.42671557303</v>
       </c>
       <c r="S26">
-        <v>2.061788153640159</v>
+        <v>2.06178815364016</v>
       </c>
       <c r="T26">
         <v>82.65524388561212</v>
       </c>
       <c r="U26">
-        <v>4.55920194128857</v>
+        <v>4.559201941288569</v>
       </c>
       <c r="V26">
         <v>30210.134284318</v>
       </c>
       <c r="W26">
-        <v>1396.989129907532</v>
+        <v>1396.989129907531</v>
       </c>
       <c r="X26">
         <v>19968.81650674545</v>
@@ -6820,22 +6820,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17608.11347903257</v>
+        <v>17608.1134790332</v>
       </c>
       <c r="C27">
-        <v>0.3625053074751591</v>
+        <v>0.3625053079576094</v>
       </c>
       <c r="D27">
-        <v>57.97809641428869</v>
+        <v>57.97809641592554</v>
       </c>
       <c r="E27">
-        <v>0.802022264072288</v>
+        <v>0.8020222747954011</v>
       </c>
       <c r="F27">
-        <v>126948.4243029395</v>
+        <v>126948.4243064385</v>
       </c>
       <c r="G27">
-        <v>1494.701750094615</v>
+        <v>1494.701715123288</v>
       </c>
       <c r="H27">
         <v>17555.95040344084</v>
@@ -6847,13 +6847,13 @@
         <v>20421.53710912464</v>
       </c>
       <c r="K27">
-        <v>0.5927544346513154</v>
+        <v>0.5927544346513155</v>
       </c>
       <c r="L27">
         <v>77.60212808957152</v>
       </c>
       <c r="M27">
-        <v>1.253605678514021</v>
+        <v>1.253605678514022</v>
       </c>
       <c r="N27">
         <v>166492.0884127606</v>
@@ -6862,34 +6862,34 @@
         <v>2318.577140345289</v>
       </c>
       <c r="P27">
-        <v>20381.98932228193</v>
+        <v>20381.98932229226</v>
       </c>
       <c r="Q27">
-        <v>20491.3339648412</v>
+        <v>20491.33396481639</v>
       </c>
       <c r="R27">
-        <v>20910.29003453442</v>
+        <v>20910.29003452231</v>
       </c>
       <c r="S27">
-        <v>1.887804094177394</v>
+        <v>1.887804081893924</v>
       </c>
       <c r="T27">
-        <v>85.74859265572215</v>
+        <v>85.74859261815243</v>
       </c>
       <c r="U27">
-        <v>4.168344933376201</v>
+        <v>4.168344913219122</v>
       </c>
       <c r="V27">
-        <v>30967.03357492421</v>
+        <v>30967.03356565745</v>
       </c>
       <c r="W27">
-        <v>1303.953384613187</v>
+        <v>1303.953370081931</v>
       </c>
       <c r="X27">
-        <v>20834.66677319299</v>
+        <v>20834.6667731862</v>
       </c>
       <c r="Y27">
-        <v>20946.21535557796</v>
+        <v>20946.21535558293</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6900,73 +6900,73 @@
         <v>16944.70262146509</v>
       </c>
       <c r="C28">
-        <v>0.774051438379837</v>
+        <v>0.7740514383798376</v>
       </c>
       <c r="D28">
         <v>53.3979701322326</v>
       </c>
       <c r="E28">
-        <v>1.511827107765159</v>
+        <v>1.51182710776516</v>
       </c>
       <c r="F28">
         <v>125225.8955729582</v>
       </c>
       <c r="G28">
-        <v>3379.143862413445</v>
+        <v>3379.143862413446</v>
       </c>
       <c r="H28">
-        <v>16897.2267873149</v>
+        <v>16897.2267873133</v>
       </c>
       <c r="I28">
-        <v>16966.47914389263</v>
+        <v>16966.47914389418</v>
       </c>
       <c r="J28">
         <v>19432.20855492943</v>
       </c>
       <c r="K28">
-        <v>0.5639223910106202</v>
+        <v>0.5639223910106201</v>
       </c>
       <c r="L28">
         <v>69.40749905955231</v>
       </c>
       <c r="M28">
-        <v>1.337567182499445</v>
+        <v>1.337567182499444</v>
       </c>
       <c r="N28">
         <v>167953.1238724213</v>
       </c>
       <c r="O28">
-        <v>2601.914584630969</v>
+        <v>2601.914584630968</v>
       </c>
       <c r="P28">
-        <v>19396.06645127201</v>
+        <v>19396.06645127489</v>
       </c>
       <c r="Q28">
-        <v>19494.15234474716</v>
+        <v>19494.15234474183</v>
       </c>
       <c r="R28">
-        <v>19871.86788660314</v>
+        <v>19871.86788661741</v>
       </c>
       <c r="S28">
-        <v>0.6987118757672438</v>
+        <v>0.6987118680477001</v>
       </c>
       <c r="T28">
-        <v>73.3749849937355</v>
+        <v>73.37498503503885</v>
       </c>
       <c r="U28">
-        <v>1.526387903853476</v>
+        <v>1.526387910419181</v>
       </c>
       <c r="V28">
-        <v>31463.10848640716</v>
+        <v>31463.10849916152</v>
       </c>
       <c r="W28">
-        <v>559.5444931589781</v>
+        <v>559.5444899322465</v>
       </c>
       <c r="X28">
-        <v>19806.92875215093</v>
+        <v>19806.92875215925</v>
       </c>
       <c r="Y28">
-        <v>19904.1653650517</v>
+        <v>19904.16536504528</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6983,7 +6983,7 @@
         <v>60.53115260368789</v>
       </c>
       <c r="E29">
-        <v>0.8330550835015061</v>
+        <v>0.8330550835015059</v>
       </c>
       <c r="F29">
         <v>120208.836394092</v>
@@ -6992,34 +6992,34 @@
         <v>1294.056074195204</v>
       </c>
       <c r="H29">
-        <v>16810.97172675197</v>
+        <v>16810.9717267519</v>
       </c>
       <c r="I29">
-        <v>16892.21359888115</v>
+        <v>16892.21359888107</v>
       </c>
       <c r="J29">
-        <v>19454.53698941704</v>
+        <v>19454.53698941305</v>
       </c>
       <c r="K29">
-        <v>0.4971789761746119</v>
+        <v>0.4971789753898432</v>
       </c>
       <c r="L29">
-        <v>77.73862273674423</v>
+        <v>77.73862274697302</v>
       </c>
       <c r="M29">
-        <v>1.152969954566599</v>
+        <v>1.152969957121826</v>
       </c>
       <c r="N29">
-        <v>172568.7869345117</v>
+        <v>172568.7869638359</v>
       </c>
       <c r="O29">
-        <v>2088.617320771819</v>
+        <v>2088.617315053074</v>
       </c>
       <c r="P29">
-        <v>19416.51391388441</v>
+        <v>19416.51391389806</v>
       </c>
       <c r="Q29">
-        <v>19524.67644250545</v>
+        <v>19524.67644247078</v>
       </c>
       <c r="R29">
         <v>19913.67786347263</v>
@@ -7031,7 +7031,7 @@
         <v>76.08045716768471</v>
       </c>
       <c r="U29">
-        <v>3.036563026988921</v>
+        <v>3.036563026988922</v>
       </c>
       <c r="V29">
         <v>29065.58706420865</v>
@@ -7040,10 +7040,10 @@
         <v>919.2384409303841</v>
       </c>
       <c r="X29">
-        <v>19842.46243823243</v>
+        <v>19842.46243822433</v>
       </c>
       <c r="Y29">
-        <v>19951.16078823763</v>
+        <v>19951.16078824327</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -7054,19 +7054,19 @@
         <v>16510.66620753837</v>
       </c>
       <c r="C30">
-        <v>0.9720145455605262</v>
+        <v>0.9720145455605259</v>
       </c>
       <c r="D30">
         <v>54.51992156329545</v>
       </c>
       <c r="E30">
-        <v>2.386192933614169</v>
+        <v>2.386192933614167</v>
       </c>
       <c r="F30">
         <v>116835.5524989874</v>
       </c>
       <c r="G30">
-        <v>4241.145284596089</v>
+        <v>4241.145284596088</v>
       </c>
       <c r="H30">
         <v>16461.11504989277</v>
@@ -7078,7 +7078,7 @@
         <v>19201.1330993867</v>
       </c>
       <c r="K30">
-        <v>0.6496329770414092</v>
+        <v>0.6496329770414091</v>
       </c>
       <c r="L30">
         <v>73.94516121358757</v>
@@ -7090,7 +7090,7 @@
         <v>166240.4624847899</v>
       </c>
       <c r="O30">
-        <v>2824.021073418118</v>
+        <v>2824.021073418117</v>
       </c>
       <c r="P30">
         <v>19163.08068073863</v>
@@ -7099,22 +7099,22 @@
         <v>19267.96836558927</v>
       </c>
       <c r="R30">
-        <v>19677.40096592649</v>
+        <v>19677.40096595903</v>
       </c>
       <c r="S30">
-        <v>1.91703174670386</v>
+        <v>1.917031765088042</v>
       </c>
       <c r="T30">
-        <v>78.46555931818787</v>
+        <v>78.46555939367489</v>
       </c>
       <c r="U30">
-        <v>3.732457778427209</v>
+        <v>3.732457829174127</v>
       </c>
       <c r="V30">
-        <v>31411.85324685302</v>
+        <v>31411.85327186597</v>
       </c>
       <c r="W30">
-        <v>1424.36423872848</v>
+        <v>1424.364258384285</v>
       </c>
       <c r="X30">
         <v>19606.93949245254</v>
@@ -7131,7 +7131,7 @@
         <v>16282.4404094261</v>
       </c>
       <c r="C31">
-        <v>0.6289979939014866</v>
+        <v>0.6289979939014868</v>
       </c>
       <c r="D31">
         <v>57.57813004005032</v>
@@ -7143,13 +7143,13 @@
         <v>120988.4659139696</v>
       </c>
       <c r="G31">
-        <v>2677.269916882833</v>
+        <v>2677.269916882834</v>
       </c>
       <c r="H31">
-        <v>16231.85418551053</v>
+        <v>16231.85418551462</v>
       </c>
       <c r="I31">
-        <v>16307.49363718445</v>
+        <v>16307.49363718111</v>
       </c>
       <c r="J31">
         <v>18830.044041792</v>
@@ -7170,10 +7170,10 @@
         <v>3224.533065800604</v>
       </c>
       <c r="P31">
-        <v>18792.70112261894</v>
+        <v>18792.70112261891</v>
       </c>
       <c r="Q31">
-        <v>18896.25574536975</v>
+        <v>18896.25574536982</v>
       </c>
       <c r="R31">
         <v>19283.96304061474</v>
@@ -7185,7 +7185,7 @@
         <v>75.39153198482997</v>
       </c>
       <c r="U31">
-        <v>3.186924637777696</v>
+        <v>3.186924637777697</v>
       </c>
       <c r="V31">
         <v>31395.90540025959</v>
@@ -7194,10 +7194,10 @@
         <v>1052.349928519175</v>
       </c>
       <c r="X31">
-        <v>19211.59713366472</v>
+        <v>19211.59713366864</v>
       </c>
       <c r="Y31">
-        <v>19321.42567795967</v>
+        <v>19321.42567795912</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -7205,28 +7205,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17103.65008733985</v>
+        <v>17103.65008735733</v>
       </c>
       <c r="C32">
-        <v>0.8790821759452457</v>
+        <v>0.8790821817151675</v>
       </c>
       <c r="D32">
-        <v>58.22077137018676</v>
+        <v>58.2207714095292</v>
       </c>
       <c r="E32">
-        <v>1.922494751040629</v>
+        <v>1.922494764175551</v>
       </c>
       <c r="F32">
-        <v>115195.2465396925</v>
+        <v>115195.246620344</v>
       </c>
       <c r="G32">
-        <v>3485.019997804637</v>
+        <v>3485.020066305797</v>
       </c>
       <c r="H32">
-        <v>17052.03505857515</v>
+        <v>17052.03505857024</v>
       </c>
       <c r="I32">
-        <v>17127.9634887303</v>
+        <v>17127.96348873362</v>
       </c>
       <c r="J32">
         <v>19721.2017601353</v>
@@ -7247,10 +7247,10 @@
         <v>2431.918746524033</v>
       </c>
       <c r="P32">
-        <v>19684.74321345161</v>
+        <v>19684.7432134509</v>
       </c>
       <c r="Q32">
-        <v>19787.44016047541</v>
+        <v>19787.44016047694</v>
       </c>
       <c r="R32">
         <v>20185.82878855483</v>
@@ -7268,7 +7268,7 @@
         <v>32865.00370649593</v>
       </c>
       <c r="W32">
-        <v>2249.862243428134</v>
+        <v>2249.862243428135</v>
       </c>
       <c r="X32">
         <v>20111.26656565929</v>
@@ -7285,7 +7285,7 @@
         <v>16181.89395046099</v>
       </c>
       <c r="C33">
-        <v>0.7815288793712435</v>
+        <v>0.7815288793712434</v>
       </c>
       <c r="D33">
         <v>65.25181109847367</v>
@@ -7297,25 +7297,25 @@
         <v>122308.1368660553</v>
       </c>
       <c r="G33">
-        <v>2812.600487299759</v>
+        <v>2812.600487299758</v>
       </c>
       <c r="H33">
-        <v>16122.81924934626</v>
+        <v>16122.81924934731</v>
       </c>
       <c r="I33">
-        <v>16209.89054603049</v>
+        <v>16209.89054603027</v>
       </c>
       <c r="J33">
         <v>19186.39696133503</v>
       </c>
       <c r="K33">
-        <v>0.5920504490906058</v>
+        <v>0.5920504490906056</v>
       </c>
       <c r="L33">
         <v>82.39104132706107</v>
       </c>
       <c r="M33">
-        <v>1.293313661907783</v>
+        <v>1.293313661907784</v>
       </c>
       <c r="N33">
         <v>173899.0966669419</v>
@@ -7324,34 +7324,34 @@
         <v>2294.343229460873</v>
       </c>
       <c r="P33">
-        <v>19143.67382507484</v>
+        <v>19143.67382506769</v>
       </c>
       <c r="Q33">
-        <v>19261.33672799073</v>
+        <v>19261.3367280098</v>
       </c>
       <c r="R33">
-        <v>19709.88590813367</v>
+        <v>19709.88590813666</v>
       </c>
       <c r="S33">
-        <v>1.385000317827197</v>
+        <v>1.385000324725324</v>
       </c>
       <c r="T33">
-        <v>80.29092071047857</v>
+        <v>80.29092071629547</v>
       </c>
       <c r="U33">
-        <v>2.949311760528254</v>
+        <v>2.949311724805685</v>
       </c>
       <c r="V33">
-        <v>29994.11990179376</v>
+        <v>29994.11990518364</v>
       </c>
       <c r="W33">
-        <v>953.4702861641803</v>
+        <v>953.4702667885873</v>
       </c>
       <c r="X33">
-        <v>19635.76507483414</v>
+        <v>19635.76507483979</v>
       </c>
       <c r="Y33">
-        <v>19747.45678583096</v>
+        <v>19747.45678582889</v>
       </c>
     </row>
   </sheetData>
@@ -7494,46 +7494,46 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16785.55805122293</v>
+        <v>16785.55805121873</v>
       </c>
       <c r="C4">
-        <v>0.7347689261661706</v>
+        <v>0.7347689281278568</v>
       </c>
       <c r="D4">
-        <v>62.18246017613406</v>
+        <v>62.18246016797971</v>
       </c>
       <c r="E4">
-        <v>1.565746831230548</v>
+        <v>1.565746821916885</v>
       </c>
       <c r="F4">
-        <v>146976.6443376688</v>
+        <v>146976.6443068678</v>
       </c>
       <c r="G4">
-        <v>3181.804247255844</v>
+        <v>3181.804310044417</v>
       </c>
       <c r="H4">
-        <v>16728.08987468831</v>
+        <v>16728.08987469348</v>
       </c>
       <c r="I4">
-        <v>16814.08331634834</v>
+        <v>16814.08331634728</v>
       </c>
       <c r="J4">
-        <v>19205.12476983683</v>
+        <v>19205.12476983091</v>
       </c>
       <c r="K4">
-        <v>0.7001889032038086</v>
+        <v>0.7001889007613435</v>
       </c>
       <c r="L4">
-        <v>76.00737821947794</v>
+        <v>76.0073782391011</v>
       </c>
       <c r="M4">
-        <v>1.611710262406794</v>
+        <v>1.611710245768152</v>
       </c>
       <c r="N4">
-        <v>181112.97630957</v>
+        <v>181112.9763472772</v>
       </c>
       <c r="O4">
-        <v>3142.072248330815</v>
+        <v>3142.072231890603</v>
       </c>
       <c r="P4">
         <v>19166.95881346262</v>
@@ -7542,28 +7542,28 @@
         <v>19274.21719159572</v>
       </c>
       <c r="R4">
-        <v>19633.08643999758</v>
+        <v>19633.08644002371</v>
       </c>
       <c r="S4">
-        <v>2.131081454888228</v>
+        <v>2.131081453705976</v>
       </c>
       <c r="T4">
-        <v>81.97240150032741</v>
+        <v>81.97240157979616</v>
       </c>
       <c r="U4">
-        <v>5.050539764197667</v>
+        <v>5.050539790151657</v>
       </c>
       <c r="V4">
-        <v>35394.4428214778</v>
+        <v>35394.44285213031</v>
       </c>
       <c r="W4">
-        <v>1757.031860320295</v>
+        <v>1757.031879727443</v>
       </c>
       <c r="X4">
-        <v>19559.85870122399</v>
+        <v>19559.85870124886</v>
       </c>
       <c r="Y4">
-        <v>19670.27039094125</v>
+        <v>19670.27039091766</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -7574,19 +7574,19 @@
         <v>15858.03578497763</v>
       </c>
       <c r="C5">
-        <v>0.6088553111360662</v>
+        <v>0.6088553111360663</v>
       </c>
       <c r="D5">
         <v>58.17016063662924</v>
       </c>
       <c r="E5">
-        <v>1.369711482199061</v>
+        <v>1.369711482199062</v>
       </c>
       <c r="F5">
         <v>125089.0745819487</v>
       </c>
       <c r="G5">
-        <v>2486.864772986348</v>
+        <v>2486.864772986349</v>
       </c>
       <c r="H5">
         <v>15805.85598607717</v>
@@ -7595,22 +7595,22 @@
         <v>15883.4459104888</v>
       </c>
       <c r="J5">
-        <v>18539.15803418955</v>
+        <v>18539.15803419145</v>
       </c>
       <c r="K5">
-        <v>0.4174565188406483</v>
+        <v>0.4174565190726511</v>
       </c>
       <c r="L5">
-        <v>77.08960545075485</v>
+        <v>77.08960544770812</v>
       </c>
       <c r="M5">
-        <v>0.8375029831056364</v>
+        <v>0.8375029858679123</v>
       </c>
       <c r="N5">
-        <v>162840.452661867</v>
+        <v>162840.4526498389</v>
       </c>
       <c r="O5">
-        <v>1578.310671881518</v>
+        <v>1578.310672396502</v>
       </c>
       <c r="P5">
         <v>18500.25267376917</v>
@@ -7628,19 +7628,19 @@
         <v>79.4624391541213</v>
       </c>
       <c r="U5">
-        <v>2.717531156487008</v>
+        <v>2.717531156487007</v>
       </c>
       <c r="V5">
         <v>28586.99196545055</v>
       </c>
       <c r="W5">
-        <v>800.585386302635</v>
+        <v>800.5853863026349</v>
       </c>
       <c r="X5">
-        <v>18937.84345679936</v>
+        <v>18937.84345678963</v>
       </c>
       <c r="Y5">
-        <v>19050.89321233412</v>
+        <v>19050.89321234062</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -7651,19 +7651,19 @@
         <v>16179.7579071329</v>
       </c>
       <c r="C6">
-        <v>0.5878636295979954</v>
+        <v>0.5878636295991054</v>
       </c>
       <c r="D6">
-        <v>69.35071118118088</v>
+        <v>69.35071118118069</v>
       </c>
       <c r="E6">
-        <v>1.332645627401949</v>
+        <v>1.332645618238476</v>
       </c>
       <c r="F6">
-        <v>131082.7444748917</v>
+        <v>131082.7444748915</v>
       </c>
       <c r="G6">
-        <v>2076.406688526024</v>
+        <v>2076.406688524226</v>
       </c>
       <c r="H6">
         <v>16117.62705763332</v>
@@ -7672,46 +7672,46 @@
         <v>16212.40341926018</v>
       </c>
       <c r="J6">
-        <v>18932.79620560704</v>
+        <v>18932.79620561003</v>
       </c>
       <c r="K6">
-        <v>0.5166216646131275</v>
+        <v>0.5166216663770947</v>
       </c>
       <c r="L6">
-        <v>84.93072557554429</v>
+        <v>84.93072556572172</v>
       </c>
       <c r="M6">
-        <v>1.199232658540603</v>
+        <v>1.19923265622463</v>
       </c>
       <c r="N6">
-        <v>170556.0013556562</v>
+        <v>170556.0013428541</v>
       </c>
       <c r="O6">
-        <v>2004.33114224884</v>
+        <v>2004.331149701238</v>
       </c>
       <c r="P6">
-        <v>18891.17316979035</v>
+        <v>18891.17316979356</v>
       </c>
       <c r="Q6">
-        <v>19008.2584500285</v>
+        <v>19008.25845002132</v>
       </c>
       <c r="R6">
-        <v>19413.3008556197</v>
+        <v>19413.3008555753</v>
       </c>
       <c r="S6">
-        <v>1.665654120407719</v>
+        <v>1.665654109660222</v>
       </c>
       <c r="T6">
-        <v>86.74460537946294</v>
+        <v>86.74460523200948</v>
       </c>
       <c r="U6">
-        <v>3.916608334538978</v>
+        <v>3.916608257159814</v>
       </c>
       <c r="V6">
-        <v>30200.64100508277</v>
+        <v>30200.64097055843</v>
       </c>
       <c r="W6">
-        <v>1112.022308150922</v>
+        <v>1112.02229971525</v>
       </c>
       <c r="X6">
         <v>19331.47060578966</v>
@@ -7728,13 +7728,13 @@
         <v>16995.51522784986</v>
       </c>
       <c r="C7">
-        <v>0.8491008918269572</v>
+        <v>0.8491008918269574</v>
       </c>
       <c r="D7">
         <v>70.83932398379679</v>
       </c>
       <c r="E7">
-        <v>1.945577522891205</v>
+        <v>1.945577522891204</v>
       </c>
       <c r="F7">
         <v>149711.4281837321</v>
@@ -7758,7 +7758,7 @@
         <v>78.52601255248037</v>
       </c>
       <c r="M7">
-        <v>0.8095421515701731</v>
+        <v>0.8095421515701737</v>
       </c>
       <c r="N7">
         <v>171438.9982635526</v>
@@ -7791,10 +7791,10 @@
         <v>1188.911547633991</v>
       </c>
       <c r="X7">
-        <v>20151.98538177696</v>
+        <v>20151.98538177413</v>
       </c>
       <c r="Y7">
-        <v>20274.21735168933</v>
+        <v>20274.21735169147</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -7805,43 +7805,43 @@
         <v>16694.34850535526</v>
       </c>
       <c r="C8">
-        <v>0.6406370432995584</v>
+        <v>0.6406370432995585</v>
       </c>
       <c r="D8">
         <v>63.70432387331094</v>
       </c>
       <c r="E8">
-        <v>1.422887039156817</v>
+        <v>1.422887039156818</v>
       </c>
       <c r="F8">
         <v>136079.8070567182</v>
       </c>
       <c r="G8">
-        <v>2558.401835286895</v>
+        <v>2558.401835286896</v>
       </c>
       <c r="H8">
-        <v>16637.39859745312</v>
+        <v>16637.39859744414</v>
       </c>
       <c r="I8">
-        <v>16723.33874551725</v>
+        <v>16723.33874552412</v>
       </c>
       <c r="J8">
-        <v>19031.1164429287</v>
+        <v>19031.11644293253</v>
       </c>
       <c r="K8">
-        <v>0.6534664984181989</v>
+        <v>0.6534664975288685</v>
       </c>
       <c r="L8">
-        <v>75.00376862101255</v>
+        <v>75.00376860709528</v>
       </c>
       <c r="M8">
-        <v>1.579793930327612</v>
+        <v>1.579793914687202</v>
       </c>
       <c r="N8">
-        <v>171710.095272402</v>
+        <v>171710.095252961</v>
       </c>
       <c r="O8">
-        <v>2923.755641496192</v>
+        <v>2923.755641271074</v>
       </c>
       <c r="P8">
         <v>18993.91821819409</v>
@@ -7859,19 +7859,19 @@
         <v>79.98889443559854</v>
       </c>
       <c r="U8">
-        <v>3.576891762060248</v>
+        <v>3.576891762060247</v>
       </c>
       <c r="V8">
         <v>30214.88745766856</v>
       </c>
       <c r="W8">
-        <v>1146.623470885688</v>
+        <v>1146.623470885687</v>
       </c>
       <c r="X8">
-        <v>19374.95752863283</v>
+        <v>19374.95752863808</v>
       </c>
       <c r="Y8">
-        <v>19487.10428787114</v>
+        <v>19487.10428786654</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7897,58 +7897,58 @@
         <v>1623.146630696389</v>
       </c>
       <c r="H9">
-        <v>17024.14785418645</v>
+        <v>17024.1478541855</v>
       </c>
       <c r="I9">
-        <v>17121.31118402619</v>
+        <v>17121.31118402749</v>
       </c>
       <c r="J9">
-        <v>19804.9466376924</v>
+        <v>19804.94663769274</v>
       </c>
       <c r="K9">
-        <v>0.5950282892579349</v>
+        <v>0.5950282889408046</v>
       </c>
       <c r="L9">
-        <v>84.35886676651599</v>
+        <v>84.35886676547922</v>
       </c>
       <c r="M9">
-        <v>1.261988074592501</v>
+        <v>1.26198807504036</v>
       </c>
       <c r="N9">
-        <v>164855.6365287011</v>
+        <v>164855.6365274724</v>
       </c>
       <c r="O9">
-        <v>2114.012259159329</v>
+        <v>2114.012257098769</v>
       </c>
       <c r="P9">
-        <v>19761.43591476055</v>
+        <v>19761.43591476199</v>
       </c>
       <c r="Q9">
-        <v>19881.30155996377</v>
+        <v>19881.30155996042</v>
       </c>
       <c r="R9">
-        <v>20274.18890159476</v>
+        <v>20274.18890155614</v>
       </c>
       <c r="S9">
-        <v>2.105411462265563</v>
+        <v>2.105411468908025</v>
       </c>
       <c r="T9">
-        <v>92.79091705553611</v>
+        <v>92.79091696165226</v>
       </c>
       <c r="U9">
-        <v>4.462924794441357</v>
+        <v>4.462924874051534</v>
       </c>
       <c r="V9">
-        <v>30650.06405588783</v>
+        <v>30650.06402653421</v>
       </c>
       <c r="W9">
-        <v>1272.805263718331</v>
+        <v>1272.805275675423</v>
       </c>
       <c r="X9">
-        <v>20188.86797219755</v>
+        <v>20188.86797220907</v>
       </c>
       <c r="Y9">
-        <v>20319.16755918189</v>
+        <v>20319.16755917405</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7959,37 +7959,37 @@
         <v>16650.75259870122</v>
       </c>
       <c r="C10">
-        <v>0.7128359281056029</v>
+        <v>0.712835928105604</v>
       </c>
       <c r="D10">
         <v>68.36990176129883</v>
       </c>
       <c r="E10">
-        <v>1.577490973081682</v>
+        <v>1.577490973081684</v>
       </c>
       <c r="F10">
         <v>150690.2733448139</v>
       </c>
       <c r="G10">
-        <v>2910.971888594931</v>
+        <v>2910.971888594935</v>
       </c>
       <c r="H10">
-        <v>16589.82859924342</v>
+        <v>16589.82859924208</v>
       </c>
       <c r="I10">
-        <v>16680.17628680107</v>
+        <v>16680.17628680133</v>
       </c>
       <c r="J10">
         <v>19554.49135140532</v>
       </c>
       <c r="K10">
-        <v>0.6617591050428175</v>
+        <v>0.6617591050428173</v>
       </c>
       <c r="L10">
         <v>85.02678245270346</v>
       </c>
       <c r="M10">
-        <v>1.39489829456078</v>
+        <v>1.394898294560781</v>
       </c>
       <c r="N10">
         <v>184513.8714564499</v>
@@ -8013,7 +8013,7 @@
         <v>95.84520434889987</v>
       </c>
       <c r="U10">
-        <v>5.035961476732692</v>
+        <v>5.03596147673269</v>
       </c>
       <c r="V10">
         <v>37180.20846735373</v>
@@ -8042,7 +8042,7 @@
         <v>71.26738644212261</v>
       </c>
       <c r="E11">
-        <v>1.716400768493818</v>
+        <v>1.716400768493819</v>
       </c>
       <c r="F11">
         <v>120927.1024080453</v>
@@ -8051,22 +8051,22 @@
         <v>2409.389926837401</v>
       </c>
       <c r="H11">
-        <v>16996.48898614027</v>
+        <v>16996.48898613806</v>
       </c>
       <c r="I11">
-        <v>17091.0231413253</v>
+        <v>17091.02314132675</v>
       </c>
       <c r="J11">
         <v>19901.89581007058</v>
       </c>
       <c r="K11">
-        <v>0.8163720900427375</v>
+        <v>0.8163720900427374</v>
       </c>
       <c r="L11">
         <v>77.45439289144117</v>
       </c>
       <c r="M11">
-        <v>2.079470177501033</v>
+        <v>2.079470177501034</v>
       </c>
       <c r="N11">
         <v>129335.1831827157</v>
@@ -8075,10 +8075,10 @@
         <v>2755.82713790318</v>
       </c>
       <c r="P11">
-        <v>19863.52940929625</v>
+        <v>19863.52940929434</v>
       </c>
       <c r="Q11">
-        <v>19969.93867679957</v>
+        <v>19969.93867680403</v>
       </c>
       <c r="R11">
         <v>20389.04701040659</v>
@@ -8090,19 +8090,19 @@
         <v>76.23855896076724</v>
       </c>
       <c r="U11">
-        <v>3.133750961412795</v>
+        <v>3.133750961412794</v>
       </c>
       <c r="V11">
         <v>22310.68970957819</v>
       </c>
       <c r="W11">
-        <v>787.884642638305</v>
+        <v>787.8846426383046</v>
       </c>
       <c r="X11">
-        <v>20318.70706317983</v>
+        <v>20318.70706318625</v>
       </c>
       <c r="Y11">
-        <v>20424.57921341948</v>
+        <v>20424.5792134114</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8113,19 +8113,19 @@
         <v>17491.33557708412</v>
       </c>
       <c r="C12">
-        <v>0.9592798975907654</v>
+        <v>0.9592798975907652</v>
       </c>
       <c r="D12">
         <v>57.19972906736233</v>
       </c>
       <c r="E12">
-        <v>2.34213248718183</v>
+        <v>2.342132487181829</v>
       </c>
       <c r="F12">
         <v>130175.0283421382</v>
       </c>
       <c r="G12">
-        <v>4531.638317512479</v>
+        <v>4531.638317512478</v>
       </c>
       <c r="H12">
         <v>17440.76842376788</v>
@@ -8149,13 +8149,13 @@
         <v>134402.7192847388</v>
       </c>
       <c r="O12">
-        <v>1699.996006719781</v>
+        <v>1699.996006719782</v>
       </c>
       <c r="P12">
-        <v>20147.45753409175</v>
+        <v>20147.4575341015</v>
       </c>
       <c r="Q12">
-        <v>20250.67874250345</v>
+        <v>20250.67874248218</v>
       </c>
       <c r="R12">
         <v>20651.26374787284</v>
@@ -8173,13 +8173,13 @@
         <v>24619.64525726688</v>
       </c>
       <c r="W12">
-        <v>841.7233196034697</v>
+        <v>841.7233196034698</v>
       </c>
       <c r="X12">
-        <v>20580.92388707336</v>
+        <v>20580.92388709974</v>
       </c>
       <c r="Y12">
-        <v>20685.67743888761</v>
+        <v>20685.67743886963</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -8187,22 +8187,22 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17121.61251990763</v>
+        <v>17121.6125199074</v>
       </c>
       <c r="C13">
-        <v>0.4172622617476713</v>
+        <v>0.4172622635982317</v>
       </c>
       <c r="D13">
-        <v>61.48661084439566</v>
+        <v>61.48661084114919</v>
       </c>
       <c r="E13">
-        <v>0.995716522809456</v>
+        <v>0.9957165171526939</v>
       </c>
       <c r="F13">
-        <v>125070.668040313</v>
+        <v>125070.668044844</v>
       </c>
       <c r="G13">
-        <v>1626.216699557432</v>
+        <v>1626.216730725391</v>
       </c>
       <c r="H13">
         <v>17066.23938110729</v>
@@ -8214,7 +8214,7 @@
         <v>19905.69797303818</v>
       </c>
       <c r="K13">
-        <v>0.9030517368392138</v>
+        <v>0.9030517368392141</v>
       </c>
       <c r="L13">
         <v>80.06817208740735</v>
@@ -8226,13 +8226,13 @@
         <v>137858.8466987458</v>
       </c>
       <c r="O13">
-        <v>3028.494277842204</v>
+        <v>3028.494277842206</v>
       </c>
       <c r="P13">
-        <v>19866.80419106091</v>
+        <v>19866.80419105519</v>
       </c>
       <c r="Q13">
-        <v>19978.01179205289</v>
+        <v>19978.01179206794</v>
       </c>
       <c r="R13">
         <v>20382.7274913218</v>
@@ -8244,19 +8244,19 @@
         <v>80.56174920532024</v>
       </c>
       <c r="U13">
-        <v>3.321111651939629</v>
+        <v>3.32111165193963</v>
       </c>
       <c r="V13">
         <v>23133.49301792107</v>
       </c>
       <c r="W13">
-        <v>782.6941372312306</v>
+        <v>782.6941372312307</v>
       </c>
       <c r="X13">
-        <v>20309.4260980369</v>
+        <v>20309.4260980222</v>
       </c>
       <c r="Y13">
-        <v>20421.99109601252</v>
+        <v>20421.99109602375</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8273,7 +8273,7 @@
         <v>54.72578789531988</v>
       </c>
       <c r="E14">
-        <v>1.738301357619797</v>
+        <v>1.738301357619796</v>
       </c>
       <c r="F14">
         <v>129183.9868916262</v>
@@ -8282,40 +8282,40 @@
         <v>3375.390307447693</v>
       </c>
       <c r="H14">
-        <v>16070.42742859473</v>
+        <v>16070.42742859861</v>
       </c>
       <c r="I14">
-        <v>16145.00879009814</v>
+        <v>16145.00879009542</v>
       </c>
       <c r="J14">
-        <v>18670.16006295212</v>
+        <v>18670.16006294895</v>
       </c>
       <c r="K14">
-        <v>0.4853045502148028</v>
+        <v>0.485304546351119</v>
       </c>
       <c r="L14">
-        <v>73.3426118373936</v>
+        <v>73.34261184617674</v>
       </c>
       <c r="M14">
-        <v>1.128409918650843</v>
+        <v>1.128409897050023</v>
       </c>
       <c r="N14">
-        <v>139562.9156384</v>
+        <v>139562.9156548938</v>
       </c>
       <c r="O14">
-        <v>1765.043210547634</v>
+        <v>1765.043195739987</v>
       </c>
       <c r="P14">
-        <v>18632.10642159508</v>
+        <v>18632.10642159156</v>
       </c>
       <c r="Q14">
-        <v>18738.1923116459</v>
+        <v>18738.19231165967</v>
       </c>
       <c r="R14">
         <v>19121.33025215214</v>
       </c>
       <c r="S14">
-        <v>1.672918533987772</v>
+        <v>1.672918533987773</v>
       </c>
       <c r="T14">
         <v>71.70057733085727</v>
@@ -8330,10 +8330,10 @@
         <v>1073.002958506844</v>
       </c>
       <c r="X14">
-        <v>19054.31643275515</v>
+        <v>19054.3164327444</v>
       </c>
       <c r="Y14">
-        <v>19155.6337216299</v>
+        <v>19155.63372164185</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -8344,7 +8344,7 @@
         <v>16785.35520283738</v>
       </c>
       <c r="C15">
-        <v>0.745717405163638</v>
+        <v>0.7457174051636383</v>
       </c>
       <c r="D15">
         <v>64.84019045674953</v>
@@ -8392,25 +8392,25 @@
         <v>20193.08937403767</v>
       </c>
       <c r="S15">
-        <v>1.043814348193908</v>
+        <v>1.043814348184744</v>
       </c>
       <c r="T15">
-        <v>79.09178316846037</v>
+        <v>79.09178316846453</v>
       </c>
       <c r="U15">
-        <v>2.305985432780226</v>
+        <v>2.305985432768941</v>
       </c>
       <c r="V15">
-        <v>22643.95355069354</v>
+        <v>22643.9535506946</v>
       </c>
       <c r="W15">
-        <v>574.7887502936567</v>
+        <v>574.7887502897094</v>
       </c>
       <c r="X15">
-        <v>20120.36067143803</v>
+        <v>20120.36067142943</v>
       </c>
       <c r="Y15">
-        <v>20228.63906001081</v>
+        <v>20228.63906001706</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -8421,13 +8421,13 @@
         <v>16074.42495769655</v>
       </c>
       <c r="C16">
-        <v>0.2233454832037113</v>
+        <v>0.2233454832037112</v>
       </c>
       <c r="D16">
         <v>53.58044738645653</v>
       </c>
       <c r="E16">
-        <v>0.4436819361327004</v>
+        <v>0.4436819361327006</v>
       </c>
       <c r="F16">
         <v>133629.9930154899</v>
@@ -8436,28 +8436,28 @@
         <v>1043.625726874565</v>
       </c>
       <c r="H16">
-        <v>16026.36937230497</v>
+        <v>16026.36937230244</v>
       </c>
       <c r="I16">
-        <v>16096.47930660992</v>
+        <v>16096.47930661173</v>
       </c>
       <c r="J16">
         <v>18630.51267868483</v>
       </c>
       <c r="K16">
-        <v>0.4387072292912039</v>
+        <v>0.438707229291204</v>
       </c>
       <c r="L16">
         <v>70.04644702916517</v>
       </c>
       <c r="M16">
-        <v>0.9913870629278628</v>
+        <v>0.9913870629278627</v>
       </c>
       <c r="N16">
         <v>160018.418700329</v>
       </c>
       <c r="O16">
-        <v>1876.684334084125</v>
+        <v>1876.684334084126</v>
       </c>
       <c r="P16">
         <v>18594.93820994246</v>
@@ -8481,13 +8481,13 @@
         <v>28901.42182818773</v>
       </c>
       <c r="W16">
-        <v>1070.563434603338</v>
+        <v>1070.563434603337</v>
       </c>
       <c r="X16">
-        <v>19024.75322704224</v>
+        <v>19024.75322704102</v>
       </c>
       <c r="Y16">
-        <v>19121.1727702549</v>
+        <v>19121.17277025582</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -8495,34 +8495,34 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16919.61927098422</v>
+        <v>16919.61927097672</v>
       </c>
       <c r="C17">
-        <v>0.6801524624429393</v>
+        <v>0.680152461455423</v>
       </c>
       <c r="D17">
-        <v>59.03157182352685</v>
+        <v>59.03157180271602</v>
       </c>
       <c r="E17">
-        <v>1.44250323996474</v>
+        <v>1.442503238822001</v>
       </c>
       <c r="F17">
-        <v>132122.4479302468</v>
+        <v>132122.4478970829</v>
       </c>
       <c r="G17">
-        <v>2846.983777643633</v>
+        <v>2846.983805493399</v>
       </c>
       <c r="H17">
-        <v>16866.44664170727</v>
+        <v>16866.44664170086</v>
       </c>
       <c r="I17">
-        <v>16946.03294565839</v>
+        <v>16946.03294566326</v>
       </c>
       <c r="J17">
         <v>19534.74675275161</v>
       </c>
       <c r="K17">
-        <v>0.6959563512317515</v>
+        <v>0.6959563512317511</v>
       </c>
       <c r="L17">
         <v>74.53073198560757</v>
@@ -8534,13 +8534,13 @@
         <v>171566.7058520633</v>
       </c>
       <c r="O17">
-        <v>2968.546260215631</v>
+        <v>2968.54626021563</v>
       </c>
       <c r="P17">
-        <v>19496.50171687709</v>
+        <v>19496.50171688082</v>
       </c>
       <c r="Q17">
-        <v>19602.81561134249</v>
+        <v>19602.81561133857</v>
       </c>
       <c r="R17">
         <v>19994.14486498987</v>
@@ -8552,19 +8552,19 @@
         <v>75.89435574409273</v>
       </c>
       <c r="U17">
-        <v>2.458723407881145</v>
+        <v>2.458723407881146</v>
       </c>
       <c r="V17">
         <v>30211.43245230778</v>
       </c>
       <c r="W17">
-        <v>788.800084658738</v>
+        <v>788.8000846587381</v>
       </c>
       <c r="X17">
-        <v>19922.09849814553</v>
+        <v>19922.09849816804</v>
       </c>
       <c r="Y17">
-        <v>20031.93311911006</v>
+        <v>20031.93311909376</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -8575,7 +8575,7 @@
         <v>16712.87090662411</v>
       </c>
       <c r="C18">
-        <v>0.4848882573374289</v>
+        <v>0.4848882573374286</v>
       </c>
       <c r="D18">
         <v>60.48010924464606</v>
@@ -8587,7 +8587,7 @@
         <v>132389.7408557494</v>
       </c>
       <c r="G18">
-        <v>2207.369477479423</v>
+        <v>2207.369477479422</v>
       </c>
       <c r="H18">
         <v>16660.81705306081</v>
@@ -8599,13 +8599,13 @@
         <v>19389.0086994275</v>
       </c>
       <c r="K18">
-        <v>0.4202958933641558</v>
+        <v>0.4202958933641557</v>
       </c>
       <c r="L18">
         <v>76.11068265479329</v>
       </c>
       <c r="M18">
-        <v>0.9608142645811968</v>
+        <v>0.9608142645811963</v>
       </c>
       <c r="N18">
         <v>168248.8847028468</v>
@@ -8614,34 +8614,34 @@
         <v>1781.069688720996</v>
       </c>
       <c r="P18">
-        <v>19351.37222068958</v>
+        <v>19351.372220683</v>
       </c>
       <c r="Q18">
-        <v>19458.86295702757</v>
+        <v>19458.86295704955</v>
       </c>
       <c r="R18">
-        <v>19860.32943268724</v>
+        <v>19860.32943269654</v>
       </c>
       <c r="S18">
-        <v>1.810509843688074</v>
+        <v>1.810509854012714</v>
       </c>
       <c r="T18">
-        <v>79.37326501493605</v>
+        <v>79.37326504580794</v>
       </c>
       <c r="U18">
-        <v>3.805167642327627</v>
+        <v>3.805167635332031</v>
       </c>
       <c r="V18">
-        <v>29740.49477762568</v>
+        <v>29740.49478209646</v>
       </c>
       <c r="W18">
-        <v>1239.101470343612</v>
+        <v>1239.101497654855</v>
       </c>
       <c r="X18">
-        <v>19787.07735468337</v>
+        <v>19787.07735468482</v>
       </c>
       <c r="Y18">
-        <v>19895.0768249217</v>
+        <v>19895.0768249246</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -8652,13 +8652,13 @@
         <v>16513.07235716625</v>
       </c>
       <c r="C19">
-        <v>0.3709970639777983</v>
+        <v>0.3709970639777984</v>
       </c>
       <c r="D19">
         <v>55.15633595047769</v>
       </c>
       <c r="E19">
-        <v>0.9703886578060735</v>
+        <v>0.9703886578060738</v>
       </c>
       <c r="F19">
         <v>126750.1247413498</v>
@@ -8682,13 +8682,13 @@
         <v>73.61875383359548</v>
       </c>
       <c r="M19">
-        <v>0.7004282273150221</v>
+        <v>0.7004282273150224</v>
       </c>
       <c r="N19">
         <v>172080.5046516432</v>
       </c>
       <c r="O19">
-        <v>1359.30527095642</v>
+        <v>1359.305270956421</v>
       </c>
       <c r="P19">
         <v>18777.53131344489</v>
@@ -8697,28 +8697,28 @@
         <v>18880.95936456488</v>
       </c>
       <c r="R19">
-        <v>19227.18861068024</v>
+        <v>19227.18861068036</v>
       </c>
       <c r="S19">
-        <v>1.084916747241269</v>
+        <v>1.084916753584124</v>
       </c>
       <c r="T19">
-        <v>78.39673603857074</v>
+        <v>78.39673604035919</v>
       </c>
       <c r="U19">
-        <v>2.476563117654325</v>
+        <v>2.476563136756579</v>
       </c>
       <c r="V19">
-        <v>31743.43555031904</v>
+        <v>31743.43554996689</v>
       </c>
       <c r="W19">
-        <v>828.9932324520821</v>
+        <v>828.9932338713883</v>
       </c>
       <c r="X19">
-        <v>19155.05833032982</v>
+        <v>19155.05833032689</v>
       </c>
       <c r="Y19">
-        <v>19263.63703610882</v>
+        <v>19263.63703611169</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8729,55 +8729,55 @@
         <v>16232.83695182579</v>
       </c>
       <c r="C20">
-        <v>0.4038480417232426</v>
+        <v>0.4038480417232431</v>
       </c>
       <c r="D20">
         <v>58.36568315112386</v>
       </c>
       <c r="E20">
-        <v>0.9035600114269577</v>
+        <v>0.9035600114269585</v>
       </c>
       <c r="F20">
         <v>120652.5171617915</v>
       </c>
       <c r="G20">
-        <v>1548.701953021278</v>
+        <v>1548.701953021279</v>
       </c>
       <c r="H20">
         <v>16179.93276272416</v>
       </c>
       <c r="I20">
-        <v>16260.3754690251</v>
+        <v>16260.37546902511</v>
       </c>
       <c r="J20">
-        <v>18770.1430262318</v>
+        <v>18770.14302623094</v>
       </c>
       <c r="K20">
-        <v>0.7072121393883891</v>
+        <v>0.7072121405131245</v>
       </c>
       <c r="L20">
-        <v>75.56631992466129</v>
+        <v>75.56631992761109</v>
       </c>
       <c r="M20">
-        <v>1.663082074252336</v>
+        <v>1.66308208609135</v>
       </c>
       <c r="N20">
-        <v>159853.2174978311</v>
+        <v>159853.2175017551</v>
       </c>
       <c r="O20">
-        <v>2893.904832645369</v>
+        <v>2893.904838285525</v>
       </c>
       <c r="P20">
-        <v>18733.01377880911</v>
+        <v>18733.0137788065</v>
       </c>
       <c r="Q20">
-        <v>18836.82570759527</v>
+        <v>18836.82570760103</v>
       </c>
       <c r="R20">
         <v>19222.18851717627</v>
       </c>
       <c r="S20">
-        <v>0.8944267782576889</v>
+        <v>0.8944267782576887</v>
       </c>
       <c r="T20">
         <v>80.85796004177654</v>
@@ -8789,7 +8789,7 @@
         <v>29424.45877430814</v>
       </c>
       <c r="W20">
-        <v>612.4630077494128</v>
+        <v>612.4630077494126</v>
       </c>
       <c r="X20">
         <v>19148.12790401433</v>
@@ -8812,7 +8812,7 @@
         <v>65.40536478618455</v>
       </c>
       <c r="E21">
-        <v>1.513245331107106</v>
+        <v>1.513245331107107</v>
       </c>
       <c r="F21">
         <v>108953.4639580225</v>
@@ -8845,10 +8845,10 @@
         <v>2099.447694211965</v>
       </c>
       <c r="P21">
-        <v>19503.94223571064</v>
+        <v>19503.94223571798</v>
       </c>
       <c r="Q21">
-        <v>19620.33027926378</v>
+        <v>19620.33027925362</v>
       </c>
       <c r="R21">
         <v>20019.25391495449</v>
@@ -8866,13 +8866,13 @@
         <v>23780.98992366022</v>
       </c>
       <c r="W21">
-        <v>727.0153251199222</v>
+        <v>727.0153251199224</v>
       </c>
       <c r="X21">
-        <v>19946.52090268174</v>
+        <v>19946.52090268373</v>
       </c>
       <c r="Y21">
-        <v>20057.31778574036</v>
+        <v>20057.31778573895</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -8880,22 +8880,22 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>16130.70913906926</v>
+        <v>16130.70913909673</v>
       </c>
       <c r="C22">
-        <v>0.9503989964923045</v>
+        <v>0.9503989892138417</v>
       </c>
       <c r="D22">
-        <v>65.15546396716462</v>
+        <v>65.15546403487241</v>
       </c>
       <c r="E22">
-        <v>2.030145788495774</v>
+        <v>2.030145817680304</v>
       </c>
       <c r="F22">
-        <v>119633.3934926771</v>
+        <v>119633.3936016189</v>
       </c>
       <c r="G22">
-        <v>3397.469208665281</v>
+        <v>3397.469172050615</v>
       </c>
       <c r="H22">
         <v>16070.37533749735</v>
@@ -8904,46 +8904,46 @@
         <v>16159.2669747159</v>
       </c>
       <c r="J22">
-        <v>18807.18682665572</v>
+        <v>18807.18682667385</v>
       </c>
       <c r="K22">
-        <v>0.6051210770227246</v>
+        <v>0.6051210754461944</v>
       </c>
       <c r="L22">
-        <v>80.2085187825468</v>
+        <v>80.20851872673963</v>
       </c>
       <c r="M22">
-        <v>1.332520933372312</v>
+        <v>1.332520909895771</v>
       </c>
       <c r="N22">
-        <v>143107.9566326716</v>
+        <v>143107.9565538544</v>
       </c>
       <c r="O22">
-        <v>1994.844119857691</v>
+        <v>1994.84412428996</v>
       </c>
       <c r="P22">
-        <v>18767.98417702847</v>
+        <v>18767.98417703483</v>
       </c>
       <c r="Q22">
-        <v>18880.71438775237</v>
+        <v>18880.71438774386</v>
       </c>
       <c r="R22">
-        <v>19277.24583493902</v>
+        <v>19277.24583499733</v>
       </c>
       <c r="S22">
-        <v>2.587330431179355</v>
+        <v>2.587330435650079</v>
       </c>
       <c r="T22">
-        <v>90.28677001595709</v>
+        <v>90.28677017737766</v>
       </c>
       <c r="U22">
-        <v>5.556397806263256</v>
+        <v>5.556397851332989</v>
       </c>
       <c r="V22">
-        <v>28613.57171428979</v>
+        <v>28613.57175151758</v>
       </c>
       <c r="W22">
-        <v>1524.925358492141</v>
+        <v>1524.925377866243</v>
       </c>
       <c r="X22">
         <v>19197.3409155855</v>
@@ -8960,31 +8960,31 @@
         <v>16891.31967995744</v>
       </c>
       <c r="C23">
-        <v>0.6336698714787307</v>
+        <v>0.6336698714787311</v>
       </c>
       <c r="D23">
         <v>75.19883168690487</v>
       </c>
       <c r="E23">
-        <v>1.444288758715963</v>
+        <v>1.444288758715964</v>
       </c>
       <c r="F23">
         <v>115757.52473621</v>
       </c>
       <c r="G23">
-        <v>1864.528131786584</v>
+        <v>1864.528131786585</v>
       </c>
       <c r="H23">
-        <v>16821.62840878818</v>
+        <v>16821.62840880156</v>
       </c>
       <c r="I23">
-        <v>16926.54986562849</v>
+        <v>16926.54986562017</v>
       </c>
       <c r="J23">
         <v>19803.79798280837</v>
       </c>
       <c r="K23">
-        <v>0.9733829074726087</v>
+        <v>0.9733829074726085</v>
       </c>
       <c r="L23">
         <v>85.84557070332747</v>
@@ -8996,7 +8996,7 @@
         <v>131356.9976848444</v>
       </c>
       <c r="O23">
-        <v>2726.088463532463</v>
+        <v>2726.088463532462</v>
       </c>
       <c r="P23">
         <v>19760.0717794587</v>
@@ -9014,19 +9014,19 @@
         <v>89.14298110195809</v>
       </c>
       <c r="U23">
-        <v>3.09142181477522</v>
+        <v>3.091421814775219</v>
       </c>
       <c r="V23">
         <v>26051.78978639396</v>
       </c>
       <c r="W23">
-        <v>763.1544990124045</v>
+        <v>763.1544990124042</v>
       </c>
       <c r="X23">
-        <v>20224.94867900239</v>
+        <v>20224.94867899119</v>
       </c>
       <c r="Y23">
-        <v>20344.75155526003</v>
+        <v>20344.75155526984</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -9034,34 +9034,34 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>16097.40154766152</v>
+        <v>16097.40154766359</v>
       </c>
       <c r="C24">
-        <v>0.8329803133033686</v>
+        <v>0.8329803115482055</v>
       </c>
       <c r="D24">
-        <v>64.72813054531665</v>
+        <v>64.72813055073011</v>
       </c>
       <c r="E24">
-        <v>1.683745661948857</v>
+        <v>1.683745678622909</v>
       </c>
       <c r="F24">
-        <v>98532.79828518946</v>
+        <v>98532.79829098267</v>
       </c>
       <c r="G24">
-        <v>2306.565866373758</v>
+        <v>2306.565872886022</v>
       </c>
       <c r="H24">
-        <v>16039.76968822533</v>
+        <v>16039.7696882237</v>
       </c>
       <c r="I24">
-        <v>16125.51026077363</v>
+        <v>16125.51026077499</v>
       </c>
       <c r="J24">
         <v>18622.69911131985</v>
       </c>
       <c r="K24">
-        <v>0.9378863060174168</v>
+        <v>0.9378863060174171</v>
       </c>
       <c r="L24">
         <v>76.65944595208471</v>
@@ -9073,7 +9073,7 @@
         <v>123319.3686369091</v>
       </c>
       <c r="O24">
-        <v>2749.840050028279</v>
+        <v>2749.840050028281</v>
       </c>
       <c r="P24">
         <v>18585.35933063994</v>
@@ -9097,13 +9097,13 @@
         <v>23303.45349089586</v>
       </c>
       <c r="W24">
-        <v>609.8291244526092</v>
+        <v>609.8291244526091</v>
       </c>
       <c r="X24">
-        <v>18992.44225330863</v>
+        <v>18992.44225328591</v>
       </c>
       <c r="Y24">
-        <v>19107.3478064173</v>
+        <v>19107.34780643725</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -9111,28 +9111,28 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>16926.60799331336</v>
+        <v>16926.60799331901</v>
       </c>
       <c r="C25">
-        <v>0.9955678202023683</v>
+        <v>0.9955678323715872</v>
       </c>
       <c r="D25">
-        <v>71.97389075538433</v>
+        <v>71.97389076740654</v>
       </c>
       <c r="E25">
-        <v>2.212496298309449</v>
+        <v>2.212496304792925</v>
       </c>
       <c r="F25">
-        <v>117061.8590524417</v>
+        <v>117061.8590788438</v>
       </c>
       <c r="G25">
-        <v>3158.60180242293</v>
+        <v>3158.601845199213</v>
       </c>
       <c r="H25">
-        <v>16860.30860175703</v>
+        <v>16860.30860175419</v>
       </c>
       <c r="I25">
-        <v>16959.41351006849</v>
+        <v>16959.41351007033</v>
       </c>
       <c r="J25">
         <v>19640.19735299722</v>
@@ -9159,28 +9159,28 @@
         <v>19718.39145302802</v>
       </c>
       <c r="R25">
-        <v>20122.99839716084</v>
+        <v>20122.99839707338</v>
       </c>
       <c r="S25">
-        <v>2.322249543878014</v>
+        <v>2.322249543615742</v>
       </c>
       <c r="T25">
-        <v>99.86683735510597</v>
+        <v>99.86683710264077</v>
       </c>
       <c r="U25">
-        <v>5.198696340649375</v>
+        <v>5.198696328069645</v>
       </c>
       <c r="V25">
-        <v>30771.10514888932</v>
+        <v>30771.10508737543</v>
       </c>
       <c r="W25">
-        <v>1366.204091254149</v>
+        <v>1366.20404921043</v>
       </c>
       <c r="X25">
-        <v>20033.88450426203</v>
+        <v>20033.88450423736</v>
       </c>
       <c r="Y25">
-        <v>20163.85521878676</v>
+        <v>20163.85521880209</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -9203,13 +9203,13 @@
         <v>100989.9762578383</v>
       </c>
       <c r="G26">
-        <v>1633.871961268051</v>
+        <v>1633.87196126805</v>
       </c>
       <c r="H26">
-        <v>16657.28720737809</v>
+        <v>16657.28720736673</v>
       </c>
       <c r="I26">
-        <v>16734.68159874375</v>
+        <v>16734.68159875124</v>
       </c>
       <c r="J26">
         <v>19376.32325325882</v>
@@ -9221,43 +9221,43 @@
         <v>76.60302456783279</v>
       </c>
       <c r="M26">
-        <v>0.6775889235965665</v>
+        <v>0.6775889235965663</v>
       </c>
       <c r="N26">
         <v>129488.1151073594</v>
       </c>
       <c r="O26">
-        <v>916.0139746972418</v>
+        <v>916.0139746972417</v>
       </c>
       <c r="P26">
-        <v>19339.06778972752</v>
+        <v>19339.06778972654</v>
       </c>
       <c r="Q26">
-        <v>19445.79039299594</v>
+        <v>19445.79039299862</v>
       </c>
       <c r="R26">
-        <v>19850.3605461456</v>
+        <v>19850.36054617694</v>
       </c>
       <c r="S26">
-        <v>2.745229963979747</v>
+        <v>2.745229979638091</v>
       </c>
       <c r="T26">
-        <v>81.4531510589415</v>
+        <v>81.45315111704659</v>
       </c>
       <c r="U26">
-        <v>4.934408830594855</v>
+        <v>4.934408845210832</v>
       </c>
       <c r="V26">
-        <v>25586.16649197993</v>
+        <v>25586.16651200763</v>
       </c>
       <c r="W26">
-        <v>1596.08096085866</v>
+        <v>1596.081003908776</v>
       </c>
       <c r="X26">
-        <v>19779.18193135308</v>
+        <v>19779.18193133317</v>
       </c>
       <c r="Y26">
-        <v>19878.66667931194</v>
+        <v>19878.66667932855</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -9268,13 +9268,13 @@
         <v>16334.41766937772</v>
       </c>
       <c r="C27">
-        <v>0.6684063015185879</v>
+        <v>0.668406301518588</v>
       </c>
       <c r="D27">
         <v>68.57582217514471</v>
       </c>
       <c r="E27">
-        <v>1.554093281988904</v>
+        <v>1.554093281988905</v>
       </c>
       <c r="F27">
         <v>106641.6971302624</v>
@@ -9283,10 +9283,10 @@
         <v>2021.508781046902</v>
       </c>
       <c r="H27">
-        <v>16271.520959857</v>
+        <v>16271.52095985635</v>
       </c>
       <c r="I27">
-        <v>16364.68283147471</v>
+        <v>16364.68283147557</v>
       </c>
       <c r="J27">
         <v>18927.92173143277</v>
@@ -9307,34 +9307,34 @@
         <v>1460.832187629913</v>
       </c>
       <c r="P27">
-        <v>18881.33888510347</v>
+        <v>18881.33888512732</v>
       </c>
       <c r="Q27">
-        <v>19006.44403112181</v>
+        <v>19006.44403106141</v>
       </c>
       <c r="R27">
-        <v>19390.67494426449</v>
+        <v>19390.67494427219</v>
       </c>
       <c r="S27">
-        <v>2.538949573063704</v>
+        <v>2.538949598459896</v>
       </c>
       <c r="T27">
-        <v>103.787097773459</v>
+        <v>103.787097813898</v>
       </c>
       <c r="U27">
-        <v>5.633454832623441</v>
+        <v>5.633454910614866</v>
       </c>
       <c r="V27">
-        <v>30335.74559064353</v>
+        <v>30335.74559375933</v>
       </c>
       <c r="W27">
-        <v>1394.432702257973</v>
+        <v>1394.432728579314</v>
       </c>
       <c r="X27">
-        <v>19298.45171941517</v>
+        <v>19298.45171947137</v>
       </c>
       <c r="Y27">
-        <v>19430.98432218452</v>
+        <v>19430.98432214596</v>
       </c>
     </row>
   </sheetData>
